--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Durazno.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44246</v>
+        <v>44211</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P2" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T2" t="n">
         <v>15</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44246</v>
+        <v>44211</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44246</v>
+        <v>44211</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44246</v>
+        <v>44211</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="N5" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44246</v>
+        <v>44211</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -835,25 +835,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O6" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P6" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44246</v>
+        <v>44243</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -915,25 +915,25 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44203</v>
+        <v>44243</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -995,25 +995,25 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
         <v>12000</v>
       </c>
       <c r="O8" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P8" t="n">
-        <v>12556</v>
+        <v>12000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>837</v>
+        <v>800</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44203</v>
+        <v>44243</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1075,29 +1075,29 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>533</v>
       </c>
       <c r="T9" t="n">
         <v>15</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1155,29 +1155,29 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="N10" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44263</v>
+        <v>44204</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1235,16 +1235,16 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="N11" t="n">
         <v>12000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44263</v>
+        <v>44214</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1315,25 +1315,25 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N12" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O12" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P12" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44263</v>
+        <v>44214</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1395,25 +1395,25 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O13" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P13" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>533</v>
+        <v>733</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44267</v>
+        <v>44208</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1475,29 +1475,29 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O14" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P14" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44165</v>
+        <v>44188</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1555,29 +1555,29 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N15" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O15" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P15" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44165</v>
+        <v>44188</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1635,29 +1635,29 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N16" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1715,29 +1715,29 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N17" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O17" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P17" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>556</v>
+        <v>1067</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44187</v>
+        <v>44225</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1804,20 +1804,20 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O18" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P18" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44187</v>
+        <v>44225</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1875,29 +1875,29 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="N19" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O19" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P19" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44187</v>
+        <v>44225</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1955,16 +1955,16 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="N20" t="n">
         <v>14000</v>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44189</v>
+        <v>44225</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2044,20 +2044,20 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="N21" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O21" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P21" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>611</v>
+        <v>800</v>
       </c>
       <c r="T21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44189</v>
+        <v>44193</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2115,29 +2115,29 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>60</v>
       </c>
       <c r="N22" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O22" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P22" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44189</v>
+        <v>44193</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Redtop</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2204,20 +2204,20 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N23" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O23" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P23" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>833</v>
+        <v>933</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44189</v>
+        <v>44193</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Redtop</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,20 +2284,20 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N24" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O24" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P24" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44210</v>
+        <v>44160</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
@@ -2355,29 +2355,29 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O25" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P25" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T25" t="n">
         <v>15</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44210</v>
+        <v>44160</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
@@ -2435,29 +2435,29 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N26" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O26" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P26" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44210</v>
+        <v>44160</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
@@ -2515,16 +2515,16 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N27" t="n">
         <v>10000</v>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44210</v>
+        <v>44286</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
@@ -2595,25 +2595,25 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O28" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44235</v>
+        <v>44286</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
@@ -2675,25 +2675,25 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N29" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O29" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P29" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T29" t="n">
         <v>15</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44235</v>
+        <v>44201</v>
       </c>
       <c r="E30" t="n">
         <v>7</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>300</v>
       </c>
       <c r="N30" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O30" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P30" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44235</v>
+        <v>44201</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2844,20 +2844,20 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="N31" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O31" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P31" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44249</v>
+        <v>44232</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
@@ -2924,20 +2924,20 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="N32" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O32" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P32" t="n">
-        <v>15000</v>
+        <v>13444</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>938</v>
+        <v>896</v>
       </c>
       <c r="T32" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44218</v>
+        <v>44162</v>
       </c>
       <c r="E33" t="n">
         <v>7</v>
@@ -2995,41 +2995,41 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="N33" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O33" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P33" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>933</v>
+        <v>833</v>
       </c>
       <c r="T33" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44218</v>
+        <v>44162</v>
       </c>
       <c r="E34" t="n">
         <v>7</v>
@@ -3075,41 +3075,41 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N34" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O34" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P34" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T34" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44218</v>
+        <v>44202</v>
       </c>
       <c r="E35" t="n">
         <v>7</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N35" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O35" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P35" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44218</v>
+        <v>44202</v>
       </c>
       <c r="E36" t="n">
         <v>7</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N36" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O36" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P36" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44252</v>
+        <v>44165</v>
       </c>
       <c r="E37" t="n">
         <v>7</v>
@@ -3315,29 +3315,29 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N37" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O37" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P37" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>867</v>
+        <v>833</v>
       </c>
       <c r="T37" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44252</v>
+        <v>44165</v>
       </c>
       <c r="E38" t="n">
         <v>7</v>
@@ -3395,29 +3395,29 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N38" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O38" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P38" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>867</v>
+        <v>778</v>
       </c>
       <c r="T38" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44252</v>
+        <v>44242</v>
       </c>
       <c r="E39" t="n">
         <v>7</v>
@@ -3475,25 +3475,25 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N39" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O39" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P39" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44252</v>
+        <v>44242</v>
       </c>
       <c r="E40" t="n">
         <v>7</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3564,20 +3564,20 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N40" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O40" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P40" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44252</v>
+        <v>44242</v>
       </c>
       <c r="E41" t="n">
         <v>7</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3647,13 +3647,13 @@
         <v>200</v>
       </c>
       <c r="N41" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O41" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P41" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="T41" t="n">
         <v>15</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44229</v>
+        <v>44169</v>
       </c>
       <c r="E42" t="n">
         <v>7</v>
@@ -3715,41 +3715,41 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N42" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O42" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P42" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T42" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44229</v>
+        <v>44216</v>
       </c>
       <c r="E43" t="n">
         <v>7</v>
@@ -3795,25 +3795,25 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="N43" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O43" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P43" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T43" t="n">
         <v>15</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44167</v>
+        <v>44216</v>
       </c>
       <c r="E44" t="n">
         <v>7</v>
@@ -3875,29 +3875,29 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N44" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O44" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P44" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T44" t="n">
         <v>15</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44167</v>
+        <v>44216</v>
       </c>
       <c r="E45" t="n">
         <v>7</v>
@@ -3955,16 +3955,16 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N45" t="n">
         <v>14000</v>
@@ -3977,12 +3977,12 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S45" t="n">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44236</v>
+        <v>44216</v>
       </c>
       <c r="E46" t="n">
         <v>7</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4044,29 +4044,29 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="N46" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O46" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P46" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T46" t="n">
         <v>15</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44236</v>
+        <v>44216</v>
       </c>
       <c r="E47" t="n">
         <v>7</v>
@@ -4115,25 +4115,25 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N47" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O47" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P47" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44236</v>
+        <v>44216</v>
       </c>
       <c r="E48" t="n">
         <v>7</v>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4204,29 +4204,29 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N48" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O48" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P48" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44215</v>
+        <v>44260</v>
       </c>
       <c r="E49" t="n">
         <v>7</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N49" t="n">
         <v>14000</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44215</v>
+        <v>44260</v>
       </c>
       <c r="E50" t="n">
         <v>7</v>
@@ -4355,25 +4355,25 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="N50" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O50" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P50" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44215</v>
+        <v>44271</v>
       </c>
       <c r="E51" t="n">
         <v>7</v>
@@ -4435,25 +4435,25 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="N51" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O51" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P51" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44215</v>
+        <v>44229</v>
       </c>
       <c r="E52" t="n">
         <v>7</v>
@@ -4520,11 +4520,11 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N52" t="n">
         <v>12000</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44239</v>
+        <v>44229</v>
       </c>
       <c r="E53" t="n">
         <v>7</v>
@@ -4595,25 +4595,25 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="N53" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O53" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P53" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44239</v>
+        <v>44189</v>
       </c>
       <c r="E54" t="n">
         <v>7</v>
@@ -4675,29 +4675,29 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="N54" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O54" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P54" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>867</v>
+        <v>611</v>
       </c>
       <c r="T54" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44239</v>
+        <v>44189</v>
       </c>
       <c r="E55" t="n">
         <v>7</v>
@@ -4755,16 +4755,16 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N55" t="n">
         <v>9000</v>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -4786,10 +4786,10 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T55" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44174</v>
+        <v>44189</v>
       </c>
       <c r="E56" t="n">
         <v>7</v>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4844,7 +4844,7 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N56" t="n">
         <v>15000</v>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T56" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44174</v>
+        <v>44189</v>
       </c>
       <c r="E57" t="n">
         <v>7</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4927,17 +4927,17 @@
         <v>100</v>
       </c>
       <c r="N57" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O57" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P57" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>867</v>
+        <v>778</v>
       </c>
       <c r="T57" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44221</v>
+        <v>44181</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
@@ -4995,25 +4995,25 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N58" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O58" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P58" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T58" t="n">
         <v>15</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44221</v>
+        <v>44181</v>
       </c>
       <c r="E59" t="n">
         <v>7</v>
@@ -5075,25 +5075,25 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N59" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O59" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P59" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T59" t="n">
         <v>15</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44271</v>
+        <v>44231</v>
       </c>
       <c r="E60" t="n">
         <v>7</v>
@@ -5155,25 +5155,25 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="N60" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O60" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P60" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44162</v>
+        <v>44231</v>
       </c>
       <c r="E61" t="n">
         <v>7</v>
@@ -5235,29 +5235,29 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N61" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O61" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P61" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T61" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44162</v>
+        <v>44231</v>
       </c>
       <c r="E62" t="n">
         <v>7</v>
@@ -5315,16 +5315,16 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N62" t="n">
         <v>14000</v>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -5346,10 +5346,10 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>778</v>
+        <v>933</v>
       </c>
       <c r="T62" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44242</v>
+        <v>44231</v>
       </c>
       <c r="E63" t="n">
         <v>7</v>
@@ -5395,29 +5395,29 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M63" t="n">
         <v>300</v>
       </c>
       <c r="N63" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O63" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P63" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44242</v>
+        <v>44231</v>
       </c>
       <c r="E64" t="n">
         <v>7</v>
@@ -5475,25 +5475,25 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N64" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O64" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P64" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44242</v>
+        <v>44246</v>
       </c>
       <c r="E65" t="n">
         <v>7</v>
@@ -5555,25 +5555,25 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N65" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O65" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P65" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T65" t="n">
         <v>15</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44204</v>
+        <v>44246</v>
       </c>
       <c r="E66" t="n">
         <v>7</v>
@@ -5635,25 +5635,25 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N66" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O66" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P66" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T66" t="n">
         <v>15</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44204</v>
+        <v>44246</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5724,16 +5724,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N67" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O67" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P67" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T67" t="n">
         <v>15</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44200</v>
+        <v>44246</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5804,16 +5804,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N68" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O68" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P68" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T68" t="n">
         <v>15</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44216</v>
+        <v>44246</v>
       </c>
       <c r="E69" t="n">
         <v>7</v>
@@ -5875,25 +5875,25 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="N69" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O69" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P69" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T69" t="n">
         <v>15</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44216</v>
+        <v>44246</v>
       </c>
       <c r="E70" t="n">
         <v>7</v>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N70" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O70" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P70" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>733</v>
+        <v>533</v>
       </c>
       <c r="T70" t="n">
         <v>15</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44216</v>
+        <v>44203</v>
       </c>
       <c r="E71" t="n">
         <v>7</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N71" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O71" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P71" t="n">
-        <v>14000</v>
+        <v>12556</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6062,11 +6062,11 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>933</v>
+        <v>837</v>
       </c>
       <c r="T71" t="n">
         <v>15</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44216</v>
+        <v>44203</v>
       </c>
       <c r="E72" t="n">
         <v>7</v>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -6124,16 +6124,16 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="N72" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O72" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P72" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6142,11 +6142,11 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T72" t="n">
         <v>15</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44216</v>
+        <v>44203</v>
       </c>
       <c r="E73" t="n">
         <v>7</v>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -6207,26 +6207,26 @@
         <v>60</v>
       </c>
       <c r="N73" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O73" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P73" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S73" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T73" t="n">
         <v>15</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44216</v>
+        <v>44230</v>
       </c>
       <c r="E74" t="n">
         <v>7</v>
@@ -6280,11 +6280,11 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="N74" t="n">
         <v>11000</v>
@@ -6297,12 +6297,12 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S74" t="n">
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44258</v>
+        <v>44230</v>
       </c>
       <c r="E75" t="n">
         <v>7</v>
@@ -6355,29 +6355,29 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="N75" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O75" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P75" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T75" t="n">
         <v>15</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44258</v>
+        <v>44230</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
@@ -6440,24 +6440,24 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="N76" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O76" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P76" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T76" t="n">
         <v>15</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44258</v>
+        <v>44230</v>
       </c>
       <c r="E77" t="n">
         <v>7</v>
@@ -6515,29 +6515,29 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N77" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O77" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P77" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>933</v>
+        <v>600</v>
       </c>
       <c r="T77" t="n">
         <v>15</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44258</v>
+        <v>44239</v>
       </c>
       <c r="E78" t="n">
         <v>7</v>
@@ -6595,29 +6595,29 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="N78" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O78" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P78" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T78" t="n">
         <v>15</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44243</v>
+        <v>44239</v>
       </c>
       <c r="E79" t="n">
         <v>7</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N79" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O79" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P79" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T79" t="n">
         <v>15</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44243</v>
+        <v>44239</v>
       </c>
       <c r="E80" t="n">
         <v>7</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N80" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O80" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P80" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T80" t="n">
         <v>15</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44243</v>
+        <v>44172</v>
       </c>
       <c r="E81" t="n">
         <v>7</v>
@@ -6835,29 +6835,29 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N81" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O81" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P81" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>533</v>
+        <v>933</v>
       </c>
       <c r="T81" t="n">
         <v>15</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44176</v>
+        <v>44172</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -6915,25 +6915,25 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N82" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O82" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P82" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T82" t="n">
         <v>15</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44176</v>
+        <v>44258</v>
       </c>
       <c r="E83" t="n">
         <v>7</v>
@@ -6995,25 +6995,25 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="N83" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O83" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P83" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T83" t="n">
         <v>15</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44222</v>
+        <v>44258</v>
       </c>
       <c r="E84" t="n">
         <v>7</v>
@@ -7075,16 +7075,16 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="N84" t="n">
         <v>13000</v>
@@ -7097,7 +7097,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44237</v>
+        <v>44258</v>
       </c>
       <c r="E85" t="n">
         <v>7</v>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -7164,20 +7164,20 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N85" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O85" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P85" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T85" t="n">
         <v>15</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44237</v>
+        <v>44258</v>
       </c>
       <c r="E86" t="n">
         <v>7</v>
@@ -7235,29 +7235,29 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N86" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O86" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P86" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T86" t="n">
         <v>15</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44237</v>
+        <v>44174</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
@@ -7315,7 +7315,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -7324,20 +7324,20 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>400</v>
+        <v>140</v>
       </c>
       <c r="N87" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O87" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P87" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T87" t="n">
         <v>15</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44237</v>
+        <v>44174</v>
       </c>
       <c r="E88" t="n">
         <v>7</v>
@@ -7395,29 +7395,29 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N88" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O88" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P88" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T88" t="n">
         <v>15</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44237</v>
+        <v>44284</v>
       </c>
       <c r="E89" t="n">
         <v>7</v>
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N89" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O89" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P89" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T89" t="n">
         <v>15</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44257</v>
+        <v>44236</v>
       </c>
       <c r="E90" t="n">
         <v>7</v>
@@ -7564,20 +7564,20 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="N90" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O90" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P90" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T90" t="n">
         <v>15</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44257</v>
+        <v>44236</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
@@ -7644,20 +7644,20 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N91" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O91" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P91" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T91" t="n">
         <v>15</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44225</v>
+        <v>44236</v>
       </c>
       <c r="E92" t="n">
         <v>7</v>
@@ -7715,25 +7715,25 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N92" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O92" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P92" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T92" t="n">
         <v>15</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44225</v>
+        <v>44245</v>
       </c>
       <c r="E93" t="n">
         <v>7</v>
@@ -7795,16 +7795,16 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="N93" t="n">
         <v>10000</v>
@@ -7817,7 +7817,7 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44225</v>
+        <v>44245</v>
       </c>
       <c r="E94" t="n">
         <v>7</v>
@@ -7875,29 +7875,29 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="N94" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O94" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P94" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T94" t="n">
         <v>15</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44225</v>
+        <v>44245</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -7964,20 +7964,20 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N95" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O95" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P95" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T95" t="n">
         <v>15</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44194</v>
+        <v>44187</v>
       </c>
       <c r="E96" t="n">
         <v>7</v>
@@ -8035,29 +8035,29 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N96" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O96" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P96" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -8066,10 +8066,10 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T96" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97">
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44194</v>
+        <v>44187</v>
       </c>
       <c r="E97" t="n">
         <v>7</v>
@@ -8115,7 +8115,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Redtop</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -8124,16 +8124,16 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N97" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O97" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P97" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T97" t="n">
         <v>15</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44169</v>
+        <v>44187</v>
       </c>
       <c r="E98" t="n">
         <v>7</v>
@@ -8195,41 +8195,41 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="N98" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O98" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P98" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S98" t="n">
-        <v>833</v>
+        <v>1067</v>
       </c>
       <c r="T98" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99">
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44172</v>
+        <v>44187</v>
       </c>
       <c r="E99" t="n">
         <v>7</v>
@@ -8275,16 +8275,16 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N99" t="n">
         <v>14000</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E100" t="n">
         <v>7</v>
@@ -8355,29 +8355,29 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N100" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O100" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P100" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>867</v>
+        <v>1133</v>
       </c>
       <c r="T100" t="n">
         <v>15</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44214</v>
+        <v>44209</v>
       </c>
       <c r="E101" t="n">
         <v>7</v>
@@ -8444,7 +8444,7 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="N101" t="n">
         <v>13000</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44214</v>
+        <v>44209</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
@@ -8520,20 +8520,20 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N102" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O102" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P102" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T102" t="n">
         <v>15</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44238</v>
+        <v>44209</v>
       </c>
       <c r="E103" t="n">
         <v>7</v>
@@ -8595,16 +8595,16 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="N103" t="n">
         <v>11000</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="E104" t="n">
         <v>7</v>
@@ -8680,24 +8680,24 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N104" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O104" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P104" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T104" t="n">
         <v>15</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="E105" t="n">
         <v>7</v>
@@ -8760,24 +8760,24 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M105" t="n">
         <v>200</v>
       </c>
       <c r="N105" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O105" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P105" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T105" t="n">
         <v>15</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44274</v>
+        <v>44221</v>
       </c>
       <c r="E106" t="n">
         <v>7</v>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -8844,16 +8844,16 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N106" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O106" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P106" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T106" t="n">
         <v>15</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44274</v>
+        <v>44221</v>
       </c>
       <c r="E107" t="n">
         <v>7</v>
@@ -8915,7 +8915,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -8924,16 +8924,16 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N107" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O107" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P107" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T107" t="n">
         <v>15</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44274</v>
+        <v>44200</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
@@ -8995,25 +8995,25 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="N108" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O108" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P108" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T108" t="n">
         <v>15</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44224</v>
+        <v>44265</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
@@ -9075,7 +9075,7 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -9084,20 +9084,20 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N109" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O109" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P109" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T109" t="n">
         <v>15</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44224</v>
+        <v>44265</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
@@ -9155,7 +9155,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -9164,7 +9164,7 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="N110" t="n">
         <v>11000</v>
@@ -9177,7 +9177,7 @@
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44224</v>
+        <v>44186</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
@@ -9235,29 +9235,29 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N111" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O111" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P111" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T111" t="n">
         <v>15</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44224</v>
+        <v>44186</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
@@ -9315,7 +9315,7 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -9324,20 +9324,20 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N112" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O112" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P112" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T112" t="n">
         <v>15</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44224</v>
+        <v>44252</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -9395,16 +9395,16 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="N113" t="n">
         <v>13000</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44260</v>
+        <v>44252</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -9484,20 +9484,20 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N114" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O114" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P114" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T114" t="n">
         <v>15</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44260</v>
+        <v>44252</v>
       </c>
       <c r="E115" t="n">
         <v>7</v>
@@ -9564,7 +9564,7 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="N115" t="n">
         <v>15000</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44209</v>
+        <v>44252</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -9635,29 +9635,29 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="N116" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O116" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P116" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T116" t="n">
         <v>15</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44209</v>
+        <v>44252</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
@@ -9715,25 +9715,25 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N117" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O117" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P117" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T117" t="n">
         <v>15</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44209</v>
+        <v>44267</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -9795,25 +9795,25 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N118" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O118" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P118" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T118" t="n">
         <v>15</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44231</v>
+        <v>44224</v>
       </c>
       <c r="E119" t="n">
         <v>7</v>
@@ -9875,7 +9875,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -9887,17 +9887,17 @@
         <v>230</v>
       </c>
       <c r="N119" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O119" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P119" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T119" t="n">
         <v>15</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44231</v>
+        <v>44224</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
@@ -9955,29 +9955,29 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="N120" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O120" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P120" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T120" t="n">
         <v>15</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44231</v>
+        <v>44224</v>
       </c>
       <c r="E121" t="n">
         <v>7</v>
@@ -10035,25 +10035,25 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N121" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O121" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P121" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T121" t="n">
         <v>15</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44231</v>
+        <v>44224</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -10115,29 +10115,29 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N122" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O122" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P122" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T122" t="n">
         <v>15</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44231</v>
+        <v>44224</v>
       </c>
       <c r="E123" t="n">
         <v>7</v>
@@ -10200,20 +10200,20 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="N123" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O123" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P123" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T123" t="n">
         <v>15</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44193</v>
+        <v>44217</v>
       </c>
       <c r="E124" t="n">
         <v>7</v>
@@ -10284,16 +10284,16 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>60</v>
+        <v>520</v>
       </c>
       <c r="N124" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O124" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P124" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T124" t="n">
         <v>15</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44193</v>
+        <v>44217</v>
       </c>
       <c r="E125" t="n">
         <v>7</v>
@@ -10355,29 +10355,29 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Redtop</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N125" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O125" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P125" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T125" t="n">
         <v>15</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44193</v>
+        <v>44179</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
@@ -10435,7 +10435,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Redtop</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -10444,7 +10444,7 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N126" t="n">
         <v>12000</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44196</v>
+        <v>44179</v>
       </c>
       <c r="E127" t="n">
         <v>7</v>
@@ -10515,25 +10515,25 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N127" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O127" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P127" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T127" t="n">
         <v>15</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44196</v>
+        <v>44249</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
@@ -10595,29 +10595,29 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N128" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O128" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P128" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
@@ -10626,10 +10626,10 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>867</v>
+        <v>938</v>
       </c>
       <c r="T128" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129">
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E129" t="n">
         <v>7</v>
@@ -10684,16 +10684,16 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="N129" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O129" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P129" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T129" t="n">
         <v>15</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E130" t="n">
         <v>7</v>
@@ -10760,20 +10760,20 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N130" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O130" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P130" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T130" t="n">
         <v>15</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44251</v>
+        <v>44235</v>
       </c>
       <c r="E131" t="n">
         <v>7</v>
@@ -10835,7 +10835,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -10844,16 +10844,16 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="N131" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O131" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P131" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T131" t="n">
         <v>15</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44251</v>
+        <v>44235</v>
       </c>
       <c r="E132" t="n">
         <v>7</v>
@@ -10915,7 +10915,7 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
@@ -10924,16 +10924,16 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N132" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O132" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P132" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T132" t="n">
         <v>15</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44250</v>
+        <v>44235</v>
       </c>
       <c r="E133" t="n">
         <v>7</v>
@@ -11000,24 +11000,24 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N133" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O133" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P133" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T133" t="n">
         <v>15</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44250</v>
+        <v>44218</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
@@ -11075,38 +11075,38 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N134" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O134" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P134" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S134" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T134" t="n">
         <v>15</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44245</v>
+        <v>44218</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -11155,38 +11155,38 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N135" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O135" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P135" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S135" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T135" t="n">
         <v>15</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44245</v>
+        <v>44218</v>
       </c>
       <c r="E136" t="n">
         <v>7</v>
@@ -11235,29 +11235,29 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N136" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O136" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P136" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T136" t="n">
         <v>15</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44245</v>
+        <v>44218</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -11315,7 +11315,7 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -11324,20 +11324,20 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N137" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O137" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P137" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>533</v>
+        <v>733</v>
       </c>
       <c r="T137" t="n">
         <v>15</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44202</v>
+        <v>44274</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -11395,7 +11395,7 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
@@ -11404,20 +11404,20 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N138" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O138" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P138" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T138" t="n">
         <v>15</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44202</v>
+        <v>44274</v>
       </c>
       <c r="E139" t="n">
         <v>7</v>
@@ -11475,29 +11475,29 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N139" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O139" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P139" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T139" t="n">
         <v>15</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44181</v>
+        <v>44274</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -11555,7 +11555,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -11564,16 +11564,16 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="N140" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O140" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P140" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T140" t="n">
         <v>15</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44181</v>
+        <v>44215</v>
       </c>
       <c r="E141" t="n">
         <v>7</v>
@@ -11635,25 +11635,25 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M141" t="n">
         <v>120</v>
       </c>
       <c r="N141" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O141" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P141" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T141" t="n">
         <v>15</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44161</v>
+        <v>44215</v>
       </c>
       <c r="E142" t="n">
         <v>7</v>
@@ -11715,29 +11715,29 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="N142" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O142" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P142" t="n">
-        <v>15194</v>
+        <v>12000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>1013</v>
+        <v>800</v>
       </c>
       <c r="T142" t="n">
         <v>15</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44161</v>
+        <v>44215</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -11795,29 +11795,29 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N143" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O143" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P143" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T143" t="n">
         <v>15</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44161</v>
+        <v>44215</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -11875,7 +11875,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -11884,20 +11884,20 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N144" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O144" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P144" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
@@ -11906,10 +11906,10 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T144" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145">
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="E145" t="n">
         <v>7</v>
@@ -11964,16 +11964,16 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N145" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O145" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P145" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>1133</v>
+        <v>1000</v>
       </c>
       <c r="T145" t="n">
         <v>15</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44265</v>
+        <v>44194</v>
       </c>
       <c r="E146" t="n">
         <v>7</v>
@@ -12035,7 +12035,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Redtop</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -12044,20 +12044,20 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N146" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O146" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P146" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T146" t="n">
         <v>15</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44265</v>
+        <v>44222</v>
       </c>
       <c r="E147" t="n">
         <v>7</v>
@@ -12115,25 +12115,25 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N147" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O147" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P147" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T147" t="n">
         <v>15</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44201</v>
+        <v>44263</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -12195,7 +12195,7 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -12204,16 +12204,16 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N148" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O148" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P148" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T148" t="n">
         <v>15</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44201</v>
+        <v>44263</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
@@ -12275,29 +12275,29 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N149" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O149" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P149" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T149" t="n">
         <v>15</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44188</v>
+        <v>44263</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
@@ -12355,29 +12355,29 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="N150" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O150" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P150" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T150" t="n">
         <v>15</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44188</v>
+        <v>44210</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -12435,7 +12435,7 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -12444,20 +12444,20 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N151" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O151" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P151" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T151" t="n">
         <v>15</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44188</v>
+        <v>44210</v>
       </c>
       <c r="E152" t="n">
         <v>7</v>
@@ -12515,7 +12515,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
@@ -12524,20 +12524,20 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N152" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O152" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P152" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>1067</v>
+        <v>933</v>
       </c>
       <c r="T152" t="n">
         <v>15</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
@@ -12600,20 +12600,20 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N153" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O153" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P153" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T153" t="n">
         <v>15</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
@@ -12675,25 +12675,25 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N154" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O154" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P154" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T154" t="n">
         <v>15</v>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -12767,13 +12767,13 @@
         <v>180</v>
       </c>
       <c r="N155" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O155" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P155" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T155" t="n">
         <v>15</v>
@@ -12835,25 +12835,25 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="N156" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O156" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P156" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T156" t="n">
         <v>15</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44160</v>
+        <v>44253</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -12915,29 +12915,29 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N157" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O157" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P157" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R157" t="inlineStr">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T157" t="n">
         <v>15</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44160</v>
+        <v>44253</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
@@ -12995,16 +12995,16 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N158" t="n">
         <v>12000</v>
@@ -13017,7 +13017,7 @@
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R158" t="inlineStr">
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44160</v>
+        <v>44244</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
@@ -13075,16 +13075,16 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N159" t="n">
         <v>10000</v>
@@ -13097,7 +13097,7 @@
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R159" t="inlineStr">
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44186</v>
+        <v>44244</v>
       </c>
       <c r="E160" t="n">
         <v>7</v>
@@ -13155,16 +13155,16 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N160" t="n">
         <v>12000</v>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R160" t="inlineStr">
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44186</v>
+        <v>44244</v>
       </c>
       <c r="E161" t="n">
         <v>7</v>
@@ -13235,29 +13235,29 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M161" t="n">
         <v>300</v>
       </c>
       <c r="N161" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O161" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P161" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T161" t="n">
         <v>15</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44211</v>
+        <v>44244</v>
       </c>
       <c r="E162" t="n">
         <v>7</v>
@@ -13315,16 +13315,16 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N162" t="n">
         <v>12000</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44211</v>
+        <v>44244</v>
       </c>
       <c r="E163" t="n">
         <v>7</v>
@@ -13395,25 +13395,25 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N163" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O163" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P163" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>933</v>
+        <v>533</v>
       </c>
       <c r="T163" t="n">
         <v>15</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44211</v>
+        <v>44176</v>
       </c>
       <c r="E164" t="n">
         <v>7</v>
@@ -13475,29 +13475,29 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N164" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O164" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P164" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R164" t="inlineStr">
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T164" t="n">
         <v>15</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44211</v>
+        <v>44176</v>
       </c>
       <c r="E165" t="n">
         <v>7</v>
@@ -13560,24 +13560,24 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="N165" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O165" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P165" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R165" t="inlineStr">
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T165" t="n">
         <v>15</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44211</v>
+        <v>44237</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -13635,25 +13635,25 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="N166" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O166" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P166" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T166" t="n">
         <v>15</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44230</v>
+        <v>44237</v>
       </c>
       <c r="E167" t="n">
         <v>7</v>
@@ -13720,20 +13720,20 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="N167" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O167" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P167" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T167" t="n">
         <v>15</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44230</v>
+        <v>44237</v>
       </c>
       <c r="E168" t="n">
         <v>7</v>
@@ -13795,25 +13795,25 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="N168" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O168" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P168" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T168" t="n">
         <v>15</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44230</v>
+        <v>44237</v>
       </c>
       <c r="E169" t="n">
         <v>7</v>
@@ -13880,20 +13880,20 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N169" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O169" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P169" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T169" t="n">
         <v>15</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44230</v>
+        <v>44237</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
@@ -13964,7 +13964,7 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N170" t="n">
         <v>9000</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44232</v>
+        <v>44257</v>
       </c>
       <c r="E171" t="n">
         <v>7</v>
@@ -14040,24 +14040,24 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="N171" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O171" t="n">
         <v>14000</v>
       </c>
       <c r="P171" t="n">
-        <v>13444</v>
+        <v>14000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R171" t="inlineStr">
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>896</v>
+        <v>933</v>
       </c>
       <c r="T171" t="n">
         <v>15</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44286</v>
+        <v>44257</v>
       </c>
       <c r="E172" t="n">
         <v>7</v>
@@ -14120,11 +14120,11 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="N172" t="n">
         <v>15000</v>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44286</v>
+        <v>44161</v>
       </c>
       <c r="E173" t="n">
         <v>7</v>
@@ -14195,29 +14195,29 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="N173" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O173" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P173" t="n">
-        <v>13000</v>
+        <v>15194</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R173" t="inlineStr">
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>867</v>
+        <v>1013</v>
       </c>
       <c r="T173" t="n">
         <v>15</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44217</v>
+        <v>44161</v>
       </c>
       <c r="E174" t="n">
         <v>7</v>
@@ -14275,29 +14275,29 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="N174" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O174" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P174" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R174" t="inlineStr">
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T174" t="n">
         <v>15</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44217</v>
+        <v>44161</v>
       </c>
       <c r="E175" t="n">
         <v>7</v>
@@ -14355,7 +14355,7 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -14364,20 +14364,20 @@
         </is>
       </c>
       <c r="M175" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N175" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O175" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P175" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R175" t="inlineStr">
@@ -14386,10 +14386,10 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="T175" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176">
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44244</v>
+        <v>44251</v>
       </c>
       <c r="E176" t="n">
         <v>7</v>
@@ -14444,20 +14444,20 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N176" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O176" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P176" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R176" t="inlineStr">
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T176" t="n">
         <v>15</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44244</v>
+        <v>44251</v>
       </c>
       <c r="E177" t="n">
         <v>7</v>
@@ -14524,20 +14524,20 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N177" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O177" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P177" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T177" t="n">
         <v>15</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44244</v>
+        <v>44251</v>
       </c>
       <c r="E178" t="n">
         <v>7</v>
@@ -14604,16 +14604,16 @@
         </is>
       </c>
       <c r="M178" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="N178" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O178" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P178" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T178" t="n">
         <v>15</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44244</v>
+        <v>44251</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
@@ -14684,16 +14684,16 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N179" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O179" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P179" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T179" t="n">
         <v>15</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44244</v>
+        <v>44223</v>
       </c>
       <c r="E180" t="n">
         <v>7</v>
@@ -14755,25 +14755,25 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N180" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O180" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P180" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>533</v>
+        <v>933</v>
       </c>
       <c r="T180" t="n">
         <v>15</v>
@@ -14840,20 +14840,20 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N181" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O181" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P181" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T181" t="n">
         <v>15</v>
@@ -14915,16 +14915,16 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="N182" t="n">
         <v>12000</v>
@@ -15000,20 +15000,20 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M183" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N183" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O183" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P183" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T183" t="n">
         <v>15</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E184" t="n">
         <v>7</v>
@@ -15075,29 +15075,29 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="N184" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O184" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P184" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T184" t="n">
         <v>15</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44208</v>
+        <v>44167</v>
       </c>
       <c r="E185" t="n">
         <v>7</v>
@@ -15155,7 +15155,7 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44179</v>
+        <v>44238</v>
       </c>
       <c r="E186" t="n">
         <v>7</v>
@@ -15235,29 +15235,29 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N186" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O186" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P186" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T186" t="n">
         <v>15</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44179</v>
+        <v>44238</v>
       </c>
       <c r="E187" t="n">
         <v>7</v>
@@ -15315,29 +15315,29 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="N187" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O187" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P187" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R187" t="inlineStr">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T187" t="n">
         <v>15</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44284</v>
+        <v>44238</v>
       </c>
       <c r="E188" t="n">
         <v>7</v>
@@ -15400,20 +15400,20 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N188" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O188" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P188" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T188" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Durazno.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44211</v>
+        <v>44181</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -515,16 +515,16 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N2" t="n">
         <v>12000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44211</v>
+        <v>44181</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -595,25 +595,25 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>120</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O3" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P3" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44211</v>
+        <v>44235</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -675,25 +675,25 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44211</v>
+        <v>44235</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -755,25 +755,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44211</v>
+        <v>44235</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -835,16 +835,16 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="N6" t="n">
         <v>13000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44243</v>
+        <v>44204</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44243</v>
+        <v>44204</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -995,16 +995,16 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="N8" t="n">
         <v>12000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44243</v>
+        <v>44194</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1075,25 +1075,25 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>533</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>15</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44204</v>
+        <v>44194</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Redtop</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T10" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44204</v>
+        <v>44174</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1235,29 +1235,29 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44214</v>
+        <v>44174</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1315,16 +1315,16 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
         <v>13000</v>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44214</v>
+        <v>44186</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1407,17 +1407,17 @@
         <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O13" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P13" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44208</v>
+        <v>44186</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1487,17 +1487,17 @@
         <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O14" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P14" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,24 +1560,24 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="N15" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O15" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P15" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1635,29 +1635,29 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P16" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1715,29 +1715,29 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N17" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P17" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1067</v>
+        <v>833</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44225</v>
+        <v>44189</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1795,29 +1795,29 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O18" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P18" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44225</v>
+        <v>44202</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1875,29 +1875,29 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="N19" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O19" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P19" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44225</v>
+        <v>44202</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1960,24 +1960,24 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="N20" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O20" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P20" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T20" t="n">
         <v>15</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44225</v>
+        <v>44236</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2035,25 +2035,25 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>210</v>
+        <v>500</v>
       </c>
       <c r="N21" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O21" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P21" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44193</v>
+        <v>44236</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2115,25 +2115,25 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N22" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O22" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P22" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T22" t="n">
         <v>15</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44193</v>
+        <v>44236</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -2195,29 +2195,29 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Redtop</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N23" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O23" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P23" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>933</v>
+        <v>600</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44193</v>
+        <v>44222</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2275,29 +2275,29 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Redtop</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N24" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O24" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P24" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T24" t="n">
         <v>15</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44160</v>
+        <v>44179</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2367,13 +2367,13 @@
         <v>200</v>
       </c>
       <c r="N25" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O25" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P25" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T25" t="n">
         <v>15</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44160</v>
+        <v>44179</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N26" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O26" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P26" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44160</v>
+        <v>44242</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
@@ -2515,29 +2515,29 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N27" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O27" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P27" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44286</v>
+        <v>44242</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
@@ -2595,25 +2595,25 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N28" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O28" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P28" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44286</v>
+        <v>44242</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N29" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O29" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P29" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T29" t="n">
         <v>15</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44201</v>
+        <v>44258</v>
       </c>
       <c r="E30" t="n">
         <v>7</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2764,20 +2764,20 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N30" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O30" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P30" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44201</v>
+        <v>44258</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
@@ -2835,25 +2835,25 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="N31" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O31" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P31" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1067</v>
+        <v>867</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44232</v>
+        <v>44258</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
@@ -2915,29 +2915,29 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="N32" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O32" t="n">
         <v>14000</v>
       </c>
       <c r="P32" t="n">
-        <v>13444</v>
+        <v>14000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>896</v>
+        <v>933</v>
       </c>
       <c r="T32" t="n">
         <v>15</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44162</v>
+        <v>44258</v>
       </c>
       <c r="E33" t="n">
         <v>7</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3004,20 +3004,20 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N33" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O33" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P33" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T33" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44162</v>
+        <v>44232</v>
       </c>
       <c r="E34" t="n">
         <v>7</v>
@@ -3075,29 +3075,29 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="N34" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O34" t="n">
         <v>14000</v>
       </c>
       <c r="P34" t="n">
-        <v>14000</v>
+        <v>13444</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>778</v>
+        <v>896</v>
       </c>
       <c r="T34" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44202</v>
+        <v>44231</v>
       </c>
       <c r="E35" t="n">
         <v>7</v>
@@ -3167,17 +3167,17 @@
         <v>230</v>
       </c>
       <c r="N35" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O35" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P35" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44202</v>
+        <v>44231</v>
       </c>
       <c r="E36" t="n">
         <v>7</v>
@@ -3235,25 +3235,25 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N36" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O36" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P36" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44165</v>
+        <v>44231</v>
       </c>
       <c r="E37" t="n">
         <v>7</v>
@@ -3315,29 +3315,29 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N37" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O37" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P37" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>833</v>
+        <v>933</v>
       </c>
       <c r="T37" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44165</v>
+        <v>44231</v>
       </c>
       <c r="E38" t="n">
         <v>7</v>
@@ -3395,16 +3395,16 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N38" t="n">
         <v>14000</v>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>778</v>
+        <v>933</v>
       </c>
       <c r="T38" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44242</v>
+        <v>44231</v>
       </c>
       <c r="E39" t="n">
         <v>7</v>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N39" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O39" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P39" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44242</v>
+        <v>44224</v>
       </c>
       <c r="E40" t="n">
         <v>7</v>
@@ -3555,16 +3555,16 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N40" t="n">
         <v>13000</v>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44242</v>
+        <v>44224</v>
       </c>
       <c r="E41" t="n">
         <v>7</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3644,20 +3644,20 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N41" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O41" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P41" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="T41" t="n">
         <v>15</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44169</v>
+        <v>44224</v>
       </c>
       <c r="E42" t="n">
         <v>7</v>
@@ -3715,41 +3715,41 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N42" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O42" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P42" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>833</v>
+        <v>867</v>
       </c>
       <c r="T42" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44216</v>
+        <v>44224</v>
       </c>
       <c r="E43" t="n">
         <v>7</v>
@@ -3795,25 +3795,25 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N43" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O43" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P43" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T43" t="n">
         <v>15</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44216</v>
+        <v>44224</v>
       </c>
       <c r="E44" t="n">
         <v>7</v>
@@ -3875,25 +3875,25 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N44" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O44" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P44" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T44" t="n">
         <v>15</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E45" t="n">
         <v>7</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N45" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O45" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P45" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>933</v>
+        <v>1133</v>
       </c>
       <c r="T45" t="n">
         <v>15</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44216</v>
+        <v>44169</v>
       </c>
       <c r="E46" t="n">
         <v>7</v>
@@ -4035,41 +4035,41 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="N46" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O46" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P46" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>867</v>
+        <v>833</v>
       </c>
       <c r="T46" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44216</v>
+        <v>44188</v>
       </c>
       <c r="E47" t="n">
         <v>7</v>
@@ -4115,38 +4115,38 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="N47" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O47" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P47" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44216</v>
+        <v>44188</v>
       </c>
       <c r="E48" t="n">
         <v>7</v>
@@ -4195,25 +4195,25 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N48" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O48" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P48" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44260</v>
+        <v>44188</v>
       </c>
       <c r="E49" t="n">
         <v>7</v>
@@ -4275,29 +4275,29 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N49" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O49" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P49" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>933</v>
+        <v>1067</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44260</v>
+        <v>44230</v>
       </c>
       <c r="E50" t="n">
         <v>7</v>
@@ -4355,25 +4355,25 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>260</v>
+        <v>140</v>
       </c>
       <c r="N50" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O50" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P50" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44271</v>
+        <v>44230</v>
       </c>
       <c r="E51" t="n">
         <v>7</v>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="N51" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O51" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P51" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="E52" t="n">
         <v>7</v>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N52" t="n">
         <v>12000</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="E53" t="n">
         <v>7</v>
@@ -4595,25 +4595,25 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="N53" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O53" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P53" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>933</v>
+        <v>600</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44189</v>
+        <v>44263</v>
       </c>
       <c r="E54" t="n">
         <v>7</v>
@@ -4675,29 +4675,29 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N54" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O54" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P54" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>611</v>
+        <v>800</v>
       </c>
       <c r="T54" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44189</v>
+        <v>44263</v>
       </c>
       <c r="E55" t="n">
         <v>7</v>
@@ -4755,29 +4755,29 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N55" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O55" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P55" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -4786,10 +4786,10 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T55" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44189</v>
+        <v>44263</v>
       </c>
       <c r="E56" t="n">
         <v>7</v>
@@ -4835,29 +4835,29 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N56" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O56" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P56" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>833</v>
+        <v>533</v>
       </c>
       <c r="T56" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44189</v>
+        <v>44271</v>
       </c>
       <c r="E57" t="n">
         <v>7</v>
@@ -4915,16 +4915,16 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N57" t="n">
         <v>14000</v>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>778</v>
+        <v>933</v>
       </c>
       <c r="T57" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44181</v>
+        <v>44238</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
@@ -4995,25 +4995,25 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="N58" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O58" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P58" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T58" t="n">
         <v>15</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44181</v>
+        <v>44238</v>
       </c>
       <c r="E59" t="n">
         <v>7</v>
@@ -5075,25 +5075,25 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N59" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O59" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P59" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T59" t="n">
         <v>15</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="E60" t="n">
         <v>7</v>
@@ -5155,25 +5155,25 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N60" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O60" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P60" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44231</v>
+        <v>44284</v>
       </c>
       <c r="E61" t="n">
         <v>7</v>
@@ -5244,20 +5244,20 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N61" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O61" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P61" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T61" t="n">
         <v>15</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44231</v>
+        <v>44216</v>
       </c>
       <c r="E62" t="n">
         <v>7</v>
@@ -5315,25 +5315,25 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="N62" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O62" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P62" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44231</v>
+        <v>44216</v>
       </c>
       <c r="E63" t="n">
         <v>7</v>
@@ -5395,29 +5395,29 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N63" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O63" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P63" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44231</v>
+        <v>44216</v>
       </c>
       <c r="E64" t="n">
         <v>7</v>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5484,16 +5484,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="N64" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O64" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P64" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5502,11 +5502,11 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44246</v>
+        <v>44216</v>
       </c>
       <c r="E65" t="n">
         <v>7</v>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5564,29 +5564,29 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="N65" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O65" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P65" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T65" t="n">
         <v>15</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44246</v>
+        <v>44216</v>
       </c>
       <c r="E66" t="n">
         <v>7</v>
@@ -5635,16 +5635,16 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N66" t="n">
         <v>12000</v>
@@ -5662,7 +5662,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S66" t="n">
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44246</v>
+        <v>44216</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5724,29 +5724,29 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N67" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O67" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P67" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>533</v>
+        <v>733</v>
       </c>
       <c r="T67" t="n">
         <v>15</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44246</v>
+        <v>44229</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5804,16 +5804,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N68" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O68" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P68" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T68" t="n">
         <v>15</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44246</v>
+        <v>44229</v>
       </c>
       <c r="E69" t="n">
         <v>7</v>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="N69" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O69" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P69" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T69" t="n">
         <v>15</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44246</v>
+        <v>44253</v>
       </c>
       <c r="E70" t="n">
         <v>7</v>
@@ -5955,25 +5955,25 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N70" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O70" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P70" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>533</v>
+        <v>867</v>
       </c>
       <c r="T70" t="n">
         <v>15</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44203</v>
+        <v>44253</v>
       </c>
       <c r="E71" t="n">
         <v>7</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>360</v>
+        <v>230</v>
       </c>
       <c r="N71" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O71" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P71" t="n">
-        <v>12556</v>
+        <v>15000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>837</v>
+        <v>1000</v>
       </c>
       <c r="T71" t="n">
         <v>15</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44203</v>
+        <v>44253</v>
       </c>
       <c r="E72" t="n">
         <v>7</v>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -6124,20 +6124,20 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="N72" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O72" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P72" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T72" t="n">
         <v>15</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44203</v>
+        <v>44253</v>
       </c>
       <c r="E73" t="n">
         <v>7</v>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -6204,20 +6204,20 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N73" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O73" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P73" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T73" t="n">
         <v>15</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44230</v>
+        <v>44245</v>
       </c>
       <c r="E74" t="n">
         <v>7</v>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6284,20 +6284,20 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="N74" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O74" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P74" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T74" t="n">
         <v>15</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44230</v>
+        <v>44245</v>
       </c>
       <c r="E75" t="n">
         <v>7</v>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -6364,20 +6364,20 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N75" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O75" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P75" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T75" t="n">
         <v>15</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44230</v>
+        <v>44245</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
@@ -6440,24 +6440,24 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N76" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O76" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P76" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T76" t="n">
         <v>15</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44230</v>
+        <v>44250</v>
       </c>
       <c r="E77" t="n">
         <v>7</v>
@@ -6520,24 +6520,24 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N77" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O77" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P77" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>600</v>
+        <v>933</v>
       </c>
       <c r="T77" t="n">
         <v>15</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44239</v>
+        <v>44250</v>
       </c>
       <c r="E78" t="n">
         <v>7</v>
@@ -6600,24 +6600,24 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N78" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O78" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P78" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T78" t="n">
         <v>15</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44239</v>
+        <v>44225</v>
       </c>
       <c r="E79" t="n">
         <v>7</v>
@@ -6675,25 +6675,25 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N79" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O79" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P79" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T79" t="n">
         <v>15</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44239</v>
+        <v>44225</v>
       </c>
       <c r="E80" t="n">
         <v>7</v>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6764,16 +6764,16 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N80" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O80" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P80" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T80" t="n">
         <v>15</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44172</v>
+        <v>44225</v>
       </c>
       <c r="E81" t="n">
         <v>7</v>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6844,7 +6844,7 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="N81" t="n">
         <v>14000</v>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44172</v>
+        <v>44225</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6924,20 +6924,20 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N82" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O82" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P82" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T82" t="n">
         <v>15</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44258</v>
+        <v>44218</v>
       </c>
       <c r="E83" t="n">
         <v>7</v>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -7004,7 +7004,7 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="N83" t="n">
         <v>14000</v>
@@ -7022,7 +7022,7 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S83" t="n">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44258</v>
+        <v>44218</v>
       </c>
       <c r="E84" t="n">
         <v>7</v>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -7084,16 +7084,16 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N84" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O84" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P84" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7102,11 +7102,11 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S84" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T84" t="n">
         <v>15</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44258</v>
+        <v>44218</v>
       </c>
       <c r="E85" t="n">
         <v>7</v>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -7164,16 +7164,16 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N85" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O85" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P85" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T85" t="n">
         <v>15</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44258</v>
+        <v>44218</v>
       </c>
       <c r="E86" t="n">
         <v>7</v>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -7244,16 +7244,16 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N86" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O86" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P86" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T86" t="n">
         <v>15</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44174</v>
+        <v>44223</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
@@ -7315,7 +7315,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -7324,20 +7324,20 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="N87" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O87" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P87" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T87" t="n">
         <v>15</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44174</v>
+        <v>44223</v>
       </c>
       <c r="E88" t="n">
         <v>7</v>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -7404,20 +7404,20 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N88" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O88" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P88" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T88" t="n">
         <v>15</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44284</v>
+        <v>44223</v>
       </c>
       <c r="E89" t="n">
         <v>7</v>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -7484,16 +7484,16 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N89" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O89" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P89" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T89" t="n">
         <v>15</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44236</v>
+        <v>44223</v>
       </c>
       <c r="E90" t="n">
         <v>7</v>
@@ -7555,25 +7555,25 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="N90" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O90" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P90" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T90" t="n">
         <v>15</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44236</v>
+        <v>44246</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
@@ -7640,20 +7640,20 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M91" t="n">
         <v>300</v>
       </c>
       <c r="N91" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O91" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P91" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T91" t="n">
         <v>15</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44236</v>
+        <v>44246</v>
       </c>
       <c r="E92" t="n">
         <v>7</v>
@@ -7720,20 +7720,20 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M92" t="n">
         <v>300</v>
       </c>
       <c r="N92" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O92" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P92" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T92" t="n">
         <v>15</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="E93" t="n">
         <v>7</v>
@@ -7800,24 +7800,24 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N93" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O93" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P93" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T93" t="n">
         <v>15</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="E94" t="n">
         <v>7</v>
@@ -7875,29 +7875,29 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M94" t="n">
         <v>300</v>
       </c>
       <c r="N94" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O94" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P94" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T94" t="n">
         <v>15</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
@@ -7955,29 +7955,29 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N95" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O95" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P95" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="T95" t="n">
         <v>15</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44187</v>
+        <v>44246</v>
       </c>
       <c r="E96" t="n">
         <v>7</v>
@@ -8035,7 +8035,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -8044,20 +8044,20 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N96" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O96" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P96" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -8066,10 +8066,10 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>556</v>
+        <v>533</v>
       </c>
       <c r="T96" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97">
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44187</v>
+        <v>44161</v>
       </c>
       <c r="E97" t="n">
         <v>7</v>
@@ -8115,7 +8115,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -8124,16 +8124,16 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>30</v>
+        <v>310</v>
       </c>
       <c r="N97" t="n">
         <v>15000</v>
       </c>
       <c r="O97" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P97" t="n">
-        <v>15000</v>
+        <v>15194</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>1000</v>
+        <v>1013</v>
       </c>
       <c r="T97" t="n">
         <v>15</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44187</v>
+        <v>44161</v>
       </c>
       <c r="E98" t="n">
         <v>7</v>
@@ -8195,25 +8195,25 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="N98" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O98" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P98" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>1067</v>
+        <v>933</v>
       </c>
       <c r="T98" t="n">
         <v>15</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44187</v>
+        <v>44161</v>
       </c>
       <c r="E99" t="n">
         <v>7</v>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -8284,20 +8284,20 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N99" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O99" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P99" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
@@ -8306,10 +8306,10 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>933</v>
+        <v>889</v>
       </c>
       <c r="T99" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100">
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="E100" t="n">
         <v>7</v>
@@ -8364,16 +8364,16 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N100" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O100" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P100" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>1133</v>
+        <v>1000</v>
       </c>
       <c r="T100" t="n">
         <v>15</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44209</v>
+        <v>44193</v>
       </c>
       <c r="E101" t="n">
         <v>7</v>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Redtop</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -8444,20 +8444,20 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N101" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O101" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P101" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T101" t="n">
         <v>15</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44209</v>
+        <v>44193</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
@@ -8515,29 +8515,29 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Redtop</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N102" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O102" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P102" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T102" t="n">
         <v>15</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44209</v>
+        <v>44274</v>
       </c>
       <c r="E103" t="n">
         <v>7</v>
@@ -8595,25 +8595,25 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N103" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O103" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P103" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T103" t="n">
         <v>15</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44250</v>
+        <v>44274</v>
       </c>
       <c r="E104" t="n">
         <v>7</v>
@@ -8675,16 +8675,16 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N104" t="n">
         <v>14000</v>
@@ -8697,7 +8697,7 @@
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44250</v>
+        <v>44274</v>
       </c>
       <c r="E105" t="n">
         <v>7</v>
@@ -8755,29 +8755,29 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="N105" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O105" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P105" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T105" t="n">
         <v>15</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44221</v>
+        <v>44200</v>
       </c>
       <c r="E106" t="n">
         <v>7</v>
@@ -8844,16 +8844,16 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N106" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O106" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P106" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T106" t="n">
         <v>15</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44221</v>
+        <v>44208</v>
       </c>
       <c r="E107" t="n">
         <v>7</v>
@@ -8915,29 +8915,29 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N107" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O107" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P107" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T107" t="n">
         <v>15</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44200</v>
+        <v>44214</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
@@ -9004,16 +9004,16 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="N108" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O108" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P108" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T108" t="n">
         <v>15</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44265</v>
+        <v>44214</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
@@ -9075,25 +9075,25 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N109" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O109" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P109" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T109" t="n">
         <v>15</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44265</v>
+        <v>44237</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
@@ -9155,16 +9155,16 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="N110" t="n">
         <v>11000</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44186</v>
+        <v>44237</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
@@ -9235,29 +9235,29 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N111" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O111" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P111" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T111" t="n">
         <v>15</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44186</v>
+        <v>44237</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
@@ -9315,16 +9315,16 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N112" t="n">
         <v>12000</v>
@@ -9337,7 +9337,7 @@
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44252</v>
+        <v>44237</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -9400,20 +9400,20 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N113" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O113" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P113" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T113" t="n">
         <v>15</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44252</v>
+        <v>44237</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -9480,24 +9480,24 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N114" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O114" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P114" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T114" t="n">
         <v>15</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44252</v>
+        <v>44167</v>
       </c>
       <c r="E115" t="n">
         <v>7</v>
@@ -9555,16 +9555,16 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N115" t="n">
         <v>15000</v>
@@ -9577,7 +9577,7 @@
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44252</v>
+        <v>44167</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -9635,25 +9635,25 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N116" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O116" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P116" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T116" t="n">
         <v>15</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44252</v>
+        <v>44210</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
@@ -9715,25 +9715,25 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N117" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O117" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P117" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T117" t="n">
         <v>15</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44267</v>
+        <v>44210</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -9795,25 +9795,25 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N118" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O118" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P118" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T118" t="n">
         <v>15</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44224</v>
+        <v>44210</v>
       </c>
       <c r="E119" t="n">
         <v>7</v>
@@ -9875,29 +9875,29 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N119" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O119" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P119" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T119" t="n">
         <v>15</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44224</v>
+        <v>44210</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
@@ -9955,7 +9955,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -9964,20 +9964,20 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="N120" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O120" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P120" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T120" t="n">
         <v>15</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44224</v>
+        <v>44217</v>
       </c>
       <c r="E121" t="n">
         <v>7</v>
@@ -10044,16 +10044,16 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>300</v>
+        <v>520</v>
       </c>
       <c r="N121" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O121" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P121" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T121" t="n">
         <v>15</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44224</v>
+        <v>44217</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -10127,13 +10127,13 @@
         <v>200</v>
       </c>
       <c r="N122" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O122" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P122" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T122" t="n">
         <v>15</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44224</v>
+        <v>44165</v>
       </c>
       <c r="E123" t="n">
         <v>7</v>
@@ -10195,29 +10195,29 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N123" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O123" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P123" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
@@ -10226,10 +10226,10 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>867</v>
+        <v>833</v>
       </c>
       <c r="T123" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124">
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44217</v>
+        <v>44165</v>
       </c>
       <c r="E124" t="n">
         <v>7</v>
@@ -10275,29 +10275,29 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>520</v>
+        <v>150</v>
       </c>
       <c r="N124" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O124" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P124" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
@@ -10306,10 +10306,10 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T124" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125">
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44217</v>
+        <v>44172</v>
       </c>
       <c r="E125" t="n">
         <v>7</v>
@@ -10355,29 +10355,29 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N125" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O125" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P125" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T125" t="n">
         <v>15</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44179</v>
+        <v>44172</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
@@ -10435,7 +10435,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -10444,16 +10444,16 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N126" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O126" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P126" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T126" t="n">
         <v>15</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44179</v>
+        <v>44249</v>
       </c>
       <c r="E127" t="n">
         <v>7</v>
@@ -10515,29 +10515,29 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N127" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O127" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P127" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
@@ -10546,10 +10546,10 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>667</v>
+        <v>938</v>
       </c>
       <c r="T127" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128">
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44249</v>
+        <v>44265</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
@@ -10595,29 +10595,29 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N128" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O128" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P128" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
@@ -10626,10 +10626,10 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>938</v>
+        <v>800</v>
       </c>
       <c r="T128" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129">
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44196</v>
+        <v>44265</v>
       </c>
       <c r="E129" t="n">
         <v>7</v>
@@ -10675,29 +10675,29 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N129" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O129" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P129" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T129" t="n">
         <v>15</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44196</v>
+        <v>44201</v>
       </c>
       <c r="E130" t="n">
         <v>7</v>
@@ -10760,24 +10760,24 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N130" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O130" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P130" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T130" t="n">
         <v>15</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44235</v>
+        <v>44201</v>
       </c>
       <c r="E131" t="n">
         <v>7</v>
@@ -10835,29 +10835,29 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N131" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O131" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P131" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>800</v>
+        <v>1067</v>
       </c>
       <c r="T131" t="n">
         <v>15</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44235</v>
+        <v>44260</v>
       </c>
       <c r="E132" t="n">
         <v>7</v>
@@ -10915,25 +10915,25 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N132" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O132" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P132" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T132" t="n">
         <v>15</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44235</v>
+        <v>44260</v>
       </c>
       <c r="E133" t="n">
         <v>7</v>
@@ -11004,16 +11004,16 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="N133" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O133" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P133" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T133" t="n">
         <v>15</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44218</v>
+        <v>44267</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
@@ -11075,7 +11075,7 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -11084,29 +11084,29 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="N134" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O134" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P134" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S134" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T134" t="n">
         <v>15</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44218</v>
+        <v>44187</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -11155,7 +11155,7 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -11164,32 +11164,32 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N135" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O135" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P135" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S135" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T135" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136">
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44218</v>
+        <v>44187</v>
       </c>
       <c r="E136" t="n">
         <v>7</v>
@@ -11244,16 +11244,16 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N136" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O136" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P136" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T136" t="n">
         <v>15</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44218</v>
+        <v>44187</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -11320,20 +11320,20 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N137" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O137" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P137" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>733</v>
+        <v>1067</v>
       </c>
       <c r="T137" t="n">
         <v>15</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44274</v>
+        <v>44187</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -11395,29 +11395,29 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="N138" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O138" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P138" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T138" t="n">
         <v>15</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44274</v>
+        <v>44196</v>
       </c>
       <c r="E139" t="n">
         <v>7</v>
@@ -11475,29 +11475,29 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N139" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O139" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P139" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T139" t="n">
         <v>15</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44274</v>
+        <v>44196</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -11555,7 +11555,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -11564,20 +11564,20 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="N140" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O140" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P140" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T140" t="n">
         <v>15</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44215</v>
+        <v>44251</v>
       </c>
       <c r="E141" t="n">
         <v>7</v>
@@ -11635,7 +11635,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -11644,7 +11644,7 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="N141" t="n">
         <v>14000</v>
@@ -11657,7 +11657,7 @@
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44215</v>
+        <v>44251</v>
       </c>
       <c r="E142" t="n">
         <v>7</v>
@@ -11715,29 +11715,29 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N142" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O142" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P142" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T142" t="n">
         <v>15</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44215</v>
+        <v>44251</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -11795,7 +11795,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -11804,7 +11804,7 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="N143" t="n">
         <v>13000</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44215</v>
+        <v>44251</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -11875,25 +11875,25 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="N144" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O144" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P144" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T144" t="n">
         <v>15</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44194</v>
+        <v>44243</v>
       </c>
       <c r="E145" t="n">
         <v>7</v>
@@ -11955,7 +11955,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -11964,16 +11964,16 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N145" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O145" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P145" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T145" t="n">
         <v>15</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44194</v>
+        <v>44243</v>
       </c>
       <c r="E146" t="n">
         <v>7</v>
@@ -12035,29 +12035,29 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Redtop</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N146" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O146" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P146" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T146" t="n">
         <v>15</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44222</v>
+        <v>44243</v>
       </c>
       <c r="E147" t="n">
         <v>7</v>
@@ -12115,25 +12115,25 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N147" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O147" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P147" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>867</v>
+        <v>533</v>
       </c>
       <c r="T147" t="n">
         <v>15</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44263</v>
+        <v>44252</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -12195,7 +12195,7 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -12204,16 +12204,16 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N148" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O148" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P148" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T148" t="n">
         <v>15</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44263</v>
+        <v>44252</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
@@ -12275,29 +12275,29 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N149" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O149" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P149" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T149" t="n">
         <v>15</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44263</v>
+        <v>44252</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
@@ -12355,25 +12355,25 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N150" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O150" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P150" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>533</v>
+        <v>1000</v>
       </c>
       <c r="T150" t="n">
         <v>15</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44210</v>
+        <v>44252</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -12435,29 +12435,29 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N151" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O151" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P151" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T151" t="n">
         <v>15</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44210</v>
+        <v>44252</v>
       </c>
       <c r="E152" t="n">
         <v>7</v>
@@ -12515,25 +12515,25 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N152" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O152" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P152" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T152" t="n">
         <v>15</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44210</v>
+        <v>44221</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
@@ -12600,20 +12600,20 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N153" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O153" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P153" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T153" t="n">
         <v>15</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44210</v>
+        <v>44221</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
@@ -12675,25 +12675,25 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N154" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O154" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P154" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T154" t="n">
         <v>15</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44253</v>
+        <v>44286</v>
       </c>
       <c r="E155" t="n">
         <v>7</v>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -12764,16 +12764,16 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N155" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O155" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P155" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T155" t="n">
         <v>15</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44253</v>
+        <v>44286</v>
       </c>
       <c r="E156" t="n">
         <v>7</v>
@@ -12835,25 +12835,25 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N156" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O156" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P156" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T156" t="n">
         <v>15</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44253</v>
+        <v>44209</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -12915,7 +12915,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -12924,16 +12924,16 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="N157" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O157" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P157" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T157" t="n">
         <v>15</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44253</v>
+        <v>44209</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
@@ -12995,25 +12995,25 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N158" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O158" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P158" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T158" t="n">
         <v>15</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44244</v>
+        <v>44209</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
@@ -13080,20 +13080,20 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N159" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O159" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P159" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T159" t="n">
         <v>15</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44244</v>
+        <v>44160</v>
       </c>
       <c r="E160" t="n">
         <v>7</v>
@@ -13155,29 +13155,29 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N160" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O160" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P160" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R160" t="inlineStr">
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T160" t="n">
         <v>15</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44244</v>
+        <v>44160</v>
       </c>
       <c r="E161" t="n">
         <v>7</v>
@@ -13235,29 +13235,29 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N161" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O161" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P161" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T161" t="n">
         <v>15</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44244</v>
+        <v>44160</v>
       </c>
       <c r="E162" t="n">
         <v>7</v>
@@ -13315,29 +13315,29 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N162" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O162" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P162" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R162" t="inlineStr">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T162" t="n">
         <v>15</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44244</v>
+        <v>44215</v>
       </c>
       <c r="E163" t="n">
         <v>7</v>
@@ -13395,25 +13395,25 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N163" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O163" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P163" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>533</v>
+        <v>933</v>
       </c>
       <c r="T163" t="n">
         <v>15</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44176</v>
+        <v>44215</v>
       </c>
       <c r="E164" t="n">
         <v>7</v>
@@ -13475,29 +13475,29 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N164" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O164" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P164" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R164" t="inlineStr">
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T164" t="n">
         <v>15</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44176</v>
+        <v>44215</v>
       </c>
       <c r="E165" t="n">
         <v>7</v>
@@ -13555,29 +13555,29 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="N165" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O165" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P165" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R165" t="inlineStr">
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T165" t="n">
         <v>15</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44237</v>
+        <v>44215</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -13640,20 +13640,20 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N166" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O166" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P166" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T166" t="n">
         <v>15</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44237</v>
+        <v>44203</v>
       </c>
       <c r="E167" t="n">
         <v>7</v>
@@ -13720,20 +13720,20 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N167" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O167" t="n">
         <v>13000</v>
       </c>
       <c r="P167" t="n">
-        <v>13000</v>
+        <v>12556</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>867</v>
+        <v>837</v>
       </c>
       <c r="T167" t="n">
         <v>15</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44237</v>
+        <v>44203</v>
       </c>
       <c r="E168" t="n">
         <v>7</v>
@@ -13795,7 +13795,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -13804,20 +13804,20 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="N168" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O168" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P168" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R168" t="inlineStr">
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T168" t="n">
         <v>15</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44237</v>
+        <v>44203</v>
       </c>
       <c r="E169" t="n">
         <v>7</v>
@@ -13875,29 +13875,29 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N169" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O169" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P169" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R169" t="inlineStr">
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T169" t="n">
         <v>15</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44237</v>
+        <v>44162</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
@@ -13955,7 +13955,7 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -13964,20 +13964,20 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N170" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O170" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P170" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R170" t="inlineStr">
@@ -13986,10 +13986,10 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>600</v>
+        <v>833</v>
       </c>
       <c r="T170" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171">
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44257</v>
+        <v>44162</v>
       </c>
       <c r="E171" t="n">
         <v>7</v>
@@ -14035,16 +14035,16 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N171" t="n">
         <v>14000</v>
@@ -14057,7 +14057,7 @@
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R171" t="inlineStr">
@@ -14066,10 +14066,10 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>933</v>
+        <v>778</v>
       </c>
       <c r="T171" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172">
@@ -14120,20 +14120,20 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N172" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O172" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P172" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T172" t="n">
         <v>15</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44161</v>
+        <v>44257</v>
       </c>
       <c r="E173" t="n">
         <v>7</v>
@@ -14195,25 +14195,25 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>310</v>
+        <v>240</v>
       </c>
       <c r="N173" t="n">
         <v>15000</v>
       </c>
       <c r="O173" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P173" t="n">
-        <v>15194</v>
+        <v>15000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="T173" t="n">
         <v>15</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44161</v>
+        <v>44244</v>
       </c>
       <c r="E174" t="n">
         <v>7</v>
@@ -14275,29 +14275,29 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N174" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O174" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P174" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R174" t="inlineStr">
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T174" t="n">
         <v>15</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44161</v>
+        <v>44244</v>
       </c>
       <c r="E175" t="n">
         <v>7</v>
@@ -14355,29 +14355,29 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M175" t="n">
         <v>300</v>
       </c>
       <c r="N175" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O175" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P175" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R175" t="inlineStr">
@@ -14386,10 +14386,10 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>889</v>
+        <v>800</v>
       </c>
       <c r="T175" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176">
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44251</v>
+        <v>44244</v>
       </c>
       <c r="E176" t="n">
         <v>7</v>
@@ -14435,7 +14435,7 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
@@ -14444,20 +14444,20 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N176" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O176" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P176" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R176" t="inlineStr">
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T176" t="n">
         <v>15</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44251</v>
+        <v>44244</v>
       </c>
       <c r="E177" t="n">
         <v>7</v>
@@ -14515,7 +14515,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
@@ -14524,20 +14524,20 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N177" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O177" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P177" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T177" t="n">
         <v>15</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44251</v>
+        <v>44244</v>
       </c>
       <c r="E178" t="n">
         <v>7</v>
@@ -14600,20 +14600,20 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="N178" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O178" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P178" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>867</v>
+        <v>533</v>
       </c>
       <c r="T178" t="n">
         <v>15</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44251</v>
+        <v>44176</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
@@ -14675,16 +14675,16 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>260</v>
+        <v>50</v>
       </c>
       <c r="N179" t="n">
         <v>14000</v>
@@ -14697,7 +14697,7 @@
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44223</v>
+        <v>44176</v>
       </c>
       <c r="E180" t="n">
         <v>7</v>
@@ -14755,29 +14755,29 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="N180" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O180" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P180" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R180" t="inlineStr">
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T180" t="n">
         <v>15</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44223</v>
+        <v>44239</v>
       </c>
       <c r="E181" t="n">
         <v>7</v>
@@ -14835,25 +14835,25 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="N181" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O181" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P181" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T181" t="n">
         <v>15</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44223</v>
+        <v>44239</v>
       </c>
       <c r="E182" t="n">
         <v>7</v>
@@ -14915,25 +14915,25 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="N182" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O182" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P182" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T182" t="n">
         <v>15</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44223</v>
+        <v>44239</v>
       </c>
       <c r="E183" t="n">
         <v>7</v>
@@ -14995,25 +14995,25 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M183" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N183" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O183" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P183" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T183" t="n">
         <v>15</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44167</v>
+        <v>44211</v>
       </c>
       <c r="E184" t="n">
         <v>7</v>
@@ -15075,7 +15075,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -15084,20 +15084,20 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N184" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O184" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P184" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T184" t="n">
         <v>15</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44167</v>
+        <v>44211</v>
       </c>
       <c r="E185" t="n">
         <v>7</v>
@@ -15155,16 +15155,16 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N185" t="n">
         <v>14000</v>
@@ -15177,7 +15177,7 @@
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R185" t="inlineStr">
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44238</v>
+        <v>44211</v>
       </c>
       <c r="E186" t="n">
         <v>7</v>
@@ -15235,25 +15235,25 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="N186" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O186" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P186" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T186" t="n">
         <v>15</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44238</v>
+        <v>44211</v>
       </c>
       <c r="E187" t="n">
         <v>7</v>
@@ -15315,25 +15315,25 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>400</v>
+        <v>140</v>
       </c>
       <c r="N187" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O187" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P187" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T187" t="n">
         <v>15</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44238</v>
+        <v>44211</v>
       </c>
       <c r="E188" t="n">
         <v>7</v>
@@ -15395,7 +15395,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -15404,16 +15404,16 @@
         </is>
       </c>
       <c r="M188" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N188" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O188" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P188" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T188" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Durazno.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44181</v>
+        <v>44239</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -515,25 +515,25 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="N2" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O2" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P2" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T2" t="n">
         <v>15</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44181</v>
+        <v>44239</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -595,25 +595,25 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N3" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O3" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P3" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44235</v>
+        <v>44239</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -675,25 +675,25 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O4" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P4" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44235</v>
+        <v>44162</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -755,29 +755,29 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N5" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>867</v>
+        <v>833</v>
       </c>
       <c r="T5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44235</v>
+        <v>44162</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -835,29 +835,29 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O6" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P6" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>867</v>
+        <v>778</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44204</v>
+        <v>44189</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -915,29 +915,29 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>611</v>
       </c>
       <c r="T7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44204</v>
+        <v>44189</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -995,29 +995,29 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O8" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P8" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44194</v>
+        <v>44189</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N9" t="n">
         <v>15000</v>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44194</v>
+        <v>44189</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1155,16 +1155,16 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Redtop</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
         <v>14000</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>933</v>
+        <v>778</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44174</v>
+        <v>44267</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44174</v>
+        <v>44181</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N12" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O12" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P12" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44186</v>
+        <v>44181</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,24 +1400,24 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N13" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O13" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P13" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44186</v>
+        <v>44249</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1475,29 +1475,29 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N14" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>800</v>
+        <v>938</v>
       </c>
       <c r="T14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44189</v>
+        <v>44221</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1555,29 +1555,29 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O15" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P15" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>611</v>
+        <v>933</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44189</v>
+        <v>44221</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1635,29 +1635,29 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N16" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O16" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P16" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>500</v>
+        <v>867</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44189</v>
+        <v>44251</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P17" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>833</v>
+        <v>933</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44189</v>
+        <v>44251</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1795,29 +1795,29 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N18" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O18" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P18" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44202</v>
+        <v>44251</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="N19" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O19" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P19" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44202</v>
+        <v>44251</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1955,29 +1955,29 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="N20" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O20" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P20" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T20" t="n">
         <v>15</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44236</v>
+        <v>44176</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2044,20 +2044,20 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="N21" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O21" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P21" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44236</v>
+        <v>44176</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2115,29 +2115,29 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N22" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O22" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P22" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T22" t="n">
         <v>15</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44236</v>
+        <v>44208</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2207,17 +2207,17 @@
         <v>300</v>
       </c>
       <c r="N23" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O23" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P23" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>600</v>
+        <v>933</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44222</v>
+        <v>44237</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N24" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O24" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P24" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T24" t="n">
         <v>15</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44179</v>
+        <v>44237</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
@@ -2355,29 +2355,29 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N25" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O25" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P25" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T25" t="n">
         <v>15</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44179</v>
+        <v>44237</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
@@ -2435,29 +2435,29 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="N26" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O26" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P26" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44242</v>
+        <v>44237</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
@@ -2515,25 +2515,25 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>300</v>
       </c>
       <c r="N27" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O27" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P27" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44242</v>
+        <v>44237</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
@@ -2595,25 +2595,25 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N28" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O28" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P28" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44242</v>
+        <v>44179</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2687,17 +2687,17 @@
         <v>200</v>
       </c>
       <c r="N29" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O29" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P29" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T29" t="n">
         <v>15</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44258</v>
+        <v>44179</v>
       </c>
       <c r="E30" t="n">
         <v>7</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="N30" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O30" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P30" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44258</v>
+        <v>44253</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
@@ -2835,16 +2835,16 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="N31" t="n">
         <v>13000</v>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44258</v>
+        <v>44253</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
@@ -2915,29 +2915,29 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N32" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O32" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P32" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T32" t="n">
         <v>15</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44258</v>
+        <v>44253</v>
       </c>
       <c r="E33" t="n">
         <v>7</v>
@@ -3000,24 +3000,24 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>180</v>
       </c>
       <c r="N33" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O33" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P33" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44232</v>
+        <v>44253</v>
       </c>
       <c r="E34" t="n">
         <v>7</v>
@@ -3075,25 +3075,25 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>450</v>
+        <v>160</v>
       </c>
       <c r="N34" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O34" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P34" t="n">
-        <v>13444</v>
+        <v>12000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>896</v>
+        <v>800</v>
       </c>
       <c r="T34" t="n">
         <v>15</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44231</v>
+        <v>44194</v>
       </c>
       <c r="E35" t="n">
         <v>7</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N35" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O35" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P35" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44231</v>
+        <v>44194</v>
       </c>
       <c r="E36" t="n">
         <v>7</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Redtop</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N36" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O36" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P36" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44231</v>
+        <v>44160</v>
       </c>
       <c r="E37" t="n">
         <v>7</v>
@@ -3315,29 +3315,29 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N37" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O37" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P37" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44231</v>
+        <v>44160</v>
       </c>
       <c r="E38" t="n">
         <v>7</v>
@@ -3395,25 +3395,25 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N38" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O38" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P38" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44231</v>
+        <v>44160</v>
       </c>
       <c r="E39" t="n">
         <v>7</v>
@@ -3475,29 +3475,29 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="N39" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O39" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P39" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44224</v>
+        <v>44196</v>
       </c>
       <c r="E40" t="n">
         <v>7</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3564,20 +3564,20 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="N40" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O40" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P40" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44224</v>
+        <v>44196</v>
       </c>
       <c r="E41" t="n">
         <v>7</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3644,20 +3644,20 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N41" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O41" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P41" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T41" t="n">
         <v>15</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44224</v>
+        <v>44167</v>
       </c>
       <c r="E42" t="n">
         <v>7</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3724,20 +3724,20 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N42" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O42" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P42" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T42" t="n">
         <v>15</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44224</v>
+        <v>44167</v>
       </c>
       <c r="E43" t="n">
         <v>7</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3804,20 +3804,20 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N43" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O43" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P43" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T43" t="n">
         <v>15</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44224</v>
+        <v>44217</v>
       </c>
       <c r="E44" t="n">
         <v>7</v>
@@ -3875,25 +3875,25 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>180</v>
+        <v>520</v>
       </c>
       <c r="N44" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O44" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P44" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T44" t="n">
         <v>15</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44195</v>
+        <v>44217</v>
       </c>
       <c r="E45" t="n">
         <v>7</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N45" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O45" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P45" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1133</v>
+        <v>667</v>
       </c>
       <c r="T45" t="n">
         <v>15</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44169</v>
+        <v>44238</v>
       </c>
       <c r="E46" t="n">
         <v>7</v>
@@ -4035,41 +4035,41 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="N46" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O46" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P46" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>833</v>
+        <v>733</v>
       </c>
       <c r="T46" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44188</v>
+        <v>44238</v>
       </c>
       <c r="E47" t="n">
         <v>7</v>
@@ -4115,29 +4115,29 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="N47" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O47" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P47" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44188</v>
+        <v>44238</v>
       </c>
       <c r="E48" t="n">
         <v>7</v>
@@ -4195,29 +4195,29 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N48" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O48" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P48" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44188</v>
+        <v>44222</v>
       </c>
       <c r="E49" t="n">
         <v>7</v>
@@ -4275,29 +4275,29 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N49" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O49" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P49" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1067</v>
+        <v>867</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44230</v>
+        <v>44260</v>
       </c>
       <c r="E50" t="n">
         <v>7</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N50" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O50" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P50" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44230</v>
+        <v>44260</v>
       </c>
       <c r="E51" t="n">
         <v>7</v>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="N51" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O51" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P51" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44230</v>
+        <v>44211</v>
       </c>
       <c r="E52" t="n">
         <v>7</v>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44230</v>
+        <v>44211</v>
       </c>
       <c r="E53" t="n">
         <v>7</v>
@@ -4595,25 +4595,25 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N53" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O53" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P53" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>600</v>
+        <v>933</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44263</v>
+        <v>44211</v>
       </c>
       <c r="E54" t="n">
         <v>7</v>
@@ -4675,25 +4675,25 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N54" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O54" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P54" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T54" t="n">
         <v>15</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44263</v>
+        <v>44211</v>
       </c>
       <c r="E55" t="n">
         <v>7</v>
@@ -4755,25 +4755,25 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N55" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O55" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P55" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T55" t="n">
         <v>15</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44263</v>
+        <v>44211</v>
       </c>
       <c r="E56" t="n">
         <v>7</v>
@@ -4835,25 +4835,25 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N56" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O56" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P56" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>533</v>
+        <v>867</v>
       </c>
       <c r="T56" t="n">
         <v>15</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44271</v>
+        <v>44218</v>
       </c>
       <c r="E57" t="n">
         <v>7</v>
@@ -4915,16 +4915,16 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N57" t="n">
         <v>14000</v>
@@ -4937,12 +4937,12 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S57" t="n">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44238</v>
+        <v>44218</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
@@ -4995,38 +4995,38 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N58" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O58" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P58" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T58" t="n">
         <v>15</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44238</v>
+        <v>44218</v>
       </c>
       <c r="E59" t="n">
         <v>7</v>
@@ -5075,16 +5075,16 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N59" t="n">
         <v>13000</v>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44238</v>
+        <v>44218</v>
       </c>
       <c r="E60" t="n">
         <v>7</v>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -5164,20 +5164,20 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N60" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O60" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P60" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44284</v>
+        <v>44210</v>
       </c>
       <c r="E61" t="n">
         <v>7</v>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5244,16 +5244,16 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N61" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O61" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P61" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T61" t="n">
         <v>15</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44216</v>
+        <v>44210</v>
       </c>
       <c r="E62" t="n">
         <v>7</v>
@@ -5315,25 +5315,25 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="N62" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O62" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P62" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44216</v>
+        <v>44210</v>
       </c>
       <c r="E63" t="n">
         <v>7</v>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5404,16 +5404,16 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N63" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O63" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P63" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44216</v>
+        <v>44210</v>
       </c>
       <c r="E64" t="n">
         <v>7</v>
@@ -5475,25 +5475,25 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N64" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O64" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P64" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5502,11 +5502,11 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44216</v>
+        <v>44257</v>
       </c>
       <c r="E65" t="n">
         <v>7</v>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5564,16 +5564,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="N65" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O65" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P65" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5582,11 +5582,11 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T65" t="n">
         <v>15</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44216</v>
+        <v>44257</v>
       </c>
       <c r="E66" t="n">
         <v>7</v>
@@ -5635,38 +5635,38 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="N66" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O66" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P66" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S66" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T66" t="n">
         <v>15</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44216</v>
+        <v>44200</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
@@ -5720,33 +5720,33 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N67" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O67" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P67" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T67" t="n">
         <v>15</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44229</v>
+        <v>44246</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5804,16 +5804,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N68" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O68" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P68" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T68" t="n">
         <v>15</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44229</v>
+        <v>44246</v>
       </c>
       <c r="E69" t="n">
         <v>7</v>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="N69" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O69" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P69" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T69" t="n">
         <v>15</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44253</v>
+        <v>44246</v>
       </c>
       <c r="E70" t="n">
         <v>7</v>
@@ -5955,25 +5955,25 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N70" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O70" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P70" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>867</v>
+        <v>533</v>
       </c>
       <c r="T70" t="n">
         <v>15</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44253</v>
+        <v>44246</v>
       </c>
       <c r="E71" t="n">
         <v>7</v>
@@ -6035,25 +6035,25 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N71" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O71" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P71" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T71" t="n">
         <v>15</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44253</v>
+        <v>44246</v>
       </c>
       <c r="E72" t="n">
         <v>7</v>
@@ -6115,25 +6115,25 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N72" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O72" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P72" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T72" t="n">
         <v>15</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44253</v>
+        <v>44246</v>
       </c>
       <c r="E73" t="n">
         <v>7</v>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -6204,16 +6204,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N73" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O73" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P73" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T73" t="n">
         <v>15</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44245</v>
+        <v>44225</v>
       </c>
       <c r="E74" t="n">
         <v>7</v>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6284,20 +6284,20 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N74" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O74" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P74" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T74" t="n">
         <v>15</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44245</v>
+        <v>44225</v>
       </c>
       <c r="E75" t="n">
         <v>7</v>
@@ -6355,29 +6355,29 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="N75" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O75" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P75" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T75" t="n">
         <v>15</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44245</v>
+        <v>44225</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
@@ -6435,29 +6435,29 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="N76" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O76" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P76" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>533</v>
+        <v>933</v>
       </c>
       <c r="T76" t="n">
         <v>15</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44250</v>
+        <v>44225</v>
       </c>
       <c r="E77" t="n">
         <v>7</v>
@@ -6515,29 +6515,29 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="N77" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O77" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P77" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T77" t="n">
         <v>15</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44250</v>
+        <v>44188</v>
       </c>
       <c r="E78" t="n">
         <v>7</v>
@@ -6595,29 +6595,29 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N78" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O78" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P78" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T78" t="n">
         <v>15</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44225</v>
+        <v>44188</v>
       </c>
       <c r="E79" t="n">
         <v>7</v>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6684,20 +6684,20 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N79" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O79" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P79" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T79" t="n">
         <v>15</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44225</v>
+        <v>44188</v>
       </c>
       <c r="E80" t="n">
         <v>7</v>
@@ -6755,29 +6755,29 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="N80" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O80" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P80" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T80" t="n">
         <v>15</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44225</v>
+        <v>44245</v>
       </c>
       <c r="E81" t="n">
         <v>7</v>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6844,20 +6844,20 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="N81" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O81" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P81" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T81" t="n">
         <v>15</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44225</v>
+        <v>44245</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -6915,16 +6915,16 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N82" t="n">
         <v>12000</v>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44218</v>
+        <v>44245</v>
       </c>
       <c r="E83" t="n">
         <v>7</v>
@@ -6995,38 +6995,38 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N83" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O83" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P83" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S83" t="n">
-        <v>933</v>
+        <v>533</v>
       </c>
       <c r="T83" t="n">
         <v>15</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44218</v>
+        <v>44230</v>
       </c>
       <c r="E84" t="n">
         <v>7</v>
@@ -7080,33 +7080,33 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N84" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O84" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P84" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S84" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T84" t="n">
         <v>15</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44218</v>
+        <v>44230</v>
       </c>
       <c r="E85" t="n">
         <v>7</v>
@@ -7155,16 +7155,16 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N85" t="n">
         <v>13000</v>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44218</v>
+        <v>44230</v>
       </c>
       <c r="E86" t="n">
         <v>7</v>
@@ -7235,29 +7235,29 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M86" t="n">
         <v>100</v>
       </c>
       <c r="N86" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O86" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P86" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T86" t="n">
         <v>15</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44223</v>
+        <v>44230</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
@@ -7315,25 +7315,25 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="N87" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O87" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P87" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>933</v>
+        <v>600</v>
       </c>
       <c r="T87" t="n">
         <v>15</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44223</v>
+        <v>44216</v>
       </c>
       <c r="E88" t="n">
         <v>7</v>
@@ -7395,25 +7395,25 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="N88" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O88" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P88" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T88" t="n">
         <v>15</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44223</v>
+        <v>44216</v>
       </c>
       <c r="E89" t="n">
         <v>7</v>
@@ -7475,25 +7475,25 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N89" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O89" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P89" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T89" t="n">
         <v>15</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44223</v>
+        <v>44216</v>
       </c>
       <c r="E90" t="n">
         <v>7</v>
@@ -7555,25 +7555,25 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N90" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O90" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P90" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7582,11 +7582,11 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S90" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T90" t="n">
         <v>15</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44246</v>
+        <v>44216</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -7644,29 +7644,29 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="N91" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O91" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P91" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S91" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T91" t="n">
         <v>15</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44246</v>
+        <v>44216</v>
       </c>
       <c r="E92" t="n">
         <v>7</v>
@@ -7715,16 +7715,16 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N92" t="n">
         <v>12000</v>
@@ -7742,7 +7742,7 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S92" t="n">
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44246</v>
+        <v>44216</v>
       </c>
       <c r="E93" t="n">
         <v>7</v>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -7804,29 +7804,29 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N93" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O93" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P93" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S93" t="n">
-        <v>533</v>
+        <v>733</v>
       </c>
       <c r="T93" t="n">
         <v>15</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44246</v>
+        <v>44284</v>
       </c>
       <c r="E94" t="n">
         <v>7</v>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -7884,16 +7884,16 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N94" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O94" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P94" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T94" t="n">
         <v>15</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44246</v>
+        <v>44174</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
@@ -7955,29 +7955,29 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="N95" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O95" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P95" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T95" t="n">
         <v>15</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44246</v>
+        <v>44174</v>
       </c>
       <c r="E96" t="n">
         <v>7</v>
@@ -8035,7 +8035,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -8044,20 +8044,20 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N96" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O96" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P96" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>533</v>
+        <v>867</v>
       </c>
       <c r="T96" t="n">
         <v>15</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44161</v>
+        <v>44244</v>
       </c>
       <c r="E97" t="n">
         <v>7</v>
@@ -8115,7 +8115,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -8124,20 +8124,20 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="N97" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O97" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P97" t="n">
-        <v>15194</v>
+        <v>10000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>1013</v>
+        <v>667</v>
       </c>
       <c r="T97" t="n">
         <v>15</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44161</v>
+        <v>44244</v>
       </c>
       <c r="E98" t="n">
         <v>7</v>
@@ -8195,29 +8195,29 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N98" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O98" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P98" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T98" t="n">
         <v>15</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44161</v>
+        <v>44244</v>
       </c>
       <c r="E99" t="n">
         <v>7</v>
@@ -8275,29 +8275,29 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M99" t="n">
         <v>300</v>
       </c>
       <c r="N99" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O99" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P99" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
@@ -8306,10 +8306,10 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>889</v>
+        <v>667</v>
       </c>
       <c r="T99" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100">
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44193</v>
+        <v>44244</v>
       </c>
       <c r="E100" t="n">
         <v>7</v>
@@ -8355,25 +8355,25 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N100" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O100" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P100" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T100" t="n">
         <v>15</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44193</v>
+        <v>44244</v>
       </c>
       <c r="E101" t="n">
         <v>7</v>
@@ -8435,29 +8435,29 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Redtop</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N101" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O101" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P101" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>933</v>
+        <v>533</v>
       </c>
       <c r="T101" t="n">
         <v>15</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44193</v>
+        <v>44271</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
@@ -8515,29 +8515,29 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Redtop</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="N102" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O102" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P102" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T102" t="n">
         <v>15</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44274</v>
+        <v>44265</v>
       </c>
       <c r="E103" t="n">
         <v>7</v>
@@ -8595,7 +8595,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -8604,7 +8604,7 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N103" t="n">
         <v>12000</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44274</v>
+        <v>44265</v>
       </c>
       <c r="E104" t="n">
         <v>7</v>
@@ -8675,25 +8675,25 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="N104" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O104" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P104" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T104" t="n">
         <v>15</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44274</v>
+        <v>44224</v>
       </c>
       <c r="E105" t="n">
         <v>7</v>
@@ -8755,29 +8755,29 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="N105" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O105" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P105" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T105" t="n">
         <v>15</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44200</v>
+        <v>44224</v>
       </c>
       <c r="E106" t="n">
         <v>7</v>
@@ -8835,29 +8835,29 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="N106" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O106" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P106" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T106" t="n">
         <v>15</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44208</v>
+        <v>44224</v>
       </c>
       <c r="E107" t="n">
         <v>7</v>
@@ -8920,24 +8920,24 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M107" t="n">
         <v>300</v>
       </c>
       <c r="N107" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O107" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P107" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T107" t="n">
         <v>15</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44214</v>
+        <v>44224</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
@@ -9000,20 +9000,20 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N108" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O108" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P108" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T108" t="n">
         <v>15</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44214</v>
+        <v>44224</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
@@ -9075,25 +9075,25 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N109" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O109" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P109" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T109" t="n">
         <v>15</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44237</v>
+        <v>44195</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
@@ -9164,16 +9164,16 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="N110" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O110" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P110" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>733</v>
+        <v>1133</v>
       </c>
       <c r="T110" t="n">
         <v>15</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44237</v>
+        <v>44209</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
@@ -9240,11 +9240,11 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N111" t="n">
         <v>13000</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44237</v>
+        <v>44209</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
@@ -9315,25 +9315,25 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="N112" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O112" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P112" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T112" t="n">
         <v>15</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44237</v>
+        <v>44209</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -9395,25 +9395,25 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N113" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O113" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P113" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T113" t="n">
         <v>15</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44237</v>
+        <v>44232</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -9480,20 +9480,20 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="N114" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O114" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P114" t="n">
-        <v>9000</v>
+        <v>13444</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>600</v>
+        <v>896</v>
       </c>
       <c r="T114" t="n">
         <v>15</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44167</v>
+        <v>44169</v>
       </c>
       <c r="E115" t="n">
         <v>7</v>
@@ -9560,36 +9560,36 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="N115" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O115" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P115" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S115" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T115" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44167</v>
+        <v>44236</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -9635,29 +9635,29 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N116" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O116" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P116" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T116" t="n">
         <v>15</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44210</v>
+        <v>44236</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
@@ -9715,25 +9715,25 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N117" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O117" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P117" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T117" t="n">
         <v>15</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44210</v>
+        <v>44236</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -9795,25 +9795,25 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N118" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O118" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P118" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>933</v>
+        <v>600</v>
       </c>
       <c r="T118" t="n">
         <v>15</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44210</v>
+        <v>44215</v>
       </c>
       <c r="E119" t="n">
         <v>7</v>
@@ -9875,25 +9875,25 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N119" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O119" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P119" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T119" t="n">
         <v>15</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44210</v>
+        <v>44215</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
@@ -9955,7 +9955,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -9964,16 +9964,16 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N120" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O120" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P120" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T120" t="n">
         <v>15</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44217</v>
+        <v>44215</v>
       </c>
       <c r="E121" t="n">
         <v>7</v>
@@ -10044,16 +10044,16 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="N121" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O121" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P121" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T121" t="n">
         <v>15</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44217</v>
+        <v>44215</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -10124,16 +10124,16 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N122" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O122" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P122" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T122" t="n">
         <v>15</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44165</v>
+        <v>44235</v>
       </c>
       <c r="E123" t="n">
         <v>7</v>
@@ -10195,29 +10195,29 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N123" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O123" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P123" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
@@ -10226,10 +10226,10 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T123" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124">
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44165</v>
+        <v>44235</v>
       </c>
       <c r="E124" t="n">
         <v>7</v>
@@ -10275,29 +10275,29 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N124" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O124" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P124" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
@@ -10306,10 +10306,10 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>778</v>
+        <v>867</v>
       </c>
       <c r="T124" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125">
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44172</v>
+        <v>44235</v>
       </c>
       <c r="E125" t="n">
         <v>7</v>
@@ -10355,29 +10355,29 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="N125" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O125" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P125" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T125" t="n">
         <v>15</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44172</v>
+        <v>44203</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
@@ -10435,7 +10435,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -10444,20 +10444,20 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>100</v>
+        <v>360</v>
       </c>
       <c r="N126" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O126" t="n">
         <v>13000</v>
       </c>
       <c r="P126" t="n">
-        <v>13000</v>
+        <v>12556</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>867</v>
+        <v>837</v>
       </c>
       <c r="T126" t="n">
         <v>15</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44249</v>
+        <v>44203</v>
       </c>
       <c r="E127" t="n">
         <v>7</v>
@@ -10515,16 +10515,16 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="N127" t="n">
         <v>15000</v>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
@@ -10546,10 +10546,10 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T127" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128">
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44265</v>
+        <v>44203</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
@@ -10595,29 +10595,29 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N128" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O128" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P128" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T128" t="n">
         <v>15</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44265</v>
+        <v>44161</v>
       </c>
       <c r="E129" t="n">
         <v>7</v>
@@ -10675,29 +10675,29 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>160</v>
+        <v>310</v>
       </c>
       <c r="N129" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O129" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P129" t="n">
-        <v>11000</v>
+        <v>15194</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>733</v>
+        <v>1013</v>
       </c>
       <c r="T129" t="n">
         <v>15</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44201</v>
+        <v>44161</v>
       </c>
       <c r="E130" t="n">
         <v>7</v>
@@ -10755,29 +10755,29 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N130" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O130" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P130" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T130" t="n">
         <v>15</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44201</v>
+        <v>44161</v>
       </c>
       <c r="E131" t="n">
         <v>7</v>
@@ -10835,16 +10835,16 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="N131" t="n">
         <v>16000</v>
@@ -10857,7 +10857,7 @@
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
@@ -10866,10 +10866,10 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>1067</v>
+        <v>889</v>
       </c>
       <c r="T131" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132">
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44260</v>
+        <v>44214</v>
       </c>
       <c r="E132" t="n">
         <v>7</v>
@@ -10915,7 +10915,7 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
@@ -10924,16 +10924,16 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="N132" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O132" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P132" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T132" t="n">
         <v>15</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44260</v>
+        <v>44214</v>
       </c>
       <c r="E133" t="n">
         <v>7</v>
@@ -10995,25 +10995,25 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N133" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O133" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P133" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T133" t="n">
         <v>15</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44267</v>
+        <v>44274</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
@@ -11084,16 +11084,16 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N134" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O134" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P134" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T134" t="n">
         <v>15</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44187</v>
+        <v>44274</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -11155,29 +11155,29 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N135" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O135" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P135" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
@@ -11186,10 +11186,10 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>556</v>
+        <v>933</v>
       </c>
       <c r="T135" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136">
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44187</v>
+        <v>44274</v>
       </c>
       <c r="E136" t="n">
         <v>7</v>
@@ -11235,29 +11235,29 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="N136" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O136" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P136" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T136" t="n">
         <v>15</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44187</v>
+        <v>44229</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -11315,29 +11315,29 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="N137" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O137" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P137" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>1067</v>
+        <v>800</v>
       </c>
       <c r="T137" t="n">
         <v>15</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44187</v>
+        <v>44229</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -11395,16 +11395,16 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N138" t="n">
         <v>14000</v>
@@ -11417,7 +11417,7 @@
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44196</v>
+        <v>44165</v>
       </c>
       <c r="E139" t="n">
         <v>7</v>
@@ -11475,16 +11475,16 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N139" t="n">
         <v>15000</v>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
@@ -11506,10 +11506,10 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T139" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140">
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44196</v>
+        <v>44165</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -11555,29 +11555,29 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N140" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O140" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P140" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
@@ -11586,10 +11586,10 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>867</v>
+        <v>778</v>
       </c>
       <c r="T140" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141">
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44251</v>
+        <v>44231</v>
       </c>
       <c r="E141" t="n">
         <v>7</v>
@@ -11644,20 +11644,20 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="N141" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O141" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P141" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T141" t="n">
         <v>15</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44251</v>
+        <v>44231</v>
       </c>
       <c r="E142" t="n">
         <v>7</v>
@@ -11715,25 +11715,25 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N142" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O142" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P142" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T142" t="n">
         <v>15</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44251</v>
+        <v>44231</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -11800,20 +11800,20 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="N143" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O143" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P143" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T143" t="n">
         <v>15</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44251</v>
+        <v>44231</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -11884,7 +11884,7 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N144" t="n">
         <v>14000</v>
@@ -11897,7 +11897,7 @@
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44243</v>
+        <v>44231</v>
       </c>
       <c r="E145" t="n">
         <v>7</v>
@@ -11955,7 +11955,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -11964,16 +11964,16 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N145" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O145" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P145" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T145" t="n">
         <v>15</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44243</v>
+        <v>44258</v>
       </c>
       <c r="E146" t="n">
         <v>7</v>
@@ -12040,24 +12040,24 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N146" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O146" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P146" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T146" t="n">
         <v>15</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44243</v>
+        <v>44258</v>
       </c>
       <c r="E147" t="n">
         <v>7</v>
@@ -12124,20 +12124,20 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N147" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O147" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P147" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>533</v>
+        <v>867</v>
       </c>
       <c r="T147" t="n">
         <v>15</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44252</v>
+        <v>44258</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -12195,7 +12195,7 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -12204,20 +12204,20 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N148" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O148" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P148" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T148" t="n">
         <v>15</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44252</v>
+        <v>44258</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
@@ -12275,25 +12275,25 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M149" t="n">
         <v>180</v>
       </c>
       <c r="N149" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O149" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P149" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T149" t="n">
         <v>15</v>
@@ -12360,20 +12360,20 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N150" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O150" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P150" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T150" t="n">
         <v>15</v>
@@ -12440,20 +12440,20 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N151" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O151" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P151" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T151" t="n">
         <v>15</v>
@@ -12520,20 +12520,20 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N152" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O152" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P152" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T152" t="n">
         <v>15</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44221</v>
+        <v>44252</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
@@ -12595,29 +12595,29 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N153" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O153" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P153" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T153" t="n">
         <v>15</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44221</v>
+        <v>44252</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
@@ -12675,25 +12675,25 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N154" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O154" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P154" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T154" t="n">
         <v>15</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44286</v>
+        <v>44204</v>
       </c>
       <c r="E155" t="n">
         <v>7</v>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -12764,7 +12764,7 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N155" t="n">
         <v>15000</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44286</v>
+        <v>44204</v>
       </c>
       <c r="E156" t="n">
         <v>7</v>
@@ -12835,7 +12835,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -12844,16 +12844,16 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="N156" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O156" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P156" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T156" t="n">
         <v>15</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44209</v>
+        <v>44186</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -12915,29 +12915,29 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N157" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O157" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P157" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R157" t="inlineStr">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T157" t="n">
         <v>15</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44209</v>
+        <v>44186</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
@@ -12995,29 +12995,29 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N158" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O158" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P158" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R158" t="inlineStr">
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T158" t="n">
         <v>15</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44209</v>
+        <v>44243</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
@@ -13075,25 +13075,25 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N159" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O159" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P159" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T159" t="n">
         <v>15</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44160</v>
+        <v>44243</v>
       </c>
       <c r="E160" t="n">
         <v>7</v>
@@ -13155,29 +13155,29 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N160" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O160" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P160" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R160" t="inlineStr">
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T160" t="n">
         <v>15</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44160</v>
+        <v>44243</v>
       </c>
       <c r="E161" t="n">
         <v>7</v>
@@ -13235,29 +13235,29 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N161" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O161" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P161" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T161" t="n">
         <v>15</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44160</v>
+        <v>44202</v>
       </c>
       <c r="E162" t="n">
         <v>7</v>
@@ -13315,25 +13315,25 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="N162" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O162" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P162" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T162" t="n">
         <v>15</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44215</v>
+        <v>44202</v>
       </c>
       <c r="E163" t="n">
         <v>7</v>
@@ -13395,29 +13395,29 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M163" t="n">
         <v>120</v>
       </c>
       <c r="N163" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O163" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P163" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R163" t="inlineStr">
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T163" t="n">
         <v>15</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44215</v>
+        <v>44242</v>
       </c>
       <c r="E164" t="n">
         <v>7</v>
@@ -13475,25 +13475,25 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N164" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O164" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P164" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T164" t="n">
         <v>15</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44215</v>
+        <v>44242</v>
       </c>
       <c r="E165" t="n">
         <v>7</v>
@@ -13560,11 +13560,11 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N165" t="n">
         <v>13000</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44215</v>
+        <v>44242</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -13644,16 +13644,16 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N166" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O166" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P166" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T166" t="n">
         <v>15</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44203</v>
+        <v>44263</v>
       </c>
       <c r="E167" t="n">
         <v>7</v>
@@ -13715,25 +13715,25 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="N167" t="n">
         <v>12000</v>
       </c>
       <c r="O167" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P167" t="n">
-        <v>12556</v>
+        <v>12000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>837</v>
+        <v>800</v>
       </c>
       <c r="T167" t="n">
         <v>15</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44203</v>
+        <v>44263</v>
       </c>
       <c r="E168" t="n">
         <v>7</v>
@@ -13795,29 +13795,29 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="N168" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O168" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P168" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R168" t="inlineStr">
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T168" t="n">
         <v>15</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44203</v>
+        <v>44263</v>
       </c>
       <c r="E169" t="n">
         <v>7</v>
@@ -13875,29 +13875,29 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N169" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O169" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P169" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R169" t="inlineStr">
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>867</v>
+        <v>533</v>
       </c>
       <c r="T169" t="n">
         <v>15</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44162</v>
+        <v>44172</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
@@ -13960,24 +13960,24 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M170" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N170" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O170" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P170" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R170" t="inlineStr">
@@ -13986,10 +13986,10 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>833</v>
+        <v>933</v>
       </c>
       <c r="T170" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="171">
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44162</v>
+        <v>44172</v>
       </c>
       <c r="E171" t="n">
         <v>7</v>
@@ -14040,24 +14040,24 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N171" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O171" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P171" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R171" t="inlineStr">
@@ -14066,10 +14066,10 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>778</v>
+        <v>867</v>
       </c>
       <c r="T171" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="172">
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44257</v>
+        <v>44223</v>
       </c>
       <c r="E172" t="n">
         <v>7</v>
@@ -14115,7 +14115,7 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
@@ -14124,7 +14124,7 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="N172" t="n">
         <v>14000</v>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44257</v>
+        <v>44223</v>
       </c>
       <c r="E173" t="n">
         <v>7</v>
@@ -14195,29 +14195,29 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N173" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O173" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P173" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R173" t="inlineStr">
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T173" t="n">
         <v>15</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44244</v>
+        <v>44223</v>
       </c>
       <c r="E174" t="n">
         <v>7</v>
@@ -14275,7 +14275,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -14284,16 +14284,16 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N174" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O174" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P174" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T174" t="n">
         <v>15</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44244</v>
+        <v>44223</v>
       </c>
       <c r="E175" t="n">
         <v>7</v>
@@ -14355,7 +14355,7 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -14364,16 +14364,16 @@
         </is>
       </c>
       <c r="M175" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N175" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O175" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P175" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T175" t="n">
         <v>15</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44244</v>
+        <v>44187</v>
       </c>
       <c r="E176" t="n">
         <v>7</v>
@@ -14435,12 +14435,12 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M176" t="n">
@@ -14457,7 +14457,7 @@
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R176" t="inlineStr">
@@ -14466,10 +14466,10 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T176" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177">
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44244</v>
+        <v>44187</v>
       </c>
       <c r="E177" t="n">
         <v>7</v>
@@ -14515,29 +14515,29 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="N177" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O177" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P177" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T177" t="n">
         <v>15</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44244</v>
+        <v>44187</v>
       </c>
       <c r="E178" t="n">
         <v>7</v>
@@ -14595,29 +14595,29 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N178" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O178" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P178" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>533</v>
+        <v>1067</v>
       </c>
       <c r="T178" t="n">
         <v>15</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44176</v>
+        <v>44187</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
@@ -14675,12 +14675,12 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M179" t="n">
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44176</v>
+        <v>44250</v>
       </c>
       <c r="E180" t="n">
         <v>7</v>
@@ -14755,29 +14755,29 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N180" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O180" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P180" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R180" t="inlineStr">
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T180" t="n">
         <v>15</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44239</v>
+        <v>44250</v>
       </c>
       <c r="E181" t="n">
         <v>7</v>
@@ -14840,24 +14840,24 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N181" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O181" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P181" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T181" t="n">
         <v>15</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44239</v>
+        <v>44201</v>
       </c>
       <c r="E182" t="n">
         <v>7</v>
@@ -14915,25 +14915,25 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N182" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O182" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P182" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T182" t="n">
         <v>15</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44239</v>
+        <v>44201</v>
       </c>
       <c r="E183" t="n">
         <v>7</v>
@@ -14995,29 +14995,29 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M183" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N183" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O183" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P183" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R183" t="inlineStr">
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>600</v>
+        <v>1067</v>
       </c>
       <c r="T183" t="n">
         <v>15</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44211</v>
+        <v>44193</v>
       </c>
       <c r="E184" t="n">
         <v>7</v>
@@ -15084,16 +15084,16 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N184" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O184" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P184" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T184" t="n">
         <v>15</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44211</v>
+        <v>44193</v>
       </c>
       <c r="E185" t="n">
         <v>7</v>
@@ -15155,16 +15155,16 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Redtop</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N185" t="n">
         <v>14000</v>
@@ -15177,7 +15177,7 @@
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R185" t="inlineStr">
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44211</v>
+        <v>44193</v>
       </c>
       <c r="E186" t="n">
         <v>7</v>
@@ -15235,7 +15235,7 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Redtop</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
@@ -15244,20 +15244,20 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N186" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O186" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P186" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T186" t="n">
         <v>15</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44211</v>
+        <v>44286</v>
       </c>
       <c r="E187" t="n">
         <v>7</v>
@@ -15315,7 +15315,7 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -15324,7 +15324,7 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N187" t="n">
         <v>15000</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44211</v>
+        <v>44286</v>
       </c>
       <c r="E188" t="n">
         <v>7</v>
@@ -15395,7 +15395,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -15404,7 +15404,7 @@
         </is>
       </c>
       <c r="M188" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N188" t="n">
         <v>13000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Durazno.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44239</v>
+        <v>44260</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P2" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T2" t="n">
         <v>15</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44239</v>
+        <v>44260</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="N3" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44239</v>
+        <v>44250</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P4" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>600</v>
+        <v>933</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44162</v>
+        <v>44250</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -755,16 +755,16 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
         <v>15000</v>
@@ -777,7 +777,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44162</v>
+        <v>44195</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -835,29 +835,29 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O6" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P6" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>778</v>
+        <v>1133</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44189</v>
+        <v>44236</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -915,16 +915,16 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="N7" t="n">
         <v>11000</v>
@@ -937,7 +937,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>611</v>
+        <v>733</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44189</v>
+        <v>44236</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -995,29 +995,29 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O8" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P8" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>500</v>
+        <v>867</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44189</v>
+        <v>44236</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1075,29 +1075,29 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>833</v>
+        <v>600</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44189</v>
+        <v>44253</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1155,29 +1155,29 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N10" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O10" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P10" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>778</v>
+        <v>867</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44267</v>
+        <v>44253</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1235,25 +1235,25 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="N11" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44181</v>
+        <v>44253</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1315,25 +1315,25 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>180</v>
       </c>
       <c r="N12" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O12" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P12" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44181</v>
+        <v>44253</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1395,25 +1395,25 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N13" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O13" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P13" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44249</v>
+        <v>44232</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1484,20 +1484,20 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>13444</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>938</v>
+        <v>896</v>
       </c>
       <c r="T14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44221</v>
+        <v>44239</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N15" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O15" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P15" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44221</v>
+        <v>44239</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N16" t="n">
         <v>13000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44251</v>
+        <v>44239</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1715,29 +1715,29 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O17" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P17" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>933</v>
+        <v>600</v>
       </c>
       <c r="T17" t="n">
         <v>15</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44251</v>
+        <v>44243</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1795,29 +1795,29 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O18" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P18" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44251</v>
+        <v>44243</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O19" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P19" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44251</v>
+        <v>44243</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O20" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P20" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>933</v>
+        <v>533</v>
       </c>
       <c r="T20" t="n">
         <v>15</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44176</v>
+        <v>44230</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2044,20 +2044,20 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="N21" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O21" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P21" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44176</v>
+        <v>44230</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2115,29 +2115,29 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="N22" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O22" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P22" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T22" t="n">
         <v>15</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44208</v>
+        <v>44230</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -2195,29 +2195,29 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O23" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P23" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44237</v>
+        <v>44230</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2275,25 +2275,25 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="N24" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O24" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P24" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="T24" t="n">
         <v>15</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44237</v>
+        <v>44265</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
@@ -2355,25 +2355,25 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O25" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P25" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T25" t="n">
         <v>15</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44237</v>
+        <v>44265</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
@@ -2435,25 +2435,25 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="N26" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O26" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P26" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44237</v>
+        <v>44187</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
@@ -2515,29 +2515,29 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>300</v>
       </c>
       <c r="N27" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O27" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P27" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>933</v>
+        <v>556</v>
       </c>
       <c r="T27" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44237</v>
+        <v>44187</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
@@ -2595,29 +2595,29 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N28" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O28" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44179</v>
+        <v>44187</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
@@ -2675,25 +2675,25 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N29" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O29" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P29" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>800</v>
+        <v>1067</v>
       </c>
       <c r="T29" t="n">
         <v>15</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44179</v>
+        <v>44187</v>
       </c>
       <c r="E30" t="n">
         <v>7</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="N30" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O30" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P30" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44253</v>
+        <v>44267</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="N31" t="n">
         <v>13000</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44253</v>
+        <v>44174</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
@@ -2915,16 +2915,16 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="N32" t="n">
         <v>15000</v>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44253</v>
+        <v>44174</v>
       </c>
       <c r="E33" t="n">
         <v>7</v>
@@ -2995,29 +2995,29 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N33" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O33" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P33" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44253</v>
+        <v>44263</v>
       </c>
       <c r="E34" t="n">
         <v>7</v>
@@ -3075,16 +3075,16 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N34" t="n">
         <v>12000</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44194</v>
+        <v>44263</v>
       </c>
       <c r="E35" t="n">
         <v>7</v>
@@ -3155,25 +3155,25 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N35" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O35" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P35" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44194</v>
+        <v>44263</v>
       </c>
       <c r="E36" t="n">
         <v>7</v>
@@ -3235,29 +3235,29 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Redtop</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N36" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O36" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P36" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>933</v>
+        <v>533</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44160</v>
+        <v>44271</v>
       </c>
       <c r="E37" t="n">
         <v>7</v>
@@ -3315,29 +3315,29 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N37" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O37" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P37" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44160</v>
+        <v>44258</v>
       </c>
       <c r="E38" t="n">
         <v>7</v>
@@ -3395,25 +3395,25 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="N38" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O38" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P38" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44160</v>
+        <v>44258</v>
       </c>
       <c r="E39" t="n">
         <v>7</v>
@@ -3475,25 +3475,25 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="N39" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O39" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P39" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44196</v>
+        <v>44258</v>
       </c>
       <c r="E40" t="n">
         <v>7</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N40" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O40" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P40" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44196</v>
+        <v>44258</v>
       </c>
       <c r="E41" t="n">
         <v>7</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N41" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O41" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P41" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T41" t="n">
         <v>15</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44167</v>
+        <v>44200</v>
       </c>
       <c r="E42" t="n">
         <v>7</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N42" t="n">
         <v>15000</v>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44167</v>
+        <v>44203</v>
       </c>
       <c r="E43" t="n">
         <v>7</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3804,20 +3804,20 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N43" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O43" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P43" t="n">
-        <v>14000</v>
+        <v>12556</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>933</v>
+        <v>837</v>
       </c>
       <c r="T43" t="n">
         <v>15</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44217</v>
+        <v>44203</v>
       </c>
       <c r="E44" t="n">
         <v>7</v>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3884,20 +3884,20 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>520</v>
+        <v>110</v>
       </c>
       <c r="N44" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O44" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P44" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T44" t="n">
         <v>15</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44217</v>
+        <v>44203</v>
       </c>
       <c r="E45" t="n">
         <v>7</v>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3964,20 +3964,20 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N45" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O45" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P45" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T45" t="n">
         <v>15</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44238</v>
+        <v>44193</v>
       </c>
       <c r="E46" t="n">
         <v>7</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="N46" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O46" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P46" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T46" t="n">
         <v>15</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44238</v>
+        <v>44193</v>
       </c>
       <c r="E47" t="n">
         <v>7</v>
@@ -4115,29 +4115,29 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Redtop</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="N47" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O47" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P47" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44238</v>
+        <v>44193</v>
       </c>
       <c r="E48" t="n">
         <v>7</v>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Redtop</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4204,20 +4204,20 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N48" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O48" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P48" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44222</v>
+        <v>44225</v>
       </c>
       <c r="E49" t="n">
         <v>7</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4287,13 +4287,13 @@
         <v>100</v>
       </c>
       <c r="N49" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O49" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P49" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44260</v>
+        <v>44225</v>
       </c>
       <c r="E50" t="n">
         <v>7</v>
@@ -4355,25 +4355,25 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N50" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O50" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P50" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44260</v>
+        <v>44225</v>
       </c>
       <c r="E51" t="n">
         <v>7</v>
@@ -4435,25 +4435,25 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="N51" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O51" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P51" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44211</v>
+        <v>44225</v>
       </c>
       <c r="E52" t="n">
         <v>7</v>
@@ -4520,11 +4520,11 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N52" t="n">
         <v>12000</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44211</v>
+        <v>44231</v>
       </c>
       <c r="E53" t="n">
         <v>7</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="N53" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O53" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P53" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44211</v>
+        <v>44231</v>
       </c>
       <c r="E54" t="n">
         <v>7</v>
@@ -4675,29 +4675,29 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N54" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O54" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P54" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T54" t="n">
         <v>15</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44211</v>
+        <v>44231</v>
       </c>
       <c r="E55" t="n">
         <v>7</v>
@@ -4755,25 +4755,25 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="N55" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O55" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P55" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T55" t="n">
         <v>15</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44211</v>
+        <v>44231</v>
       </c>
       <c r="E56" t="n">
         <v>7</v>
@@ -4835,29 +4835,29 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N56" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O56" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P56" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T56" t="n">
         <v>15</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="E57" t="n">
         <v>7</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4924,29 +4924,29 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="N57" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O57" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P57" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T57" t="n">
         <v>15</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44218</v>
+        <v>44249</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
@@ -4995,41 +4995,41 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N58" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O58" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P58" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>800</v>
+        <v>938</v>
       </c>
       <c r="T58" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44218</v>
+        <v>44257</v>
       </c>
       <c r="E59" t="n">
         <v>7</v>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N59" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O59" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P59" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T59" t="n">
         <v>15</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44218</v>
+        <v>44257</v>
       </c>
       <c r="E60" t="n">
         <v>7</v>
@@ -5155,25 +5155,25 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="N60" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O60" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P60" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44210</v>
+        <v>44252</v>
       </c>
       <c r="E61" t="n">
         <v>7</v>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5244,16 +5244,16 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="N61" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O61" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P61" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T61" t="n">
         <v>15</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44210</v>
+        <v>44252</v>
       </c>
       <c r="E62" t="n">
         <v>7</v>
@@ -5315,29 +5315,29 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N62" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O62" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P62" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44210</v>
+        <v>44252</v>
       </c>
       <c r="E63" t="n">
         <v>7</v>
@@ -5395,25 +5395,25 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N63" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O63" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P63" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44210</v>
+        <v>44252</v>
       </c>
       <c r="E64" t="n">
         <v>7</v>
@@ -5475,29 +5475,29 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N64" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O64" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P64" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44257</v>
+        <v>44252</v>
       </c>
       <c r="E65" t="n">
         <v>7</v>
@@ -5560,24 +5560,24 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N65" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O65" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P65" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T65" t="n">
         <v>15</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44257</v>
+        <v>44237</v>
       </c>
       <c r="E66" t="n">
         <v>7</v>
@@ -5635,29 +5635,29 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N66" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O66" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P66" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T66" t="n">
         <v>15</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44200</v>
+        <v>44237</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N67" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O67" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P67" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T67" t="n">
         <v>15</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44246</v>
+        <v>44237</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
@@ -5804,16 +5804,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N68" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O68" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P68" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T68" t="n">
         <v>15</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44246</v>
+        <v>44237</v>
       </c>
       <c r="E69" t="n">
         <v>7</v>
@@ -5887,13 +5887,13 @@
         <v>300</v>
       </c>
       <c r="N69" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O69" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P69" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T69" t="n">
         <v>15</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44246</v>
+        <v>44237</v>
       </c>
       <c r="E70" t="n">
         <v>7</v>
@@ -5967,13 +5967,13 @@
         <v>200</v>
       </c>
       <c r="N70" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O70" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P70" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="T70" t="n">
         <v>15</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44246</v>
+        <v>44223</v>
       </c>
       <c r="E71" t="n">
         <v>7</v>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N71" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O71" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P71" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T71" t="n">
         <v>15</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44246</v>
+        <v>44223</v>
       </c>
       <c r="E72" t="n">
         <v>7</v>
@@ -6115,16 +6115,16 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N72" t="n">
         <v>12000</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44246</v>
+        <v>44223</v>
       </c>
       <c r="E73" t="n">
         <v>7</v>
@@ -6195,25 +6195,25 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N73" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O73" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P73" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="T73" t="n">
         <v>15</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44225</v>
+        <v>44223</v>
       </c>
       <c r="E74" t="n">
         <v>7</v>
@@ -6275,25 +6275,25 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N74" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O74" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P74" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T74" t="n">
         <v>15</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44225</v>
+        <v>44209</v>
       </c>
       <c r="E75" t="n">
         <v>7</v>
@@ -6355,25 +6355,25 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="N75" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O75" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P75" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T75" t="n">
         <v>15</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44225</v>
+        <v>44209</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="N76" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O76" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P76" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T76" t="n">
         <v>15</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44225</v>
+        <v>44209</v>
       </c>
       <c r="E77" t="n">
         <v>7</v>
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="N77" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O77" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P77" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T77" t="n">
         <v>15</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44188</v>
+        <v>44165</v>
       </c>
       <c r="E78" t="n">
         <v>7</v>
@@ -6595,29 +6595,29 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N78" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O78" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P78" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -6626,10 +6626,10 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="T78" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44188</v>
+        <v>44165</v>
       </c>
       <c r="E79" t="n">
         <v>7</v>
@@ -6675,29 +6675,29 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N79" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O79" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P79" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -6706,10 +6706,10 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T79" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44188</v>
+        <v>44167</v>
       </c>
       <c r="E80" t="n">
         <v>7</v>
@@ -6755,25 +6755,25 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="N80" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O80" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P80" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1067</v>
+        <v>1000</v>
       </c>
       <c r="T80" t="n">
         <v>15</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44245</v>
+        <v>44167</v>
       </c>
       <c r="E81" t="n">
         <v>7</v>
@@ -6835,29 +6835,29 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M81" t="n">
         <v>300</v>
       </c>
       <c r="N81" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O81" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P81" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T81" t="n">
         <v>15</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44245</v>
+        <v>44224</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -6915,29 +6915,29 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N82" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O82" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P82" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T82" t="n">
         <v>15</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44245</v>
+        <v>44224</v>
       </c>
       <c r="E83" t="n">
         <v>7</v>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -7004,20 +7004,20 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N83" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O83" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P83" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>533</v>
+        <v>733</v>
       </c>
       <c r="T83" t="n">
         <v>15</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44230</v>
+        <v>44224</v>
       </c>
       <c r="E84" t="n">
         <v>7</v>
@@ -7084,16 +7084,16 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="N84" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O84" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P84" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T84" t="n">
         <v>15</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44230</v>
+        <v>44224</v>
       </c>
       <c r="E85" t="n">
         <v>7</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N85" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O85" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P85" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T85" t="n">
         <v>15</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44230</v>
+        <v>44224</v>
       </c>
       <c r="E86" t="n">
         <v>7</v>
@@ -7235,25 +7235,25 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N86" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O86" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P86" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T86" t="n">
         <v>15</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44230</v>
+        <v>44235</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
@@ -7315,25 +7315,25 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N87" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O87" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P87" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T87" t="n">
         <v>15</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44216</v>
+        <v>44235</v>
       </c>
       <c r="E88" t="n">
         <v>7</v>
@@ -7395,16 +7395,16 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="N88" t="n">
         <v>13000</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44216</v>
+        <v>44235</v>
       </c>
       <c r="E89" t="n">
         <v>7</v>
@@ -7475,25 +7475,25 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N89" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O89" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P89" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T89" t="n">
         <v>15</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44216</v>
+        <v>44251</v>
       </c>
       <c r="E90" t="n">
         <v>7</v>
@@ -7564,7 +7564,7 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="N90" t="n">
         <v>14000</v>
@@ -7577,12 +7577,12 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S90" t="n">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44216</v>
+        <v>44251</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
@@ -7640,20 +7640,20 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="N91" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O91" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P91" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7662,11 +7662,11 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S91" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T91" t="n">
         <v>15</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44216</v>
+        <v>44251</v>
       </c>
       <c r="E92" t="n">
         <v>7</v>
@@ -7715,25 +7715,25 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="N92" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O92" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P92" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7742,11 +7742,11 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S92" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T92" t="n">
         <v>15</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44216</v>
+        <v>44251</v>
       </c>
       <c r="E93" t="n">
         <v>7</v>
@@ -7795,38 +7795,38 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>50</v>
+        <v>260</v>
       </c>
       <c r="N93" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O93" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P93" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S93" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T93" t="n">
         <v>15</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44284</v>
+        <v>44176</v>
       </c>
       <c r="E94" t="n">
         <v>7</v>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -7884,20 +7884,20 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N94" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O94" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P94" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T94" t="n">
         <v>15</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44174</v>
+        <v>44176</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
@@ -7955,25 +7955,25 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="N95" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O95" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P95" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T95" t="n">
         <v>15</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44174</v>
+        <v>44245</v>
       </c>
       <c r="E96" t="n">
         <v>7</v>
@@ -8035,29 +8035,29 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N96" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O96" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P96" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T96" t="n">
         <v>15</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="E97" t="n">
         <v>7</v>
@@ -8115,29 +8115,29 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M97" t="n">
         <v>300</v>
       </c>
       <c r="N97" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O97" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P97" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T97" t="n">
         <v>15</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="E98" t="n">
         <v>7</v>
@@ -8195,29 +8195,29 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N98" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O98" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P98" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T98" t="n">
         <v>15</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44244</v>
+        <v>44210</v>
       </c>
       <c r="E99" t="n">
         <v>7</v>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -8284,16 +8284,16 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N99" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O99" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P99" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T99" t="n">
         <v>15</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44244</v>
+        <v>44210</v>
       </c>
       <c r="E100" t="n">
         <v>7</v>
@@ -8355,7 +8355,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -8364,16 +8364,16 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N100" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O100" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P100" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T100" t="n">
         <v>15</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44244</v>
+        <v>44210</v>
       </c>
       <c r="E101" t="n">
         <v>7</v>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -8447,13 +8447,13 @@
         <v>200</v>
       </c>
       <c r="N101" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O101" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P101" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T101" t="n">
         <v>15</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44271</v>
+        <v>44210</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
@@ -8515,25 +8515,25 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N102" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O102" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P102" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T102" t="n">
         <v>15</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44265</v>
+        <v>44161</v>
       </c>
       <c r="E103" t="n">
         <v>7</v>
@@ -8595,7 +8595,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -8604,20 +8604,20 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>100</v>
+        <v>310</v>
       </c>
       <c r="N103" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O103" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P103" t="n">
-        <v>12000</v>
+        <v>15194</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>800</v>
+        <v>1013</v>
       </c>
       <c r="T103" t="n">
         <v>15</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44265</v>
+        <v>44161</v>
       </c>
       <c r="E104" t="n">
         <v>7</v>
@@ -8675,7 +8675,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -8684,20 +8684,20 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N104" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O104" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P104" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T104" t="n">
         <v>15</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44224</v>
+        <v>44161</v>
       </c>
       <c r="E105" t="n">
         <v>7</v>
@@ -8755,29 +8755,29 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N105" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O105" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P105" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -8786,10 +8786,10 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>867</v>
+        <v>889</v>
       </c>
       <c r="T105" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106">
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44224</v>
+        <v>44214</v>
       </c>
       <c r="E106" t="n">
         <v>7</v>
@@ -8835,29 +8835,29 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="N106" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O106" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P106" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T106" t="n">
         <v>15</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44224</v>
+        <v>44214</v>
       </c>
       <c r="E107" t="n">
         <v>7</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N107" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O107" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P107" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T107" t="n">
         <v>15</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44224</v>
+        <v>44162</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
@@ -8995,7 +8995,7 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -9004,20 +9004,20 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N108" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O108" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P108" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
@@ -9026,10 +9026,10 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>733</v>
+        <v>833</v>
       </c>
       <c r="T108" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109">
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44224</v>
+        <v>44162</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
@@ -9075,29 +9075,29 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N109" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O109" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P109" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
@@ -9106,10 +9106,10 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>867</v>
+        <v>778</v>
       </c>
       <c r="T109" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110">
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
@@ -9164,16 +9164,16 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N110" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O110" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P110" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>1133</v>
+        <v>1000</v>
       </c>
       <c r="T110" t="n">
         <v>15</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44209</v>
+        <v>44194</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Redtop</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -9244,20 +9244,20 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N111" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O111" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P111" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T111" t="n">
         <v>15</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44209</v>
+        <v>44284</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
@@ -9315,16 +9315,16 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N112" t="n">
         <v>15000</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44209</v>
+        <v>44238</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -9395,16 +9395,16 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N113" t="n">
         <v>11000</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44232</v>
+        <v>44238</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -9484,16 +9484,16 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N114" t="n">
         <v>13000</v>
       </c>
       <c r="O114" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P114" t="n">
-        <v>13444</v>
+        <v>13000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>896</v>
+        <v>867</v>
       </c>
       <c r="T114" t="n">
         <v>15</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44169</v>
+        <v>44238</v>
       </c>
       <c r="E115" t="n">
         <v>7</v>
@@ -9555,7 +9555,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -9564,32 +9564,32 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N115" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O115" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P115" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S115" t="n">
-        <v>833</v>
+        <v>600</v>
       </c>
       <c r="T115" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44236</v>
+        <v>44202</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -9635,7 +9635,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -9644,20 +9644,20 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="N116" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O116" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P116" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T116" t="n">
         <v>15</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44236</v>
+        <v>44202</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
@@ -9715,16 +9715,16 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N117" t="n">
         <v>13000</v>
@@ -9737,7 +9737,7 @@
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44236</v>
+        <v>44169</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -9795,7 +9795,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -9804,32 +9804,32 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N118" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O118" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P118" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S118" t="n">
-        <v>600</v>
+        <v>833</v>
       </c>
       <c r="T118" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119">
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44215</v>
+        <v>44188</v>
       </c>
       <c r="E119" t="n">
         <v>7</v>
@@ -9875,7 +9875,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -9884,20 +9884,20 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N119" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O119" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P119" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T119" t="n">
         <v>15</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44215</v>
+        <v>44188</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
@@ -9955,29 +9955,29 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N120" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O120" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P120" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T120" t="n">
         <v>15</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44215</v>
+        <v>44188</v>
       </c>
       <c r="E121" t="n">
         <v>7</v>
@@ -10035,29 +10035,29 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="N121" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O121" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P121" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T121" t="n">
         <v>15</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44215</v>
+        <v>44160</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -10115,7 +10115,7 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
@@ -10124,20 +10124,20 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N122" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O122" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P122" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T122" t="n">
         <v>15</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44235</v>
+        <v>44160</v>
       </c>
       <c r="E123" t="n">
         <v>7</v>
@@ -10195,16 +10195,16 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N123" t="n">
         <v>12000</v>
@@ -10217,7 +10217,7 @@
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44235</v>
+        <v>44160</v>
       </c>
       <c r="E124" t="n">
         <v>7</v>
@@ -10275,29 +10275,29 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N124" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O124" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P124" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T124" t="n">
         <v>15</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44235</v>
+        <v>44274</v>
       </c>
       <c r="E125" t="n">
         <v>7</v>
@@ -10355,25 +10355,25 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="N125" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O125" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P125" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T125" t="n">
         <v>15</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44203</v>
+        <v>44274</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
@@ -10435,25 +10435,25 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>360</v>
+        <v>50</v>
       </c>
       <c r="N126" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O126" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P126" t="n">
-        <v>12556</v>
+        <v>14000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>837</v>
+        <v>933</v>
       </c>
       <c r="T126" t="n">
         <v>15</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44203</v>
+        <v>44274</v>
       </c>
       <c r="E127" t="n">
         <v>7</v>
@@ -10515,29 +10515,29 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="N127" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O127" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P127" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T127" t="n">
         <v>15</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44203</v>
+        <v>44216</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
@@ -10595,16 +10595,16 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="N128" t="n">
         <v>13000</v>
@@ -10617,7 +10617,7 @@
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44161</v>
+        <v>44216</v>
       </c>
       <c r="E129" t="n">
         <v>7</v>
@@ -10675,29 +10675,29 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="N129" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O129" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P129" t="n">
-        <v>15194</v>
+        <v>11000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>1013</v>
+        <v>733</v>
       </c>
       <c r="T129" t="n">
         <v>15</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44161</v>
+        <v>44216</v>
       </c>
       <c r="E130" t="n">
         <v>7</v>
@@ -10755,16 +10755,16 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N130" t="n">
         <v>14000</v>
@@ -10777,12 +10777,12 @@
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S130" t="n">
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44161</v>
+        <v>44216</v>
       </c>
       <c r="E131" t="n">
         <v>7</v>
@@ -10835,41 +10835,41 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="N131" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O131" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P131" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S131" t="n">
-        <v>889</v>
+        <v>867</v>
       </c>
       <c r="T131" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132">
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44214</v>
+        <v>44216</v>
       </c>
       <c r="E132" t="n">
         <v>7</v>
@@ -10920,20 +10920,20 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="N132" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O132" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P132" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10942,11 +10942,11 @@
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S132" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T132" t="n">
         <v>15</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44214</v>
+        <v>44216</v>
       </c>
       <c r="E133" t="n">
         <v>7</v>
@@ -11004,7 +11004,7 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N133" t="n">
         <v>11000</v>
@@ -11017,12 +11017,12 @@
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S133" t="n">
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44274</v>
+        <v>44222</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
@@ -11075,7 +11075,7 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -11084,16 +11084,16 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N134" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O134" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P134" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T134" t="n">
         <v>15</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44274</v>
+        <v>44189</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -11155,29 +11155,29 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N135" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O135" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P135" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
@@ -11186,10 +11186,10 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>933</v>
+        <v>611</v>
       </c>
       <c r="T135" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136">
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44274</v>
+        <v>44189</v>
       </c>
       <c r="E136" t="n">
         <v>7</v>
@@ -11235,29 +11235,29 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="N136" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O136" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P136" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
@@ -11266,10 +11266,10 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T136" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137">
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44229</v>
+        <v>44189</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -11315,7 +11315,7 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -11324,20 +11324,20 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N137" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O137" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P137" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
@@ -11346,10 +11346,10 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T137" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138">
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44229</v>
+        <v>44189</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -11395,16 +11395,16 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N138" t="n">
         <v>14000</v>
@@ -11417,7 +11417,7 @@
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -11426,10 +11426,10 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>933</v>
+        <v>778</v>
       </c>
       <c r="T138" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139">
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44165</v>
+        <v>44172</v>
       </c>
       <c r="E139" t="n">
         <v>7</v>
@@ -11480,24 +11480,24 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N139" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O139" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P139" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
@@ -11506,10 +11506,10 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>833</v>
+        <v>933</v>
       </c>
       <c r="T139" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140">
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44165</v>
+        <v>44172</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -11560,24 +11560,24 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N140" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O140" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P140" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
@@ -11586,10 +11586,10 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>778</v>
+        <v>867</v>
       </c>
       <c r="T140" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141">
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44231</v>
+        <v>44196</v>
       </c>
       <c r="E141" t="n">
         <v>7</v>
@@ -11644,20 +11644,20 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="N141" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O141" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P141" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T141" t="n">
         <v>15</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44231</v>
+        <v>44196</v>
       </c>
       <c r="E142" t="n">
         <v>7</v>
@@ -11715,25 +11715,25 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="N142" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O142" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P142" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T142" t="n">
         <v>15</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44231</v>
+        <v>44208</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -11795,16 +11795,16 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N143" t="n">
         <v>14000</v>
@@ -11817,7 +11817,7 @@
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44231</v>
+        <v>44229</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -11875,29 +11875,29 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N144" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O144" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P144" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T144" t="n">
         <v>15</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44231</v>
+        <v>44229</v>
       </c>
       <c r="E145" t="n">
         <v>7</v>
@@ -11955,25 +11955,25 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="N145" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O145" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P145" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T145" t="n">
         <v>15</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44258</v>
+        <v>44242</v>
       </c>
       <c r="E146" t="n">
         <v>7</v>
@@ -12035,7 +12035,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -12044,20 +12044,20 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N146" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O146" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P146" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T146" t="n">
         <v>15</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44258</v>
+        <v>44242</v>
       </c>
       <c r="E147" t="n">
         <v>7</v>
@@ -12115,16 +12115,16 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="N147" t="n">
         <v>13000</v>
@@ -12137,7 +12137,7 @@
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44258</v>
+        <v>44242</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -12195,29 +12195,29 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M148" t="n">
         <v>200</v>
       </c>
       <c r="N148" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O148" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P148" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>933</v>
+        <v>600</v>
       </c>
       <c r="T148" t="n">
         <v>15</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44258</v>
+        <v>44201</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
@@ -12275,29 +12275,29 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N149" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O149" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P149" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T149" t="n">
         <v>15</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44252</v>
+        <v>44201</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
@@ -12355,29 +12355,29 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="N150" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O150" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P150" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T150" t="n">
         <v>15</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44252</v>
+        <v>44204</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -12435,7 +12435,7 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -12444,20 +12444,20 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N151" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O151" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P151" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T151" t="n">
         <v>15</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44252</v>
+        <v>44204</v>
       </c>
       <c r="E152" t="n">
         <v>7</v>
@@ -12515,25 +12515,25 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="N152" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O152" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P152" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T152" t="n">
         <v>15</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44252</v>
+        <v>44218</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
@@ -12595,25 +12595,25 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N153" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O153" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P153" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12622,11 +12622,11 @@
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S153" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T153" t="n">
         <v>15</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44252</v>
+        <v>44218</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
@@ -12675,7 +12675,7 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -12687,26 +12687,26 @@
         <v>200</v>
       </c>
       <c r="N154" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O154" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P154" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S154" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T154" t="n">
         <v>15</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44204</v>
+        <v>44218</v>
       </c>
       <c r="E155" t="n">
         <v>7</v>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -12764,20 +12764,20 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N155" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O155" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P155" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R155" t="inlineStr">
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T155" t="n">
         <v>15</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44204</v>
+        <v>44218</v>
       </c>
       <c r="E156" t="n">
         <v>7</v>
@@ -12835,7 +12835,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -12844,20 +12844,20 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="N156" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O156" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P156" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R156" t="inlineStr">
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T156" t="n">
         <v>15</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44186</v>
+        <v>44221</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -12915,29 +12915,29 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N157" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O157" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P157" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R157" t="inlineStr">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T157" t="n">
         <v>15</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44186</v>
+        <v>44221</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
@@ -12995,29 +12995,29 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N158" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O158" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P158" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R158" t="inlineStr">
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T158" t="n">
         <v>15</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44243</v>
+        <v>44211</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
@@ -13075,7 +13075,7 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -13084,16 +13084,16 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N159" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O159" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P159" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T159" t="n">
         <v>15</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44243</v>
+        <v>44211</v>
       </c>
       <c r="E160" t="n">
         <v>7</v>
@@ -13155,7 +13155,7 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
@@ -13164,16 +13164,16 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N160" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O160" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P160" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T160" t="n">
         <v>15</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44243</v>
+        <v>44211</v>
       </c>
       <c r="E161" t="n">
         <v>7</v>
@@ -13235,7 +13235,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -13244,16 +13244,16 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N161" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O161" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P161" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T161" t="n">
         <v>15</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44202</v>
+        <v>44211</v>
       </c>
       <c r="E162" t="n">
         <v>7</v>
@@ -13315,7 +13315,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
@@ -13324,7 +13324,7 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="N162" t="n">
         <v>15000</v>
@@ -13337,7 +13337,7 @@
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R162" t="inlineStr">
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44202</v>
+        <v>44211</v>
       </c>
       <c r="E163" t="n">
         <v>7</v>
@@ -13395,7 +13395,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -13404,7 +13404,7 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N163" t="n">
         <v>13000</v>
@@ -13417,7 +13417,7 @@
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R163" t="inlineStr">
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44242</v>
+        <v>44215</v>
       </c>
       <c r="E164" t="n">
         <v>7</v>
@@ -13475,7 +13475,7 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -13484,16 +13484,16 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N164" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O164" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P164" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T164" t="n">
         <v>15</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44242</v>
+        <v>44215</v>
       </c>
       <c r="E165" t="n">
         <v>7</v>
@@ -13555,25 +13555,25 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N165" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O165" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P165" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T165" t="n">
         <v>15</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44242</v>
+        <v>44215</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -13640,20 +13640,20 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N166" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O166" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P166" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T166" t="n">
         <v>15</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44263</v>
+        <v>44215</v>
       </c>
       <c r="E167" t="n">
         <v>7</v>
@@ -13715,16 +13715,16 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N167" t="n">
         <v>12000</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44263</v>
+        <v>44186</v>
       </c>
       <c r="E168" t="n">
         <v>7</v>
@@ -13795,7 +13795,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -13807,17 +13807,17 @@
         <v>200</v>
       </c>
       <c r="N168" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O168" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P168" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R168" t="inlineStr">
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T168" t="n">
         <v>15</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44263</v>
+        <v>44186</v>
       </c>
       <c r="E169" t="n">
         <v>7</v>
@@ -13875,29 +13875,29 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N169" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O169" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P169" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R169" t="inlineStr">
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="T169" t="n">
         <v>15</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44172</v>
+        <v>44246</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
@@ -13955,7 +13955,7 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -13964,20 +13964,20 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N170" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O170" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P170" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R170" t="inlineStr">
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T170" t="n">
         <v>15</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44172</v>
+        <v>44246</v>
       </c>
       <c r="E171" t="n">
         <v>7</v>
@@ -14035,29 +14035,29 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N171" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O171" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P171" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R171" t="inlineStr">
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T171" t="n">
         <v>15</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44223</v>
+        <v>44246</v>
       </c>
       <c r="E172" t="n">
         <v>7</v>
@@ -14115,25 +14115,25 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N172" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O172" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P172" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>933</v>
+        <v>533</v>
       </c>
       <c r="T172" t="n">
         <v>15</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44223</v>
+        <v>44246</v>
       </c>
       <c r="E173" t="n">
         <v>7</v>
@@ -14195,25 +14195,25 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N173" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O173" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P173" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T173" t="n">
         <v>15</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44223</v>
+        <v>44246</v>
       </c>
       <c r="E174" t="n">
         <v>7</v>
@@ -14275,16 +14275,16 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N174" t="n">
         <v>12000</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44223</v>
+        <v>44246</v>
       </c>
       <c r="E175" t="n">
         <v>7</v>
@@ -14355,25 +14355,25 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N175" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O175" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P175" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>867</v>
+        <v>533</v>
       </c>
       <c r="T175" t="n">
         <v>15</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44187</v>
+        <v>44286</v>
       </c>
       <c r="E176" t="n">
         <v>7</v>
@@ -14435,29 +14435,29 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N176" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O176" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P176" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R176" t="inlineStr">
@@ -14466,10 +14466,10 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T176" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="177">
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44187</v>
+        <v>44286</v>
       </c>
       <c r="E177" t="n">
         <v>7</v>
@@ -14515,29 +14515,29 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="N177" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O177" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P177" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T177" t="n">
         <v>15</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44187</v>
+        <v>44181</v>
       </c>
       <c r="E178" t="n">
         <v>7</v>
@@ -14595,29 +14595,29 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="N178" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O178" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P178" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>1067</v>
+        <v>800</v>
       </c>
       <c r="T178" t="n">
         <v>15</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44187</v>
+        <v>44181</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
@@ -14675,29 +14675,29 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N179" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O179" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P179" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T179" t="n">
         <v>15</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44250</v>
+        <v>44217</v>
       </c>
       <c r="E180" t="n">
         <v>7</v>
@@ -14755,7 +14755,7 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
@@ -14764,20 +14764,20 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>150</v>
+        <v>520</v>
       </c>
       <c r="N180" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O180" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P180" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R180" t="inlineStr">
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T180" t="n">
         <v>15</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44250</v>
+        <v>44217</v>
       </c>
       <c r="E181" t="n">
         <v>7</v>
@@ -14835,29 +14835,29 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M181" t="n">
         <v>200</v>
       </c>
       <c r="N181" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O181" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P181" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T181" t="n">
         <v>15</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44201</v>
+        <v>44244</v>
       </c>
       <c r="E182" t="n">
         <v>7</v>
@@ -14927,13 +14927,13 @@
         <v>300</v>
       </c>
       <c r="N182" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O182" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P182" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T182" t="n">
         <v>15</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44201</v>
+        <v>44244</v>
       </c>
       <c r="E183" t="n">
         <v>7</v>
@@ -14995,7 +14995,7 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
@@ -15004,20 +15004,20 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="N183" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O183" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P183" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R183" t="inlineStr">
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>1067</v>
+        <v>800</v>
       </c>
       <c r="T183" t="n">
         <v>15</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44193</v>
+        <v>44244</v>
       </c>
       <c r="E184" t="n">
         <v>7</v>
@@ -15075,7 +15075,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -15084,16 +15084,16 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N184" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O184" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P184" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T184" t="n">
         <v>15</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44193</v>
+        <v>44244</v>
       </c>
       <c r="E185" t="n">
         <v>7</v>
@@ -15155,29 +15155,29 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Redtop</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N185" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O185" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P185" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R185" t="inlineStr">
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T185" t="n">
         <v>15</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44193</v>
+        <v>44244</v>
       </c>
       <c r="E186" t="n">
         <v>7</v>
@@ -15235,7 +15235,7 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Redtop</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
@@ -15244,20 +15244,20 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N186" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O186" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P186" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T186" t="n">
         <v>15</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44286</v>
+        <v>44179</v>
       </c>
       <c r="E187" t="n">
         <v>7</v>
@@ -15315,29 +15315,29 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N187" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O187" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P187" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R187" t="inlineStr">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T187" t="n">
         <v>15</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44286</v>
+        <v>44179</v>
       </c>
       <c r="E188" t="n">
         <v>7</v>
@@ -15395,29 +15395,29 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="N188" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O188" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P188" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R188" t="inlineStr">
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T188" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T188"/>
+  <dimension ref="A1:T189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44260</v>
+        <v>44231</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N2" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O2" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P2" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T2" t="n">
         <v>15</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44260</v>
+        <v>44231</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44250</v>
+        <v>44231</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -680,11 +680,11 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N4" t="n">
         <v>14000</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44250</v>
+        <v>44231</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44195</v>
+        <v>44231</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="N6" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1133</v>
+        <v>800</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44236</v>
+        <v>44223</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="N7" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O7" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P7" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44236</v>
+        <v>44223</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -995,25 +995,25 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N8" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O8" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P8" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44236</v>
+        <v>44223</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1075,25 +1075,25 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O9" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P9" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T9" t="n">
         <v>15</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44253</v>
+        <v>44223</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1155,16 +1155,16 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
         <v>13000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44253</v>
+        <v>44165</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1235,16 +1235,16 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
         <v>15000</v>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44253</v>
+        <v>44165</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1315,16 +1315,16 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
         <v>14000</v>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>933</v>
+        <v>778</v>
       </c>
       <c r="T12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44253</v>
+        <v>44274</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,11 +1400,11 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N13" t="n">
         <v>12000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44232</v>
+        <v>44274</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O14" t="n">
         <v>14000</v>
       </c>
       <c r="P14" t="n">
-        <v>13444</v>
+        <v>14000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>896</v>
+        <v>933</v>
       </c>
       <c r="T14" t="n">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44239</v>
+        <v>44274</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1555,25 +1555,25 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>400</v>
+        <v>130</v>
       </c>
       <c r="N15" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O15" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P15" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44239</v>
+        <v>44263</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1635,25 +1635,25 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N16" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O16" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P16" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44239</v>
+        <v>44263</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1727,13 +1727,13 @@
         <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O17" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P17" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T17" t="n">
         <v>15</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44243</v>
+        <v>44263</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1795,25 +1795,25 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N18" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O18" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P18" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44243</v>
+        <v>44196</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1875,29 +1875,29 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N19" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O19" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P19" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44243</v>
+        <v>44196</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,20 +1964,20 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O20" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P20" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>533</v>
+        <v>867</v>
       </c>
       <c r="T20" t="n">
         <v>15</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44230</v>
+        <v>44193</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="N21" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O21" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P21" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44230</v>
+        <v>44193</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2115,29 +2115,29 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Redtop</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="N22" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O22" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P22" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T22" t="n">
         <v>15</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44230</v>
+        <v>44193</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -2195,16 +2195,16 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Redtop</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N23" t="n">
         <v>12000</v>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44230</v>
+        <v>44187</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,20 +2284,20 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N24" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O24" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P24" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T24" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44265</v>
+        <v>44187</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2364,20 +2364,20 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N25" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O25" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P25" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T25" t="n">
         <v>15</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44265</v>
+        <v>44187</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
@@ -2435,29 +2435,29 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="N26" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O26" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P26" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>733</v>
+        <v>1067</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2524,20 +2524,20 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N27" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O27" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P27" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>556</v>
+        <v>933</v>
       </c>
       <c r="T27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44187</v>
+        <v>44258</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="N28" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O28" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P28" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T28" t="n">
         <v>15</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44187</v>
+        <v>44258</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
@@ -2675,25 +2675,25 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="N29" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O29" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P29" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1067</v>
+        <v>867</v>
       </c>
       <c r="T29" t="n">
         <v>15</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44187</v>
+        <v>44258</v>
       </c>
       <c r="E30" t="n">
         <v>7</v>
@@ -2755,16 +2755,16 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N30" t="n">
         <v>14000</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44267</v>
+        <v>44258</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
@@ -2840,24 +2840,24 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N31" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O31" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P31" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44174</v>
+        <v>44160</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
@@ -2920,11 +2920,11 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N32" t="n">
         <v>15000</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44174</v>
+        <v>44160</v>
       </c>
       <c r="E33" t="n">
         <v>7</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N33" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O33" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P33" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44263</v>
+        <v>44160</v>
       </c>
       <c r="E34" t="n">
         <v>7</v>
@@ -3075,29 +3075,29 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N34" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O34" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P34" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T34" t="n">
         <v>15</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44263</v>
+        <v>44253</v>
       </c>
       <c r="E35" t="n">
         <v>7</v>
@@ -3155,25 +3155,25 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N35" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O35" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P35" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44263</v>
+        <v>44253</v>
       </c>
       <c r="E36" t="n">
         <v>7</v>
@@ -3235,25 +3235,25 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="N36" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O36" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P36" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>533</v>
+        <v>1000</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44271</v>
+        <v>44253</v>
       </c>
       <c r="E37" t="n">
         <v>7</v>
@@ -3315,16 +3315,16 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N37" t="n">
         <v>14000</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44258</v>
+        <v>44253</v>
       </c>
       <c r="E38" t="n">
         <v>7</v>
@@ -3395,29 +3395,29 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="N38" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O38" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P38" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44258</v>
+        <v>44243</v>
       </c>
       <c r="E39" t="n">
         <v>7</v>
@@ -3480,24 +3480,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="N39" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O39" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P39" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44258</v>
+        <v>44243</v>
       </c>
       <c r="E40" t="n">
         <v>7</v>
@@ -3555,29 +3555,29 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N40" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O40" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P40" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44258</v>
+        <v>44243</v>
       </c>
       <c r="E41" t="n">
         <v>7</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3644,20 +3644,20 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N41" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O41" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P41" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T41" t="n">
         <v>15</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44200</v>
+        <v>44179</v>
       </c>
       <c r="E42" t="n">
         <v>7</v>
@@ -3715,29 +3715,29 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N42" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O42" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P42" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T42" t="n">
         <v>15</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44203</v>
+        <v>44179</v>
       </c>
       <c r="E43" t="n">
         <v>7</v>
@@ -3795,29 +3795,29 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N43" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O43" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P43" t="n">
-        <v>12556</v>
+        <v>10000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>837</v>
+        <v>667</v>
       </c>
       <c r="T43" t="n">
         <v>15</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44203</v>
+        <v>44215</v>
       </c>
       <c r="E44" t="n">
         <v>7</v>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3884,20 +3884,20 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="N44" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O44" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P44" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T44" t="n">
         <v>15</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44203</v>
+        <v>44215</v>
       </c>
       <c r="E45" t="n">
         <v>7</v>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3964,20 +3964,20 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N45" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O45" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P45" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T45" t="n">
         <v>15</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44193</v>
+        <v>44215</v>
       </c>
       <c r="E46" t="n">
         <v>7</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="N46" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O46" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P46" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T46" t="n">
         <v>15</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44193</v>
+        <v>44215</v>
       </c>
       <c r="E47" t="n">
         <v>7</v>
@@ -4115,29 +4115,29 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Redtop</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N47" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O47" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P47" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44193</v>
+        <v>44188</v>
       </c>
       <c r="E48" t="n">
         <v>7</v>
@@ -4195,25 +4195,25 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Redtop</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="N48" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O48" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P48" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44225</v>
+        <v>44188</v>
       </c>
       <c r="E49" t="n">
         <v>7</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4284,20 +4284,20 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N49" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O49" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P49" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44225</v>
+        <v>44188</v>
       </c>
       <c r="E50" t="n">
         <v>7</v>
@@ -4355,29 +4355,29 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="N50" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O50" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P50" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44225</v>
+        <v>44221</v>
       </c>
       <c r="E51" t="n">
         <v>7</v>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="N51" t="n">
         <v>14000</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44225</v>
+        <v>44221</v>
       </c>
       <c r="E52" t="n">
         <v>7</v>
@@ -4515,25 +4515,25 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="N52" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O52" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P52" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44231</v>
+        <v>44267</v>
       </c>
       <c r="E53" t="n">
         <v>7</v>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="N53" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O53" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P53" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="E54" t="n">
         <v>7</v>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4684,20 +4684,20 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="N54" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O54" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P54" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T54" t="n">
         <v>15</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="E55" t="n">
         <v>7</v>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="N55" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O55" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P55" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T55" t="n">
         <v>15</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="E56" t="n">
         <v>7</v>
@@ -4840,24 +4840,24 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N56" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O56" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P56" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T56" t="n">
         <v>15</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="E57" t="n">
         <v>7</v>
@@ -4915,25 +4915,25 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="N57" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O57" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P57" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T57" t="n">
         <v>15</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44249</v>
+        <v>44224</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
@@ -4995,29 +4995,29 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N58" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O58" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P58" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -5026,10 +5026,10 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>938</v>
+        <v>867</v>
       </c>
       <c r="T58" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44257</v>
+        <v>44224</v>
       </c>
       <c r="E59" t="n">
         <v>7</v>
@@ -5075,29 +5075,29 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="N59" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O59" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P59" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T59" t="n">
         <v>15</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44257</v>
+        <v>44224</v>
       </c>
       <c r="E60" t="n">
         <v>7</v>
@@ -5155,29 +5155,29 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N60" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O60" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P60" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44252</v>
+        <v>44224</v>
       </c>
       <c r="E61" t="n">
         <v>7</v>
@@ -5235,25 +5235,25 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N61" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O61" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P61" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T61" t="n">
         <v>15</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44252</v>
+        <v>44224</v>
       </c>
       <c r="E62" t="n">
         <v>7</v>
@@ -5315,12 +5315,12 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M62" t="n">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44252</v>
+        <v>44286</v>
       </c>
       <c r="E63" t="n">
         <v>7</v>
@@ -5400,7 +5400,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M63" t="n">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44252</v>
+        <v>44286</v>
       </c>
       <c r="E64" t="n">
         <v>7</v>
@@ -5480,24 +5480,24 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N64" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O64" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P64" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44252</v>
+        <v>44186</v>
       </c>
       <c r="E65" t="n">
         <v>7</v>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5567,17 +5567,17 @@
         <v>200</v>
       </c>
       <c r="N65" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O65" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P65" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T65" t="n">
         <v>15</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44237</v>
+        <v>44186</v>
       </c>
       <c r="E66" t="n">
         <v>7</v>
@@ -5635,29 +5635,29 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N66" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O66" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P66" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T66" t="n">
         <v>15</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44237</v>
+        <v>44250</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
@@ -5715,29 +5715,29 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N67" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O67" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P67" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T67" t="n">
         <v>15</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44237</v>
+        <v>44250</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
@@ -5800,24 +5800,24 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N68" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O68" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P68" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T68" t="n">
         <v>15</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44237</v>
+        <v>44218</v>
       </c>
       <c r="E69" t="n">
         <v>7</v>
@@ -5875,16 +5875,16 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N69" t="n">
         <v>14000</v>
@@ -5897,12 +5897,12 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S69" t="n">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44237</v>
+        <v>44218</v>
       </c>
       <c r="E70" t="n">
         <v>7</v>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5967,26 +5967,26 @@
         <v>200</v>
       </c>
       <c r="N70" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O70" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P70" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S70" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T70" t="n">
         <v>15</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44223</v>
+        <v>44218</v>
       </c>
       <c r="E71" t="n">
         <v>7</v>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -6044,20 +6044,20 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N71" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O71" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P71" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T71" t="n">
         <v>15</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44223</v>
+        <v>44218</v>
       </c>
       <c r="E72" t="n">
         <v>7</v>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -6124,20 +6124,20 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N72" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O72" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P72" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T72" t="n">
         <v>15</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44223</v>
+        <v>44203</v>
       </c>
       <c r="E73" t="n">
         <v>7</v>
@@ -6195,25 +6195,25 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>40</v>
+        <v>360</v>
       </c>
       <c r="N73" t="n">
         <v>12000</v>
       </c>
       <c r="O73" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P73" t="n">
-        <v>12000</v>
+        <v>12556</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>800</v>
+        <v>837</v>
       </c>
       <c r="T73" t="n">
         <v>15</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44223</v>
+        <v>44203</v>
       </c>
       <c r="E74" t="n">
         <v>7</v>
@@ -6275,29 +6275,29 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="N74" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O74" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P74" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T74" t="n">
         <v>15</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44209</v>
+        <v>44203</v>
       </c>
       <c r="E75" t="n">
         <v>7</v>
@@ -6355,16 +6355,16 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N75" t="n">
         <v>13000</v>
@@ -6377,7 +6377,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44209</v>
+        <v>44217</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>80</v>
+        <v>520</v>
       </c>
       <c r="N76" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O76" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P76" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T76" t="n">
         <v>15</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44209</v>
+        <v>44217</v>
       </c>
       <c r="E77" t="n">
         <v>7</v>
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N77" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O77" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P77" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T77" t="n">
         <v>15</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44165</v>
+        <v>44235</v>
       </c>
       <c r="E78" t="n">
         <v>7</v>
@@ -6595,29 +6595,29 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N78" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O78" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P78" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -6626,10 +6626,10 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T78" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44165</v>
+        <v>44235</v>
       </c>
       <c r="E79" t="n">
         <v>7</v>
@@ -6675,29 +6675,29 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N79" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O79" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P79" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -6706,10 +6706,10 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>778</v>
+        <v>867</v>
       </c>
       <c r="T79" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44167</v>
+        <v>44235</v>
       </c>
       <c r="E80" t="n">
         <v>7</v>
@@ -6755,29 +6755,29 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N80" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O80" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P80" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T80" t="n">
         <v>15</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44167</v>
+        <v>44200</v>
       </c>
       <c r="E81" t="n">
         <v>7</v>
@@ -6835,29 +6835,29 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N81" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O81" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P81" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T81" t="n">
         <v>15</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44224</v>
+        <v>44162</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -6915,29 +6915,29 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="N82" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O82" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P82" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>867</v>
+        <v>833</v>
       </c>
       <c r="T82" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44224</v>
+        <v>44162</v>
       </c>
       <c r="E83" t="n">
         <v>7</v>
@@ -6995,29 +6995,29 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N83" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O83" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P83" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -7026,10 +7026,10 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>733</v>
+        <v>778</v>
       </c>
       <c r="T83" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44224</v>
+        <v>44244</v>
       </c>
       <c r="E84" t="n">
         <v>7</v>
@@ -7087,13 +7087,13 @@
         <v>300</v>
       </c>
       <c r="N84" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O84" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P84" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T84" t="n">
         <v>15</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44224</v>
+        <v>44244</v>
       </c>
       <c r="E85" t="n">
         <v>7</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N85" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O85" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P85" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T85" t="n">
         <v>15</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44224</v>
+        <v>44244</v>
       </c>
       <c r="E86" t="n">
         <v>7</v>
@@ -7235,25 +7235,25 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N86" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O86" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P86" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T86" t="n">
         <v>15</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44235</v>
+        <v>44244</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
@@ -7315,16 +7315,16 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N87" t="n">
         <v>12000</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44235</v>
+        <v>44244</v>
       </c>
       <c r="E88" t="n">
         <v>7</v>
@@ -7395,25 +7395,25 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N88" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O88" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P88" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>867</v>
+        <v>533</v>
       </c>
       <c r="T88" t="n">
         <v>15</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44235</v>
+        <v>44202</v>
       </c>
       <c r="E89" t="n">
         <v>7</v>
@@ -7475,29 +7475,29 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="N89" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O89" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P89" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T89" t="n">
         <v>15</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44251</v>
+        <v>44202</v>
       </c>
       <c r="E90" t="n">
         <v>7</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="N90" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O90" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P90" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T90" t="n">
         <v>15</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
@@ -7635,29 +7635,29 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M91" t="n">
         <v>160</v>
       </c>
       <c r="N91" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O91" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P91" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T91" t="n">
         <v>15</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="E92" t="n">
         <v>7</v>
@@ -7724,7 +7724,7 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="N92" t="n">
         <v>13000</v>
@@ -7737,7 +7737,7 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="E93" t="n">
         <v>7</v>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="N93" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O93" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P93" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T93" t="n">
         <v>15</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44176</v>
+        <v>44252</v>
       </c>
       <c r="E94" t="n">
         <v>7</v>
@@ -7875,25 +7875,25 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="N94" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O94" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P94" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T94" t="n">
         <v>15</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44176</v>
+        <v>44252</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -7964,20 +7964,20 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N95" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O95" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P95" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T95" t="n">
         <v>15</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44245</v>
+        <v>44214</v>
       </c>
       <c r="E96" t="n">
         <v>7</v>
@@ -8035,7 +8035,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -8044,20 +8044,20 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N96" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O96" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P96" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T96" t="n">
         <v>15</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44245</v>
+        <v>44214</v>
       </c>
       <c r="E97" t="n">
         <v>7</v>
@@ -8115,29 +8115,29 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N97" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O97" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P97" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T97" t="n">
         <v>15</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44245</v>
+        <v>44167</v>
       </c>
       <c r="E98" t="n">
         <v>7</v>
@@ -8195,29 +8195,29 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N98" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O98" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P98" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>533</v>
+        <v>1000</v>
       </c>
       <c r="T98" t="n">
         <v>15</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E99" t="n">
         <v>7</v>
@@ -8275,29 +8275,29 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N99" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O99" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P99" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T99" t="n">
         <v>15</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44210</v>
+        <v>44174</v>
       </c>
       <c r="E100" t="n">
         <v>7</v>
@@ -8355,29 +8355,29 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="N100" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O100" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P100" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T100" t="n">
         <v>15</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44210</v>
+        <v>44174</v>
       </c>
       <c r="E101" t="n">
         <v>7</v>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -8444,20 +8444,20 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N101" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O101" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P101" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T101" t="n">
         <v>15</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
@@ -8515,7 +8515,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -8527,17 +8527,17 @@
         <v>300</v>
       </c>
       <c r="N102" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O102" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P102" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T102" t="n">
         <v>15</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44161</v>
+        <v>44211</v>
       </c>
       <c r="E103" t="n">
         <v>7</v>
@@ -8595,7 +8595,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -8604,20 +8604,20 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="N103" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O103" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P103" t="n">
-        <v>15194</v>
+        <v>12000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>1013</v>
+        <v>800</v>
       </c>
       <c r="T103" t="n">
         <v>15</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44161</v>
+        <v>44211</v>
       </c>
       <c r="E104" t="n">
         <v>7</v>
@@ -8675,16 +8675,16 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N104" t="n">
         <v>14000</v>
@@ -8697,7 +8697,7 @@
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44161</v>
+        <v>44211</v>
       </c>
       <c r="E105" t="n">
         <v>7</v>
@@ -8755,7 +8755,7 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -8764,20 +8764,20 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N105" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O105" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P105" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -8786,10 +8786,10 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>889</v>
+        <v>667</v>
       </c>
       <c r="T105" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106">
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44214</v>
+        <v>44211</v>
       </c>
       <c r="E106" t="n">
         <v>7</v>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -8844,16 +8844,16 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>260</v>
+        <v>140</v>
       </c>
       <c r="N106" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O106" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P106" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T106" t="n">
         <v>15</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44214</v>
+        <v>44211</v>
       </c>
       <c r="E107" t="n">
         <v>7</v>
@@ -8915,7 +8915,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -8924,16 +8924,16 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N107" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O107" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P107" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T107" t="n">
         <v>15</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44162</v>
+        <v>44204</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
@@ -8995,16 +8995,16 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="N108" t="n">
         <v>15000</v>
@@ -9017,7 +9017,7 @@
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
@@ -9026,10 +9026,10 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T108" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109">
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44162</v>
+        <v>44204</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
@@ -9075,29 +9075,29 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="N109" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O109" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P109" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
@@ -9106,10 +9106,10 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T109" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110">
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44194</v>
+        <v>44260</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
@@ -9155,7 +9155,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -9164,16 +9164,16 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N110" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O110" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P110" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T110" t="n">
         <v>15</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44194</v>
+        <v>44260</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
@@ -9235,29 +9235,29 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Redtop</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N111" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O111" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P111" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T111" t="n">
         <v>15</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44284</v>
+        <v>44189</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
@@ -9315,29 +9315,29 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N112" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O112" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P112" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
@@ -9346,10 +9346,10 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>1000</v>
+        <v>611</v>
       </c>
       <c r="T112" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113">
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44238</v>
+        <v>44189</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -9395,29 +9395,29 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="N113" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O113" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P113" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
@@ -9426,10 +9426,10 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>733</v>
+        <v>500</v>
       </c>
       <c r="T113" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114">
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44238</v>
+        <v>44189</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -9475,29 +9475,29 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="N114" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O114" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P114" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
@@ -9506,10 +9506,10 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>867</v>
+        <v>833</v>
       </c>
       <c r="T114" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115">
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44238</v>
+        <v>44189</v>
       </c>
       <c r="E115" t="n">
         <v>7</v>
@@ -9555,7 +9555,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -9564,20 +9564,20 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N115" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O115" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P115" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -9586,10 +9586,10 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>600</v>
+        <v>778</v>
       </c>
       <c r="T115" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44202</v>
+        <v>44265</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -9635,7 +9635,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -9644,20 +9644,20 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N116" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O116" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P116" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T116" t="n">
         <v>15</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44202</v>
+        <v>44265</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
@@ -9715,7 +9715,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -9724,20 +9724,20 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N117" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O117" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P117" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T117" t="n">
         <v>15</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44169</v>
+        <v>44209</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -9795,41 +9795,41 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="N118" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O118" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P118" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S118" t="n">
-        <v>833</v>
+        <v>867</v>
       </c>
       <c r="T118" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119">
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44188</v>
+        <v>44209</v>
       </c>
       <c r="E119" t="n">
         <v>7</v>
@@ -9875,29 +9875,29 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="N119" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O119" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P119" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T119" t="n">
         <v>15</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44188</v>
+        <v>44209</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
@@ -9955,29 +9955,29 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="N120" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O120" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P120" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T120" t="n">
         <v>15</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44188</v>
+        <v>44237</v>
       </c>
       <c r="E121" t="n">
         <v>7</v>
@@ -10035,29 +10035,29 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="N121" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O121" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P121" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T121" t="n">
         <v>15</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44160</v>
+        <v>44237</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -10115,29 +10115,29 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N122" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O122" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P122" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T122" t="n">
         <v>15</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44160</v>
+        <v>44237</v>
       </c>
       <c r="E123" t="n">
         <v>7</v>
@@ -10195,16 +10195,16 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N123" t="n">
         <v>12000</v>
@@ -10217,7 +10217,7 @@
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44160</v>
+        <v>44237</v>
       </c>
       <c r="E124" t="n">
         <v>7</v>
@@ -10275,29 +10275,29 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N124" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O124" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P124" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T124" t="n">
         <v>15</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44274</v>
+        <v>44237</v>
       </c>
       <c r="E125" t="n">
         <v>7</v>
@@ -10355,25 +10355,25 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N125" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O125" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P125" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T125" t="n">
         <v>15</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44274</v>
+        <v>44245</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
@@ -10435,29 +10435,29 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N126" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O126" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P126" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T126" t="n">
         <v>15</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44274</v>
+        <v>44245</v>
       </c>
       <c r="E127" t="n">
         <v>7</v>
@@ -10515,29 +10515,29 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="N127" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O127" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P127" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T127" t="n">
         <v>15</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44216</v>
+        <v>44245</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
@@ -10595,29 +10595,29 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N128" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O128" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P128" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>867</v>
+        <v>533</v>
       </c>
       <c r="T128" t="n">
         <v>15</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44216</v>
+        <v>44229</v>
       </c>
       <c r="E129" t="n">
         <v>7</v>
@@ -10675,25 +10675,25 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N129" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O129" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P129" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T129" t="n">
         <v>15</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44216</v>
+        <v>44229</v>
       </c>
       <c r="E130" t="n">
         <v>7</v>
@@ -10760,11 +10760,11 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="N130" t="n">
         <v>14000</v>
@@ -10782,7 +10782,7 @@
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S130" t="n">
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44216</v>
+        <v>44249</v>
       </c>
       <c r="E131" t="n">
         <v>7</v>
@@ -10835,41 +10835,41 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="N131" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O131" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P131" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S131" t="n">
-        <v>867</v>
+        <v>938</v>
       </c>
       <c r="T131" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132">
@@ -10915,25 +10915,25 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="N132" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O132" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P132" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10942,11 +10942,11 @@
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S132" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T132" t="n">
         <v>15</v>
@@ -10995,7 +10995,7 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -11004,7 +11004,7 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N133" t="n">
         <v>11000</v>
@@ -11017,12 +11017,12 @@
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S133" t="n">
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44222</v>
+        <v>44216</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
@@ -11084,16 +11084,16 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N134" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O134" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P134" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11102,11 +11102,11 @@
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S134" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T134" t="n">
         <v>15</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44189</v>
+        <v>44216</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -11155,41 +11155,41 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N135" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O135" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P135" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S135" t="n">
-        <v>611</v>
+        <v>867</v>
       </c>
       <c r="T135" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136">
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44189</v>
+        <v>44216</v>
       </c>
       <c r="E136" t="n">
         <v>7</v>
@@ -11235,41 +11235,41 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M136" t="n">
         <v>60</v>
       </c>
       <c r="N136" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O136" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P136" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S136" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T136" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137">
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44189</v>
+        <v>44216</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -11315,41 +11315,41 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N137" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O137" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P137" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S137" t="n">
-        <v>833</v>
+        <v>733</v>
       </c>
       <c r="T137" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138">
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44189</v>
+        <v>44257</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -11395,16 +11395,16 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N138" t="n">
         <v>14000</v>
@@ -11417,7 +11417,7 @@
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -11426,10 +11426,10 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>778</v>
+        <v>933</v>
       </c>
       <c r="T138" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139">
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44172</v>
+        <v>44257</v>
       </c>
       <c r="E139" t="n">
         <v>7</v>
@@ -11475,25 +11475,25 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N139" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O139" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P139" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T139" t="n">
         <v>15</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44172</v>
+        <v>44169</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -11564,32 +11564,32 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N140" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O140" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P140" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S140" t="n">
-        <v>867</v>
+        <v>833</v>
       </c>
       <c r="T140" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141">
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="E141" t="n">
         <v>7</v>
@@ -11644,20 +11644,20 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N141" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O141" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P141" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1000</v>
+        <v>1133</v>
       </c>
       <c r="T141" t="n">
         <v>15</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44196</v>
+        <v>44172</v>
       </c>
       <c r="E142" t="n">
         <v>7</v>
@@ -11715,25 +11715,25 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N142" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O142" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P142" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T142" t="n">
         <v>15</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44208</v>
+        <v>44172</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -11795,7 +11795,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -11804,16 +11804,16 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N143" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O143" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P143" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T143" t="n">
         <v>15</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44229</v>
+        <v>44242</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -11884,16 +11884,16 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N144" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O144" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P144" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T144" t="n">
         <v>15</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44229</v>
+        <v>44242</v>
       </c>
       <c r="E145" t="n">
         <v>7</v>
@@ -11964,16 +11964,16 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="N145" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O145" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P145" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T145" t="n">
         <v>15</v>
@@ -12040,20 +12040,20 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N146" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O146" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P146" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="T146" t="n">
         <v>15</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44242</v>
+        <v>44239</v>
       </c>
       <c r="E147" t="n">
         <v>7</v>
@@ -12115,25 +12115,25 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N147" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O147" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P147" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T147" t="n">
         <v>15</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44242</v>
+        <v>44239</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -12195,25 +12195,25 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N148" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O148" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P148" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T148" t="n">
         <v>15</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44201</v>
+        <v>44239</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
@@ -12275,25 +12275,25 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N149" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O149" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P149" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T149" t="n">
         <v>15</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44201</v>
+        <v>44222</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
@@ -12355,29 +12355,29 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N150" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O150" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P150" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>1067</v>
+        <v>867</v>
       </c>
       <c r="T150" t="n">
         <v>15</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44204</v>
+        <v>44210</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -12444,16 +12444,16 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N151" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O151" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P151" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T151" t="n">
         <v>15</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44204</v>
+        <v>44210</v>
       </c>
       <c r="E152" t="n">
         <v>7</v>
@@ -12520,20 +12520,20 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="N152" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O152" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P152" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T152" t="n">
         <v>15</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44218</v>
+        <v>44210</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
@@ -12600,33 +12600,33 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N153" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O153" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P153" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S153" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T153" t="n">
         <v>15</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44218</v>
+        <v>44210</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
@@ -12675,7 +12675,7 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -12684,29 +12684,29 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N154" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O154" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P154" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S154" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T154" t="n">
         <v>15</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44218</v>
+        <v>44176</v>
       </c>
       <c r="E155" t="n">
         <v>7</v>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -12764,16 +12764,16 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N155" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O155" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P155" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T155" t="n">
         <v>15</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44218</v>
+        <v>44176</v>
       </c>
       <c r="E156" t="n">
         <v>7</v>
@@ -12835,7 +12835,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -12844,16 +12844,16 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N156" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O156" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P156" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T156" t="n">
         <v>15</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44221</v>
+        <v>44284</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -12915,7 +12915,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -12924,16 +12924,16 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N157" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O157" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P157" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T157" t="n">
         <v>15</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44221</v>
+        <v>44246</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
@@ -12995,25 +12995,25 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N158" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O158" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P158" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T158" t="n">
         <v>15</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44211</v>
+        <v>44246</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
@@ -13075,16 +13075,16 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N159" t="n">
         <v>12000</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44211</v>
+        <v>44246</v>
       </c>
       <c r="E160" t="n">
         <v>7</v>
@@ -13155,25 +13155,25 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N160" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O160" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P160" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>933</v>
+        <v>533</v>
       </c>
       <c r="T160" t="n">
         <v>15</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44211</v>
+        <v>44246</v>
       </c>
       <c r="E161" t="n">
         <v>7</v>
@@ -13235,16 +13235,16 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N161" t="n">
         <v>10000</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44211</v>
+        <v>44246</v>
       </c>
       <c r="E162" t="n">
         <v>7</v>
@@ -13315,25 +13315,25 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="N162" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O162" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P162" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T162" t="n">
         <v>15</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44211</v>
+        <v>44246</v>
       </c>
       <c r="E163" t="n">
         <v>7</v>
@@ -13395,7 +13395,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -13404,16 +13404,16 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N163" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O163" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P163" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>867</v>
+        <v>533</v>
       </c>
       <c r="T163" t="n">
         <v>15</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44215</v>
+        <v>44225</v>
       </c>
       <c r="E164" t="n">
         <v>7</v>
@@ -13484,16 +13484,16 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N164" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O164" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P164" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T164" t="n">
         <v>15</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44215</v>
+        <v>44225</v>
       </c>
       <c r="E165" t="n">
         <v>7</v>
@@ -13564,16 +13564,16 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N165" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O165" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P165" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T165" t="n">
         <v>15</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44215</v>
+        <v>44225</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -13644,16 +13644,16 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="N166" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O166" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P166" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T166" t="n">
         <v>15</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44215</v>
+        <v>44225</v>
       </c>
       <c r="E167" t="n">
         <v>7</v>
@@ -13724,7 +13724,7 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N167" t="n">
         <v>12000</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44186</v>
+        <v>44232</v>
       </c>
       <c r="E168" t="n">
         <v>7</v>
@@ -13795,29 +13795,29 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="N168" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O168" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P168" t="n">
-        <v>12000</v>
+        <v>13444</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R168" t="inlineStr">
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>800</v>
+        <v>896</v>
       </c>
       <c r="T168" t="n">
         <v>15</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44186</v>
+        <v>44161</v>
       </c>
       <c r="E169" t="n">
         <v>7</v>
@@ -13875,29 +13875,29 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="N169" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O169" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P169" t="n">
-        <v>12000</v>
+        <v>15194</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R169" t="inlineStr">
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>800</v>
+        <v>1013</v>
       </c>
       <c r="T169" t="n">
         <v>15</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44246</v>
+        <v>44161</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
@@ -13955,29 +13955,29 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M170" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N170" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O170" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P170" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R170" t="inlineStr">
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T170" t="n">
         <v>15</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44246</v>
+        <v>44161</v>
       </c>
       <c r="E171" t="n">
         <v>7</v>
@@ -14035,29 +14035,29 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M171" t="n">
         <v>300</v>
       </c>
       <c r="N171" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O171" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P171" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R171" t="inlineStr">
@@ -14066,10 +14066,10 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T171" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172">
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44246</v>
+        <v>44517</v>
       </c>
       <c r="E172" t="n">
         <v>7</v>
@@ -14115,41 +14115,41 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N172" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O172" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P172" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S172" t="n">
-        <v>533</v>
+        <v>1000</v>
       </c>
       <c r="T172" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173">
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44246</v>
+        <v>44238</v>
       </c>
       <c r="E173" t="n">
         <v>7</v>
@@ -14195,7 +14195,7 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
@@ -14204,16 +14204,16 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N173" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O173" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P173" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T173" t="n">
         <v>15</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44246</v>
+        <v>44238</v>
       </c>
       <c r="E174" t="n">
         <v>7</v>
@@ -14275,7 +14275,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -14284,16 +14284,16 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N174" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O174" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P174" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T174" t="n">
         <v>15</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44246</v>
+        <v>44238</v>
       </c>
       <c r="E175" t="n">
         <v>7</v>
@@ -14355,7 +14355,7 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -14367,13 +14367,13 @@
         <v>200</v>
       </c>
       <c r="N175" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O175" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P175" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="T175" t="n">
         <v>15</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44286</v>
+        <v>44236</v>
       </c>
       <c r="E176" t="n">
         <v>7</v>
@@ -14444,16 +14444,16 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N176" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O176" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P176" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T176" t="n">
         <v>15</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44286</v>
+        <v>44236</v>
       </c>
       <c r="E177" t="n">
         <v>7</v>
@@ -14520,11 +14520,11 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N177" t="n">
         <v>13000</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44181</v>
+        <v>44236</v>
       </c>
       <c r="E178" t="n">
         <v>7</v>
@@ -14595,7 +14595,7 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
@@ -14604,16 +14604,16 @@
         </is>
       </c>
       <c r="M178" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N178" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O178" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P178" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T178" t="n">
         <v>15</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
@@ -14675,29 +14675,29 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="N179" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O179" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P179" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T179" t="n">
         <v>15</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44217</v>
+        <v>44251</v>
       </c>
       <c r="E180" t="n">
         <v>7</v>
@@ -14760,24 +14760,24 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="N180" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O180" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P180" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R180" t="inlineStr">
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T180" t="n">
         <v>15</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44217</v>
+        <v>44251</v>
       </c>
       <c r="E181" t="n">
         <v>7</v>
@@ -14835,25 +14835,25 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="N181" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O181" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P181" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T181" t="n">
         <v>15</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44244</v>
+        <v>44251</v>
       </c>
       <c r="E182" t="n">
         <v>7</v>
@@ -14915,25 +14915,25 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N182" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O182" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P182" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T182" t="n">
         <v>15</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44244</v>
+        <v>44181</v>
       </c>
       <c r="E183" t="n">
         <v>7</v>
@@ -14995,16 +14995,16 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M183" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N183" t="n">
         <v>12000</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44244</v>
+        <v>44181</v>
       </c>
       <c r="E184" t="n">
         <v>7</v>
@@ -15075,16 +15075,16 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N184" t="n">
         <v>10000</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44244</v>
+        <v>44194</v>
       </c>
       <c r="E185" t="n">
         <v>7</v>
@@ -15155,25 +15155,25 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N185" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O185" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P185" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T185" t="n">
         <v>15</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44244</v>
+        <v>44194</v>
       </c>
       <c r="E186" t="n">
         <v>7</v>
@@ -15235,29 +15235,29 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Redtop</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M186" t="n">
         <v>200</v>
       </c>
       <c r="N186" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O186" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P186" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>533</v>
+        <v>933</v>
       </c>
       <c r="T186" t="n">
         <v>15</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44179</v>
+        <v>44271</v>
       </c>
       <c r="E187" t="n">
         <v>7</v>
@@ -15315,29 +15315,29 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N187" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O187" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P187" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R187" t="inlineStr">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T187" t="n">
         <v>15</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44179</v>
+        <v>44201</v>
       </c>
       <c r="E188" t="n">
         <v>7</v>
@@ -15395,40 +15395,120 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N188" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O188" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P188" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S188" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T188" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>5</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D189" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E189" t="n">
+        <v>7</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>30</v>
+      </c>
+      <c r="N189" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O189" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P189" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
           <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
-      <c r="R188" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S188" t="n">
-        <v>667</v>
-      </c>
-      <c r="T188" t="n">
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S189" t="n">
+        <v>1067</v>
+      </c>
+      <c r="T189" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T189"/>
+  <dimension ref="A1:T191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44250</v>
+        <v>44519</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
@@ -5715,41 +5715,41 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N67" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O67" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P67" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>933</v>
+        <v>1300</v>
       </c>
       <c r="T67" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44250</v>
+        <v>44519</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
@@ -5795,41 +5795,41 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N68" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O68" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P68" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S68" t="n">
         <v>1000</v>
       </c>
       <c r="T68" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44218</v>
+        <v>44250</v>
       </c>
       <c r="E69" t="n">
         <v>7</v>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N69" t="n">
         <v>14000</v>
@@ -5897,12 +5897,12 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S69" t="n">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44218</v>
+        <v>44250</v>
       </c>
       <c r="E70" t="n">
         <v>7</v>
@@ -5955,38 +5955,38 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M70" t="n">
         <v>200</v>
       </c>
       <c r="N70" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O70" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P70" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S70" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T70" t="n">
         <v>15</v>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N71" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O71" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P71" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6062,11 +6062,11 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T71" t="n">
         <v>15</v>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -6124,16 +6124,16 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N72" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O72" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P72" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6142,11 +6142,11 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T72" t="n">
         <v>15</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44203</v>
+        <v>44218</v>
       </c>
       <c r="E73" t="n">
         <v>7</v>
@@ -6195,29 +6195,29 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="N73" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O73" t="n">
         <v>13000</v>
       </c>
       <c r="P73" t="n">
-        <v>12556</v>
+        <v>13000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>837</v>
+        <v>867</v>
       </c>
       <c r="T73" t="n">
         <v>15</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44203</v>
+        <v>44218</v>
       </c>
       <c r="E74" t="n">
         <v>7</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N74" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O74" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P74" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T74" t="n">
         <v>15</v>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -6364,20 +6364,20 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="N75" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O75" t="n">
         <v>13000</v>
       </c>
       <c r="P75" t="n">
-        <v>13000</v>
+        <v>12556</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>867</v>
+        <v>837</v>
       </c>
       <c r="T75" t="n">
         <v>15</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44217</v>
+        <v>44203</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -6444,20 +6444,20 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>520</v>
+        <v>110</v>
       </c>
       <c r="N76" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O76" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P76" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T76" t="n">
         <v>15</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44217</v>
+        <v>44203</v>
       </c>
       <c r="E77" t="n">
         <v>7</v>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6524,20 +6524,20 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N77" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O77" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P77" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T77" t="n">
         <v>15</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44235</v>
+        <v>44217</v>
       </c>
       <c r="E78" t="n">
         <v>7</v>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6604,7 +6604,7 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>200</v>
+        <v>520</v>
       </c>
       <c r="N78" t="n">
         <v>12000</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44235</v>
+        <v>44217</v>
       </c>
       <c r="E79" t="n">
         <v>7</v>
@@ -6675,25 +6675,25 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N79" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O79" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P79" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T79" t="n">
         <v>15</v>
@@ -6755,25 +6755,25 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N80" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O80" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P80" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T80" t="n">
         <v>15</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44200</v>
+        <v>44235</v>
       </c>
       <c r="E81" t="n">
         <v>7</v>
@@ -6835,25 +6835,25 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N81" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O81" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P81" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T81" t="n">
         <v>15</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44162</v>
+        <v>44235</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -6915,29 +6915,29 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="N82" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O82" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P82" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>833</v>
+        <v>867</v>
       </c>
       <c r="T82" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83">
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44162</v>
+        <v>44200</v>
       </c>
       <c r="E83" t="n">
         <v>7</v>
@@ -6995,29 +6995,29 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N83" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O83" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P83" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -7026,10 +7026,10 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T83" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44244</v>
+        <v>44162</v>
       </c>
       <c r="E84" t="n">
         <v>7</v>
@@ -7075,29 +7075,29 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N84" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O84" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P84" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -7106,10 +7106,10 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="T84" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44244</v>
+        <v>44162</v>
       </c>
       <c r="E85" t="n">
         <v>7</v>
@@ -7155,29 +7155,29 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N85" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O85" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P85" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T85" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
@@ -7235,7 +7235,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -7315,7 +7315,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N88" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O88" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P88" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T88" t="n">
         <v>15</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44202</v>
+        <v>44244</v>
       </c>
       <c r="E89" t="n">
         <v>7</v>
@@ -7475,29 +7475,29 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N89" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O89" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P89" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T89" t="n">
         <v>15</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44202</v>
+        <v>44244</v>
       </c>
       <c r="E90" t="n">
         <v>7</v>
@@ -7555,7 +7555,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -7564,20 +7564,20 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N90" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O90" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P90" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>867</v>
+        <v>533</v>
       </c>
       <c r="T90" t="n">
         <v>15</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44252</v>
+        <v>44202</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -7644,20 +7644,20 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="N91" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O91" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P91" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T91" t="n">
         <v>15</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44252</v>
+        <v>44202</v>
       </c>
       <c r="E92" t="n">
         <v>7</v>
@@ -7715,16 +7715,16 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N92" t="n">
         <v>13000</v>
@@ -7800,20 +7800,20 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N93" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O93" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P93" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T93" t="n">
         <v>15</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N94" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O94" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P94" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T94" t="n">
         <v>15</v>
@@ -7960,20 +7960,20 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N95" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O95" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P95" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T95" t="n">
         <v>15</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44214</v>
+        <v>44252</v>
       </c>
       <c r="E96" t="n">
         <v>7</v>
@@ -8035,29 +8035,29 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="N96" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O96" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P96" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T96" t="n">
         <v>15</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44214</v>
+        <v>44252</v>
       </c>
       <c r="E97" t="n">
         <v>7</v>
@@ -8115,7 +8115,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44167</v>
+        <v>44214</v>
       </c>
       <c r="E98" t="n">
         <v>7</v>
@@ -8195,7 +8195,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -8204,20 +8204,20 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="N98" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O98" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P98" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T98" t="n">
         <v>15</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44167</v>
+        <v>44214</v>
       </c>
       <c r="E99" t="n">
         <v>7</v>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -8284,20 +8284,20 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N99" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O99" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P99" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T99" t="n">
         <v>15</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44174</v>
+        <v>44167</v>
       </c>
       <c r="E100" t="n">
         <v>7</v>
@@ -8364,7 +8364,7 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>140</v>
+        <v>400</v>
       </c>
       <c r="N100" t="n">
         <v>15000</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44174</v>
+        <v>44167</v>
       </c>
       <c r="E101" t="n">
         <v>7</v>
@@ -8444,16 +8444,16 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N101" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O101" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P101" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T101" t="n">
         <v>15</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44208</v>
+        <v>44174</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
@@ -8515,25 +8515,25 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="N102" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O102" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P102" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T102" t="n">
         <v>15</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44211</v>
+        <v>44174</v>
       </c>
       <c r="E103" t="n">
         <v>7</v>
@@ -8595,29 +8595,29 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M103" t="n">
         <v>100</v>
       </c>
       <c r="N103" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O103" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P103" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T103" t="n">
         <v>15</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44211</v>
+        <v>44208</v>
       </c>
       <c r="E104" t="n">
         <v>7</v>
@@ -8680,11 +8680,11 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N104" t="n">
         <v>14000</v>
@@ -8697,7 +8697,7 @@
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -8760,20 +8760,20 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N105" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O105" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P105" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T105" t="n">
         <v>15</v>
@@ -8835,25 +8835,25 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N106" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O106" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P106" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T106" t="n">
         <v>15</v>
@@ -8915,7 +8915,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -8927,13 +8927,13 @@
         <v>80</v>
       </c>
       <c r="N107" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O107" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P107" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T107" t="n">
         <v>15</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44204</v>
+        <v>44211</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
@@ -8995,7 +8995,7 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -9004,7 +9004,7 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="N108" t="n">
         <v>15000</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44204</v>
+        <v>44211</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
@@ -9075,7 +9075,7 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -9084,16 +9084,16 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="N109" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O109" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P109" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T109" t="n">
         <v>15</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44260</v>
+        <v>44204</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
@@ -9155,7 +9155,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -9164,16 +9164,16 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N110" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O110" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P110" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T110" t="n">
         <v>15</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44260</v>
+        <v>44204</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
@@ -9235,25 +9235,25 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="N111" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O111" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P111" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T111" t="n">
         <v>15</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44189</v>
+        <v>44260</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
@@ -9315,29 +9315,29 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N112" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O112" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P112" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
@@ -9346,10 +9346,10 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>611</v>
+        <v>933</v>
       </c>
       <c r="T112" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113">
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44189</v>
+        <v>44260</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -9395,29 +9395,29 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="N113" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O113" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P113" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
@@ -9426,10 +9426,10 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T113" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114">
@@ -9475,25 +9475,25 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N114" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O114" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P114" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>833</v>
+        <v>611</v>
       </c>
       <c r="T114" t="n">
         <v>18</v>
@@ -9555,25 +9555,25 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N115" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O115" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P115" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="T115" t="n">
         <v>18</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44265</v>
+        <v>44189</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -9635,7 +9635,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -9644,20 +9644,20 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N116" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O116" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P116" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -9666,10 +9666,10 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T116" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117">
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44265</v>
+        <v>44189</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
@@ -9715,7 +9715,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -9724,20 +9724,20 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N117" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O117" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P117" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
@@ -9746,10 +9746,10 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>733</v>
+        <v>778</v>
       </c>
       <c r="T117" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118">
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44209</v>
+        <v>44265</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -9795,7 +9795,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -9804,16 +9804,16 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N118" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O118" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P118" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T118" t="n">
         <v>15</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44209</v>
+        <v>44265</v>
       </c>
       <c r="E119" t="n">
         <v>7</v>
@@ -9875,25 +9875,25 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N119" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O119" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P119" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T119" t="n">
         <v>15</v>
@@ -9960,20 +9960,20 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N120" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O120" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P120" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T120" t="n">
         <v>15</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44237</v>
+        <v>44209</v>
       </c>
       <c r="E121" t="n">
         <v>7</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="N121" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O121" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P121" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T121" t="n">
         <v>15</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44237</v>
+        <v>44209</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -10120,20 +10120,20 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N122" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O122" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P122" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T122" t="n">
         <v>15</v>
@@ -10195,7 +10195,7 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -10207,13 +10207,13 @@
         <v>400</v>
       </c>
       <c r="N123" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O123" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P123" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T123" t="n">
         <v>15</v>
@@ -10275,7 +10275,7 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
@@ -10287,13 +10287,13 @@
         <v>300</v>
       </c>
       <c r="N124" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O124" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P124" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T124" t="n">
         <v>15</v>
@@ -10360,20 +10360,20 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N125" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O125" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P125" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T125" t="n">
         <v>15</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44245</v>
+        <v>44237</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
@@ -10440,24 +10440,24 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M126" t="n">
         <v>300</v>
       </c>
       <c r="N126" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O126" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P126" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T126" t="n">
         <v>15</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44245</v>
+        <v>44237</v>
       </c>
       <c r="E127" t="n">
         <v>7</v>
@@ -10520,24 +10520,24 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N127" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O127" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P127" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T127" t="n">
         <v>15</v>
@@ -10600,20 +10600,20 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N128" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O128" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P128" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T128" t="n">
         <v>15</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44229</v>
+        <v>44245</v>
       </c>
       <c r="E129" t="n">
         <v>7</v>
@@ -10675,16 +10675,16 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N129" t="n">
         <v>12000</v>
@@ -10697,7 +10697,7 @@
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44229</v>
+        <v>44245</v>
       </c>
       <c r="E130" t="n">
         <v>7</v>
@@ -10755,29 +10755,29 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="N130" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O130" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P130" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>933</v>
+        <v>533</v>
       </c>
       <c r="T130" t="n">
         <v>15</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44249</v>
+        <v>44229</v>
       </c>
       <c r="E131" t="n">
         <v>7</v>
@@ -10835,29 +10835,29 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N131" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O131" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P131" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
@@ -10866,10 +10866,10 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>938</v>
+        <v>800</v>
       </c>
       <c r="T131" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132">
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44216</v>
+        <v>44229</v>
       </c>
       <c r="E132" t="n">
         <v>7</v>
@@ -10915,25 +10915,25 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="N132" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O132" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P132" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T132" t="n">
         <v>15</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44216</v>
+        <v>44249</v>
       </c>
       <c r="E133" t="n">
         <v>7</v>
@@ -10995,29 +10995,29 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N133" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O133" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P133" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -11026,10 +11026,10 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>733</v>
+        <v>938</v>
       </c>
       <c r="T133" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134">
@@ -11075,7 +11075,7 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -11084,16 +11084,16 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N134" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O134" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P134" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11102,11 +11102,11 @@
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S134" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T134" t="n">
         <v>15</v>
@@ -11155,38 +11155,38 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N135" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O135" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P135" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S135" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T135" t="n">
         <v>15</v>
@@ -11240,20 +11240,20 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N136" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O136" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P136" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T136" t="n">
         <v>15</v>
@@ -11320,20 +11320,20 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N137" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O137" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P137" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T137" t="n">
         <v>15</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44257</v>
+        <v>44216</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -11395,38 +11395,38 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N138" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O138" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P138" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S138" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T138" t="n">
         <v>15</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44257</v>
+        <v>44216</v>
       </c>
       <c r="E139" t="n">
         <v>7</v>
@@ -11475,25 +11475,25 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="N139" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O139" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P139" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11502,11 +11502,11 @@
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S139" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T139" t="n">
         <v>15</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44169</v>
+        <v>44257</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -11555,41 +11555,41 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M140" t="n">
         <v>180</v>
       </c>
       <c r="N140" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O140" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P140" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S140" t="n">
-        <v>833</v>
+        <v>933</v>
       </c>
       <c r="T140" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141">
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44195</v>
+        <v>44257</v>
       </c>
       <c r="E141" t="n">
         <v>7</v>
@@ -11635,29 +11635,29 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N141" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O141" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P141" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1133</v>
+        <v>1000</v>
       </c>
       <c r="T141" t="n">
         <v>15</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44172</v>
+        <v>44169</v>
       </c>
       <c r="E142" t="n">
         <v>7</v>
@@ -11720,36 +11720,36 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N142" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O142" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P142" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S142" t="n">
-        <v>933</v>
+        <v>833</v>
       </c>
       <c r="T142" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143">
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -11795,29 +11795,29 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N143" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O143" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P143" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>867</v>
+        <v>1133</v>
       </c>
       <c r="T143" t="n">
         <v>15</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -11875,7 +11875,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -11884,20 +11884,20 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N144" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O144" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P144" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T144" t="n">
         <v>15</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E145" t="n">
         <v>7</v>
@@ -11955,16 +11955,16 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N145" t="n">
         <v>13000</v>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
@@ -12040,20 +12040,20 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N146" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O146" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P146" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="T146" t="n">
         <v>15</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E147" t="n">
         <v>7</v>
@@ -12115,25 +12115,25 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N147" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O147" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P147" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T147" t="n">
         <v>15</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -12195,25 +12195,25 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N148" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O148" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P148" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T148" t="n">
         <v>15</v>
@@ -12280,20 +12280,20 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N149" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O149" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P149" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="T149" t="n">
         <v>15</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
@@ -12355,16 +12355,16 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N150" t="n">
         <v>13000</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44210</v>
+        <v>44239</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -12435,25 +12435,25 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N151" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O151" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P151" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T151" t="n">
         <v>15</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E152" t="n">
         <v>7</v>
@@ -12520,20 +12520,20 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N152" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O152" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P152" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T152" t="n">
         <v>15</v>
@@ -12600,20 +12600,20 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N153" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O153" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P153" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T153" t="n">
         <v>15</v>
@@ -12675,25 +12675,25 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N154" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O154" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P154" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T154" t="n">
         <v>15</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E155" t="n">
         <v>7</v>
@@ -12755,29 +12755,29 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N155" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O155" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P155" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R155" t="inlineStr">
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T155" t="n">
         <v>15</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E156" t="n">
         <v>7</v>
@@ -12835,7 +12835,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -12844,20 +12844,20 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N156" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O156" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P156" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R156" t="inlineStr">
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T156" t="n">
         <v>15</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44284</v>
+        <v>44176</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -12915,7 +12915,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -12924,20 +12924,20 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N157" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O157" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P157" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R157" t="inlineStr">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T157" t="n">
         <v>15</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44246</v>
+        <v>44176</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
@@ -12995,29 +12995,29 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N158" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O158" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P158" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R158" t="inlineStr">
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T158" t="n">
         <v>15</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44246</v>
+        <v>44284</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
@@ -13080,20 +13080,20 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N159" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O159" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P159" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T159" t="n">
         <v>15</v>
@@ -13160,20 +13160,20 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N160" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O160" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P160" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T160" t="n">
         <v>15</v>
@@ -13235,25 +13235,25 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M161" t="n">
         <v>300</v>
       </c>
       <c r="N161" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O161" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P161" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T161" t="n">
         <v>15</v>
@@ -13315,25 +13315,25 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N162" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O162" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P162" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T162" t="n">
         <v>15</v>
@@ -13400,20 +13400,20 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N163" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O163" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P163" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T163" t="n">
         <v>15</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44225</v>
+        <v>44246</v>
       </c>
       <c r="E164" t="n">
         <v>7</v>
@@ -13475,16 +13475,16 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N164" t="n">
         <v>12000</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44225</v>
+        <v>44246</v>
       </c>
       <c r="E165" t="n">
         <v>7</v>
@@ -13555,7 +13555,7 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
@@ -13564,16 +13564,16 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N165" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O165" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P165" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T165" t="n">
         <v>15</v>
@@ -13635,7 +13635,7 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
@@ -13644,16 +13644,16 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="N166" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O166" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P166" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T166" t="n">
         <v>15</v>
@@ -13715,7 +13715,7 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
@@ -13724,16 +13724,16 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="N167" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O167" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P167" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T167" t="n">
         <v>15</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E168" t="n">
         <v>7</v>
@@ -13795,25 +13795,25 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>450</v>
+        <v>170</v>
       </c>
       <c r="N168" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O168" t="n">
         <v>14000</v>
       </c>
       <c r="P168" t="n">
-        <v>13444</v>
+        <v>14000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>896</v>
+        <v>933</v>
       </c>
       <c r="T168" t="n">
         <v>15</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44161</v>
+        <v>44225</v>
       </c>
       <c r="E169" t="n">
         <v>7</v>
@@ -13875,29 +13875,29 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="N169" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O169" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P169" t="n">
-        <v>15194</v>
+        <v>12000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R169" t="inlineStr">
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>1013</v>
+        <v>800</v>
       </c>
       <c r="T169" t="n">
         <v>15</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
@@ -13955,29 +13955,29 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M170" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="N170" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O170" t="n">
         <v>14000</v>
       </c>
       <c r="P170" t="n">
-        <v>14000</v>
+        <v>13444</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R170" t="inlineStr">
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>933</v>
+        <v>896</v>
       </c>
       <c r="T170" t="n">
         <v>15</v>
@@ -14040,24 +14040,24 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="N171" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O171" t="n">
         <v>16000</v>
       </c>
       <c r="P171" t="n">
-        <v>16000</v>
+        <v>15194</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R171" t="inlineStr">
@@ -14066,10 +14066,10 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>889</v>
+        <v>1013</v>
       </c>
       <c r="T171" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="172">
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E172" t="n">
         <v>7</v>
@@ -14120,36 +14120,36 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N172" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O172" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P172" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S172" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T172" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173">
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E173" t="n">
         <v>7</v>
@@ -14195,29 +14195,29 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N173" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O173" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P173" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R173" t="inlineStr">
@@ -14226,10 +14226,10 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>733</v>
+        <v>889</v>
       </c>
       <c r="T173" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174">
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E174" t="n">
         <v>7</v>
@@ -14275,41 +14275,41 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N174" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O174" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P174" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S174" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T174" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175">
@@ -14360,20 +14360,20 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N175" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O175" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P175" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="T175" t="n">
         <v>15</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E176" t="n">
         <v>7</v>
@@ -14440,20 +14440,20 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N176" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O176" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P176" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T176" t="n">
         <v>15</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E177" t="n">
         <v>7</v>
@@ -14520,20 +14520,20 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N177" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O177" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P177" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T177" t="n">
         <v>15</v>
@@ -14600,20 +14600,20 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N178" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O178" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P178" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="T178" t="n">
         <v>15</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
@@ -14675,29 +14675,29 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N179" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O179" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P179" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T179" t="n">
         <v>15</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E180" t="n">
         <v>7</v>
@@ -14755,29 +14755,29 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N180" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O180" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P180" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R180" t="inlineStr">
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T180" t="n">
         <v>15</v>
@@ -14835,7 +14835,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -14844,20 +14844,20 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="N181" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O181" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P181" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T181" t="n">
         <v>15</v>
@@ -14915,7 +14915,7 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
@@ -14924,20 +14924,20 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="N182" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O182" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P182" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T182" t="n">
         <v>15</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E183" t="n">
         <v>7</v>
@@ -14995,25 +14995,25 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M183" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="N183" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O183" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P183" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T183" t="n">
         <v>15</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E184" t="n">
         <v>7</v>
@@ -15075,25 +15075,25 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="N184" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O184" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P184" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T184" t="n">
         <v>15</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E185" t="n">
         <v>7</v>
@@ -15155,25 +15155,25 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N185" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O185" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P185" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T185" t="n">
         <v>15</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E186" t="n">
         <v>7</v>
@@ -15235,29 +15235,29 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Redtop</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N186" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O186" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P186" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T186" t="n">
         <v>15</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E187" t="n">
         <v>7</v>
@@ -15315,25 +15315,25 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N187" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O187" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P187" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T187" t="n">
         <v>15</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44201</v>
+        <v>44194</v>
       </c>
       <c r="E188" t="n">
         <v>7</v>
@@ -15395,7 +15395,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Redtop</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -15404,20 +15404,20 @@
         </is>
       </c>
       <c r="M188" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N188" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O188" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P188" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R188" t="inlineStr">
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T188" t="n">
         <v>15</v>
@@ -15447,68 +15447,228 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
+        <v>44271</v>
+      </c>
+      <c r="E189" t="n">
+        <v>7</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>120</v>
+      </c>
+      <c r="N189" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O189" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P189" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S189" t="n">
+        <v>933</v>
+      </c>
+      <c r="T189" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>5</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="n">
         <v>44201</v>
       </c>
-      <c r="E189" t="n">
-        <v>7</v>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G189" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I189" t="n">
-        <v>100103004</v>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>Durazno</t>
-        </is>
-      </c>
-      <c r="K189" t="inlineStr">
+      <c r="E190" t="n">
+        <v>7</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>Carson</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>300</v>
+      </c>
+      <c r="N190" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O190" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P190" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S190" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T190" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>5</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D191" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E191" t="n">
+        <v>7</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
         <is>
           <t>Kurakata</t>
         </is>
       </c>
-      <c r="L189" t="inlineStr">
+      <c r="L191" t="inlineStr">
         <is>
           <t>Extra (doble especial)</t>
         </is>
       </c>
-      <c r="M189" t="n">
+      <c r="M191" t="n">
         <v>30</v>
       </c>
-      <c r="N189" t="n">
+      <c r="N191" t="n">
         <v>16000</v>
       </c>
-      <c r="O189" t="n">
+      <c r="O191" t="n">
         <v>16000</v>
       </c>
-      <c r="P189" t="n">
+      <c r="P191" t="n">
         <v>16000</v>
       </c>
-      <c r="Q189" t="inlineStr">
+      <c r="Q191" t="inlineStr">
         <is>
           <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
-      <c r="R189" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S189" t="n">
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S191" t="n">
         <v>1067</v>
       </c>
-      <c r="T189" t="n">
+      <c r="T191" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T191"/>
+  <dimension ref="A1:T192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44216</v>
+        <v>44523</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
@@ -11075,7 +11075,7 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -11084,20 +11084,20 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="N134" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O134" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P134" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>867</v>
+        <v>1333</v>
       </c>
       <c r="T134" t="n">
         <v>15</v>
@@ -11160,20 +11160,20 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N135" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O135" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P135" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T135" t="n">
         <v>15</v>
@@ -11235,25 +11235,25 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N136" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O136" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P136" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11262,11 +11262,11 @@
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S136" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T136" t="n">
         <v>15</v>
@@ -11324,20 +11324,20 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="N137" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O137" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P137" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T137" t="n">
         <v>15</v>
@@ -11400,24 +11400,24 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N138" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O138" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P138" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T138" t="n">
         <v>15</v>
@@ -11484,20 +11484,20 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N139" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O139" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P139" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T139" t="n">
         <v>15</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44257</v>
+        <v>44216</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -11555,25 +11555,25 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="N140" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O140" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P140" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11582,11 +11582,11 @@
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S140" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T140" t="n">
         <v>15</v>
@@ -11640,20 +11640,20 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N141" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O141" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P141" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T141" t="n">
         <v>15</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44169</v>
+        <v>44257</v>
       </c>
       <c r="E142" t="n">
         <v>7</v>
@@ -11715,41 +11715,41 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="N142" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O142" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P142" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S142" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T142" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143">
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -11795,41 +11795,41 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N143" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O143" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P143" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S143" t="n">
-        <v>1133</v>
+        <v>833</v>
       </c>
       <c r="T143" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144">
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -11875,7 +11875,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -11887,17 +11887,17 @@
         <v>80</v>
       </c>
       <c r="N144" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O144" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P144" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>933</v>
+        <v>1133</v>
       </c>
       <c r="T144" t="n">
         <v>15</v>
@@ -11960,20 +11960,20 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N145" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O145" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P145" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T145" t="n">
         <v>15</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E146" t="n">
         <v>7</v>
@@ -12035,29 +12035,29 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N146" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O146" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P146" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T146" t="n">
         <v>15</v>
@@ -12120,20 +12120,20 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M147" t="n">
         <v>300</v>
       </c>
       <c r="N147" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O147" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P147" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T147" t="n">
         <v>15</v>
@@ -12200,20 +12200,20 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N148" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O148" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P148" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T148" t="n">
         <v>15</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
@@ -12275,25 +12275,25 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N149" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O149" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P149" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="T149" t="n">
         <v>15</v>
@@ -12360,20 +12360,20 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M150" t="n">
         <v>400</v>
       </c>
       <c r="N150" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O150" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P150" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T150" t="n">
         <v>15</v>
@@ -12440,20 +12440,20 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N151" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O151" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P151" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T151" t="n">
         <v>15</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E152" t="n">
         <v>7</v>
@@ -12515,25 +12515,25 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N152" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O152" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P152" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T152" t="n">
         <v>15</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
@@ -12604,16 +12604,16 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N153" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O153" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P153" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T153" t="n">
         <v>15</v>
@@ -12680,20 +12680,20 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N154" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O154" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P154" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T154" t="n">
         <v>15</v>
@@ -12760,20 +12760,20 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N155" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O155" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P155" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T155" t="n">
         <v>15</v>
@@ -12835,7 +12835,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -12844,7 +12844,7 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N156" t="n">
         <v>10000</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -12915,29 +12915,29 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N157" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O157" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P157" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R157" t="inlineStr">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T157" t="n">
         <v>15</v>
@@ -13000,20 +13000,20 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M158" t="n">
         <v>50</v>
       </c>
       <c r="N158" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O158" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P158" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T158" t="n">
         <v>15</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44284</v>
+        <v>44176</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
@@ -13075,29 +13075,29 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N159" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O159" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P159" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R159" t="inlineStr">
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T159" t="n">
         <v>15</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44246</v>
+        <v>44284</v>
       </c>
       <c r="E160" t="n">
         <v>7</v>
@@ -13164,16 +13164,16 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N160" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O160" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P160" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T160" t="n">
         <v>15</v>
@@ -13240,20 +13240,20 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M161" t="n">
         <v>300</v>
       </c>
       <c r="N161" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O161" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P161" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T161" t="n">
         <v>15</v>
@@ -13320,20 +13320,20 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N162" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O162" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P162" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="T162" t="n">
         <v>15</v>
@@ -13395,25 +13395,25 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N163" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O163" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P163" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T163" t="n">
         <v>15</v>
@@ -13480,20 +13480,20 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M164" t="n">
         <v>300</v>
       </c>
       <c r="N164" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O164" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P164" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T164" t="n">
         <v>15</v>
@@ -13560,20 +13560,20 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N165" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O165" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P165" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="T165" t="n">
         <v>15</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44225</v>
+        <v>44246</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -13635,25 +13635,25 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N166" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O166" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P166" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T166" t="n">
         <v>15</v>
@@ -13720,20 +13720,20 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N167" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O167" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P167" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T167" t="n">
         <v>15</v>
@@ -13795,25 +13795,25 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="N168" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O168" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P168" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T168" t="n">
         <v>15</v>
@@ -13880,20 +13880,20 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="N169" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O169" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P169" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T169" t="n">
         <v>15</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
@@ -13955,25 +13955,25 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M170" t="n">
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="N170" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O170" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P170" t="n">
-        <v>13444</v>
+        <v>12000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>896</v>
+        <v>800</v>
       </c>
       <c r="T170" t="n">
         <v>15</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E171" t="n">
         <v>7</v>
@@ -14035,29 +14035,29 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>310</v>
+        <v>450</v>
       </c>
       <c r="N171" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O171" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P171" t="n">
-        <v>15194</v>
+        <v>13444</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R171" t="inlineStr">
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>1013</v>
+        <v>896</v>
       </c>
       <c r="T171" t="n">
         <v>15</v>
@@ -14120,20 +14120,20 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="N172" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O172" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P172" t="n">
-        <v>14000</v>
+        <v>15194</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>933</v>
+        <v>1013</v>
       </c>
       <c r="T172" t="n">
         <v>15</v>
@@ -14204,20 +14204,20 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N173" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O173" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P173" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R173" t="inlineStr">
@@ -14226,10 +14226,10 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>889</v>
+        <v>933</v>
       </c>
       <c r="T173" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174">
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E174" t="n">
         <v>7</v>
@@ -14280,36 +14280,36 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N174" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O174" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P174" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S174" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T174" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175">
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E175" t="n">
         <v>7</v>
@@ -14355,41 +14355,41 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N175" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O175" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P175" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S175" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T175" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176">
@@ -14440,20 +14440,20 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M176" t="n">
         <v>400</v>
       </c>
       <c r="N176" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O176" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P176" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T176" t="n">
         <v>15</v>
@@ -14520,20 +14520,20 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N177" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O177" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P177" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T177" t="n">
         <v>15</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E178" t="n">
         <v>7</v>
@@ -14600,20 +14600,20 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N178" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O178" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P178" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="T178" t="n">
         <v>15</v>
@@ -14680,20 +14680,20 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N179" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O179" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P179" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T179" t="n">
         <v>15</v>
@@ -14760,20 +14760,20 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M180" t="n">
         <v>300</v>
       </c>
       <c r="N180" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O180" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P180" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T180" t="n">
         <v>15</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E181" t="n">
         <v>7</v>
@@ -14835,29 +14835,29 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N181" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O181" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P181" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>933</v>
+        <v>600</v>
       </c>
       <c r="T181" t="n">
         <v>15</v>
@@ -14920,20 +14920,20 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="N182" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O182" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P182" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T182" t="n">
         <v>15</v>
@@ -14995,29 +14995,29 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M183" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="N183" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O183" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P183" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R183" t="inlineStr">
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T183" t="n">
         <v>15</v>
@@ -15080,20 +15080,20 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="N184" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O184" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P184" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T184" t="n">
         <v>15</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E185" t="n">
         <v>7</v>
@@ -15155,25 +15155,25 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="N185" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O185" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P185" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T185" t="n">
         <v>15</v>
@@ -15240,20 +15240,20 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N186" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O186" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P186" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T186" t="n">
         <v>15</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E187" t="n">
         <v>7</v>
@@ -15315,25 +15315,25 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N187" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O187" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P187" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T187" t="n">
         <v>15</v>
@@ -15395,7 +15395,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Redtop</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -15404,20 +15404,20 @@
         </is>
       </c>
       <c r="M188" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N188" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O188" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P188" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R188" t="inlineStr">
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T188" t="n">
         <v>15</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E189" t="n">
         <v>7</v>
@@ -15475,16 +15475,16 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Redtop</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N189" t="n">
         <v>14000</v>
@@ -15497,7 +15497,7 @@
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R189" t="inlineStr">
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44201</v>
+        <v>44271</v>
       </c>
       <c r="E190" t="n">
         <v>7</v>
@@ -15555,25 +15555,25 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N190" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O190" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P190" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T190" t="n">
         <v>15</v>
@@ -15635,40 +15635,120 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
+          <t>Carson</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>300</v>
+      </c>
+      <c r="N191" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O191" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P191" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S191" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T191" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>5</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E192" t="n">
+        <v>7</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
           <t>Kurakata</t>
         </is>
       </c>
-      <c r="L191" t="inlineStr">
+      <c r="L192" t="inlineStr">
         <is>
           <t>Extra (doble especial)</t>
         </is>
       </c>
-      <c r="M191" t="n">
+      <c r="M192" t="n">
         <v>30</v>
       </c>
-      <c r="N191" t="n">
+      <c r="N192" t="n">
         <v>16000</v>
       </c>
-      <c r="O191" t="n">
+      <c r="O192" t="n">
         <v>16000</v>
       </c>
-      <c r="P191" t="n">
+      <c r="P192" t="n">
         <v>16000</v>
       </c>
-      <c r="Q191" t="inlineStr">
+      <c r="Q192" t="inlineStr">
         <is>
           <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
-      <c r="R191" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S191" t="n">
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S192" t="n">
         <v>1067</v>
       </c>
-      <c r="T191" t="n">
+      <c r="T192" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T192"/>
+  <dimension ref="A1:T194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E145" t="n">
         <v>7</v>
@@ -11964,20 +11964,20 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N145" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O145" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P145" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>933</v>
+        <v>1333</v>
       </c>
       <c r="T145" t="n">
         <v>15</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E146" t="n">
         <v>7</v>
@@ -12044,20 +12044,20 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N146" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O146" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P146" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="T146" t="n">
         <v>15</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E147" t="n">
         <v>7</v>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -12124,20 +12124,20 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N147" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O147" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P147" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T147" t="n">
         <v>15</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -12195,16 +12195,16 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N148" t="n">
         <v>13000</v>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
@@ -12280,20 +12280,20 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N149" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O149" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P149" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="T149" t="n">
         <v>15</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
@@ -12355,25 +12355,25 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N150" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O150" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P150" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T150" t="n">
         <v>15</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -12435,25 +12435,25 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N151" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O151" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P151" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T151" t="n">
         <v>15</v>
@@ -12520,20 +12520,20 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N152" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O152" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P152" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="T152" t="n">
         <v>15</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
@@ -12595,16 +12595,16 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N153" t="n">
         <v>13000</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44210</v>
+        <v>44239</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
@@ -12675,25 +12675,25 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N154" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O154" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P154" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T154" t="n">
         <v>15</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E155" t="n">
         <v>7</v>
@@ -12760,20 +12760,20 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N155" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O155" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P155" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T155" t="n">
         <v>15</v>
@@ -12840,20 +12840,20 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N156" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O156" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P156" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T156" t="n">
         <v>15</v>
@@ -12915,25 +12915,25 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N157" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O157" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P157" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T157" t="n">
         <v>15</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
@@ -12995,29 +12995,29 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N158" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O158" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P158" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R158" t="inlineStr">
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T158" t="n">
         <v>15</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
@@ -13075,7 +13075,7 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -13084,20 +13084,20 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N159" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O159" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P159" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R159" t="inlineStr">
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T159" t="n">
         <v>15</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44284</v>
+        <v>44176</v>
       </c>
       <c r="E160" t="n">
         <v>7</v>
@@ -13155,7 +13155,7 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
@@ -13164,20 +13164,20 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N160" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O160" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P160" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R160" t="inlineStr">
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T160" t="n">
         <v>15</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44246</v>
+        <v>44176</v>
       </c>
       <c r="E161" t="n">
         <v>7</v>
@@ -13235,29 +13235,29 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N161" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O161" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P161" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T161" t="n">
         <v>15</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44246</v>
+        <v>44284</v>
       </c>
       <c r="E162" t="n">
         <v>7</v>
@@ -13320,20 +13320,20 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N162" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O162" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P162" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T162" t="n">
         <v>15</v>
@@ -13400,20 +13400,20 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N163" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O163" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P163" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T163" t="n">
         <v>15</v>
@@ -13475,25 +13475,25 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M164" t="n">
         <v>300</v>
       </c>
       <c r="N164" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O164" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P164" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T164" t="n">
         <v>15</v>
@@ -13555,25 +13555,25 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N165" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O165" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P165" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T165" t="n">
         <v>15</v>
@@ -13640,20 +13640,20 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N166" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O166" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P166" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T166" t="n">
         <v>15</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44225</v>
+        <v>44246</v>
       </c>
       <c r="E167" t="n">
         <v>7</v>
@@ -13715,16 +13715,16 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N167" t="n">
         <v>12000</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44225</v>
+        <v>44246</v>
       </c>
       <c r="E168" t="n">
         <v>7</v>
@@ -13795,7 +13795,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -13804,16 +13804,16 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N168" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O168" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P168" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T168" t="n">
         <v>15</v>
@@ -13875,7 +13875,7 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -13884,16 +13884,16 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="N169" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O169" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P169" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T169" t="n">
         <v>15</v>
@@ -13955,7 +13955,7 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -13964,16 +13964,16 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="N170" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O170" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P170" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T170" t="n">
         <v>15</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E171" t="n">
         <v>7</v>
@@ -14035,25 +14035,25 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>450</v>
+        <v>170</v>
       </c>
       <c r="N171" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O171" t="n">
         <v>14000</v>
       </c>
       <c r="P171" t="n">
-        <v>13444</v>
+        <v>14000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>896</v>
+        <v>933</v>
       </c>
       <c r="T171" t="n">
         <v>15</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44161</v>
+        <v>44225</v>
       </c>
       <c r="E172" t="n">
         <v>7</v>
@@ -14115,29 +14115,29 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="N172" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O172" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P172" t="n">
-        <v>15194</v>
+        <v>12000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>1013</v>
+        <v>800</v>
       </c>
       <c r="T172" t="n">
         <v>15</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E173" t="n">
         <v>7</v>
@@ -14195,29 +14195,29 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="N173" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O173" t="n">
         <v>14000</v>
       </c>
       <c r="P173" t="n">
-        <v>14000</v>
+        <v>13444</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R173" t="inlineStr">
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>933</v>
+        <v>896</v>
       </c>
       <c r="T173" t="n">
         <v>15</v>
@@ -14280,24 +14280,24 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="N174" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O174" t="n">
         <v>16000</v>
       </c>
       <c r="P174" t="n">
-        <v>16000</v>
+        <v>15194</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R174" t="inlineStr">
@@ -14306,10 +14306,10 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>889</v>
+        <v>1013</v>
       </c>
       <c r="T174" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="175">
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E175" t="n">
         <v>7</v>
@@ -14360,36 +14360,36 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N175" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O175" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P175" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S175" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T175" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176">
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E176" t="n">
         <v>7</v>
@@ -14435,29 +14435,29 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N176" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O176" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P176" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R176" t="inlineStr">
@@ -14466,10 +14466,10 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>733</v>
+        <v>889</v>
       </c>
       <c r="T176" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177">
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E177" t="n">
         <v>7</v>
@@ -14515,41 +14515,41 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N177" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O177" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P177" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S177" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T177" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178">
@@ -14600,20 +14600,20 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N178" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O178" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P178" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="T178" t="n">
         <v>15</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
@@ -14680,20 +14680,20 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N179" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O179" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P179" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T179" t="n">
         <v>15</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E180" t="n">
         <v>7</v>
@@ -14760,20 +14760,20 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N180" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O180" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P180" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T180" t="n">
         <v>15</v>
@@ -14840,20 +14840,20 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N181" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O181" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P181" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="T181" t="n">
         <v>15</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E182" t="n">
         <v>7</v>
@@ -14915,29 +14915,29 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N182" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O182" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P182" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T182" t="n">
         <v>15</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E183" t="n">
         <v>7</v>
@@ -14995,29 +14995,29 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M183" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N183" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O183" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P183" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R183" t="inlineStr">
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T183" t="n">
         <v>15</v>
@@ -15075,7 +15075,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -15084,20 +15084,20 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="N184" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O184" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P184" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T184" t="n">
         <v>15</v>
@@ -15155,7 +15155,7 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -15164,20 +15164,20 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="N185" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O185" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P185" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R185" t="inlineStr">
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T185" t="n">
         <v>15</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E186" t="n">
         <v>7</v>
@@ -15235,25 +15235,25 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="N186" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O186" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P186" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T186" t="n">
         <v>15</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E187" t="n">
         <v>7</v>
@@ -15315,25 +15315,25 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="N187" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O187" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P187" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T187" t="n">
         <v>15</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E188" t="n">
         <v>7</v>
@@ -15395,25 +15395,25 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N188" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O188" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P188" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T188" t="n">
         <v>15</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E189" t="n">
         <v>7</v>
@@ -15475,29 +15475,29 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>Redtop</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N189" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O189" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P189" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R189" t="inlineStr">
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T189" t="n">
         <v>15</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E190" t="n">
         <v>7</v>
@@ -15555,25 +15555,25 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N190" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O190" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P190" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T190" t="n">
         <v>15</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44201</v>
+        <v>44194</v>
       </c>
       <c r="E191" t="n">
         <v>7</v>
@@ -15635,7 +15635,7 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Redtop</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -15644,20 +15644,20 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N191" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O191" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P191" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R191" t="inlineStr">
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T191" t="n">
         <v>15</v>
@@ -15687,68 +15687,228 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
+        <v>44271</v>
+      </c>
+      <c r="E192" t="n">
+        <v>7</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>120</v>
+      </c>
+      <c r="N192" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O192" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P192" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S192" t="n">
+        <v>933</v>
+      </c>
+      <c r="T192" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>5</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D193" s="2" t="n">
         <v>44201</v>
       </c>
-      <c r="E192" t="n">
-        <v>7</v>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G192" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I192" t="n">
-        <v>100103004</v>
-      </c>
-      <c r="J192" t="inlineStr">
-        <is>
-          <t>Durazno</t>
-        </is>
-      </c>
-      <c r="K192" t="inlineStr">
+      <c r="E193" t="n">
+        <v>7</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>Carson</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>300</v>
+      </c>
+      <c r="N193" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O193" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P193" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S193" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T193" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>5</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E194" t="n">
+        <v>7</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
         <is>
           <t>Kurakata</t>
         </is>
       </c>
-      <c r="L192" t="inlineStr">
+      <c r="L194" t="inlineStr">
         <is>
           <t>Extra (doble especial)</t>
         </is>
       </c>
-      <c r="M192" t="n">
+      <c r="M194" t="n">
         <v>30</v>
       </c>
-      <c r="N192" t="n">
+      <c r="N194" t="n">
         <v>16000</v>
       </c>
-      <c r="O192" t="n">
+      <c r="O194" t="n">
         <v>16000</v>
       </c>
-      <c r="P192" t="n">
+      <c r="P194" t="n">
         <v>16000</v>
       </c>
-      <c r="Q192" t="inlineStr">
+      <c r="Q194" t="inlineStr">
         <is>
           <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
-      <c r="R192" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S192" t="n">
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S194" t="n">
         <v>1067</v>
       </c>
-      <c r="T192" t="n">
+      <c r="T194" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T194"/>
+  <dimension ref="A1:T195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44224</v>
+        <v>44525</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -5004,20 +5004,20 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N58" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O58" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P58" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -5026,10 +5026,10 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>867</v>
+        <v>1250</v>
       </c>
       <c r="T58" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="N59" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O59" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P59" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T59" t="n">
         <v>15</v>
@@ -5155,29 +5155,29 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="N60" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O60" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P60" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N61" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O61" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P61" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T61" t="n">
         <v>15</v>
@@ -5315,25 +5315,25 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N62" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O62" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P62" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44286</v>
+        <v>44224</v>
       </c>
       <c r="E63" t="n">
         <v>7</v>
@@ -5395,25 +5395,25 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N63" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O63" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P63" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N64" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O64" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P64" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44186</v>
+        <v>44286</v>
       </c>
       <c r="E65" t="n">
         <v>7</v>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5564,20 +5564,20 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N65" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O65" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P65" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T65" t="n">
         <v>15</v>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N66" t="n">
         <v>12000</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44519</v>
+        <v>44186</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5724,32 +5724,32 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N67" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O67" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P67" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="T67" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N68" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O68" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P68" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="T68" t="n">
         <v>10</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44250</v>
+        <v>44519</v>
       </c>
       <c r="E69" t="n">
         <v>7</v>
@@ -5875,41 +5875,41 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N69" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O69" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P69" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T69" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N70" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O70" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P70" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T70" t="n">
         <v>15</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44218</v>
+        <v>44250</v>
       </c>
       <c r="E71" t="n">
         <v>7</v>
@@ -6035,38 +6035,38 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N71" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O71" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P71" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T71" t="n">
         <v>15</v>
@@ -6120,20 +6120,20 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N72" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O72" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P72" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T72" t="n">
         <v>15</v>
@@ -6195,25 +6195,25 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N73" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O73" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P73" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6222,11 +6222,11 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S73" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T73" t="n">
         <v>15</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N74" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O74" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P74" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T74" t="n">
         <v>15</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44203</v>
+        <v>44218</v>
       </c>
       <c r="E75" t="n">
         <v>7</v>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -6364,20 +6364,20 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="N75" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O75" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P75" t="n">
-        <v>12556</v>
+        <v>11000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>837</v>
+        <v>733</v>
       </c>
       <c r="T75" t="n">
         <v>15</v>
@@ -6435,29 +6435,29 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>110</v>
+        <v>360</v>
       </c>
       <c r="N76" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O76" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P76" t="n">
-        <v>15000</v>
+        <v>12556</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1000</v>
+        <v>837</v>
       </c>
       <c r="T76" t="n">
         <v>15</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="N77" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O77" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P77" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T77" t="n">
         <v>15</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44217</v>
+        <v>44203</v>
       </c>
       <c r="E78" t="n">
         <v>7</v>
@@ -6595,29 +6595,29 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>520</v>
+        <v>60</v>
       </c>
       <c r="N78" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O78" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P78" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T78" t="n">
         <v>15</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>200</v>
+        <v>520</v>
       </c>
       <c r="N79" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O79" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P79" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T79" t="n">
         <v>15</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44235</v>
+        <v>44217</v>
       </c>
       <c r="E80" t="n">
         <v>7</v>
@@ -6755,25 +6755,25 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M80" t="n">
         <v>200</v>
       </c>
       <c r="N80" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O80" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P80" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T80" t="n">
         <v>15</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N81" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O81" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P81" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T81" t="n">
         <v>15</v>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6924,7 +6924,7 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N82" t="n">
         <v>13000</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44200</v>
+        <v>44235</v>
       </c>
       <c r="E83" t="n">
         <v>7</v>
@@ -6995,25 +6995,25 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N83" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O83" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P83" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T83" t="n">
         <v>15</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44162</v>
+        <v>44200</v>
       </c>
       <c r="E84" t="n">
         <v>7</v>
@@ -7075,16 +7075,16 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N84" t="n">
         <v>15000</v>
@@ -7097,7 +7097,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -7106,10 +7106,10 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T84" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N85" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O85" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P85" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>778</v>
+        <v>833</v>
       </c>
       <c r="T85" t="n">
         <v>18</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44244</v>
+        <v>44162</v>
       </c>
       <c r="E86" t="n">
         <v>7</v>
@@ -7235,29 +7235,29 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N86" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O86" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P86" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -7266,10 +7266,10 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T86" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M87" t="n">
         <v>300</v>
       </c>
       <c r="N87" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O87" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P87" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T87" t="n">
         <v>15</v>
@@ -7395,25 +7395,25 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M88" t="n">
         <v>300</v>
       </c>
       <c r="N88" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O88" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P88" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T88" t="n">
         <v>15</v>
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M89" t="n">
         <v>300</v>
       </c>
       <c r="N89" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O89" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P89" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T89" t="n">
         <v>15</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N90" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O90" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P90" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="T90" t="n">
         <v>15</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44202</v>
+        <v>44244</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
@@ -7635,29 +7635,29 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N91" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O91" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P91" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>1000</v>
+        <v>533</v>
       </c>
       <c r="T91" t="n">
         <v>15</v>
@@ -7720,20 +7720,20 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="N92" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O92" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P92" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T92" t="n">
         <v>15</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44252</v>
+        <v>44202</v>
       </c>
       <c r="E93" t="n">
         <v>7</v>
@@ -7795,16 +7795,16 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N93" t="n">
         <v>13000</v>
@@ -7817,7 +7817,7 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -7884,7 +7884,7 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="N94" t="n">
         <v>13000</v>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
@@ -7960,24 +7960,24 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N95" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O95" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P95" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T95" t="n">
         <v>15</v>
@@ -8044,7 +8044,7 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N96" t="n">
         <v>15000</v>
@@ -8057,7 +8057,7 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -8120,24 +8120,24 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N97" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O97" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P97" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T97" t="n">
         <v>15</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44214</v>
+        <v>44252</v>
       </c>
       <c r="E98" t="n">
         <v>7</v>
@@ -8195,25 +8195,25 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N98" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O98" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P98" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T98" t="n">
         <v>15</v>
@@ -8280,20 +8280,20 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N99" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O99" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P99" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T99" t="n">
         <v>15</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44167</v>
+        <v>44214</v>
       </c>
       <c r="E100" t="n">
         <v>7</v>
@@ -8355,29 +8355,29 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N100" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O100" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P100" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T100" t="n">
         <v>15</v>
@@ -8440,20 +8440,20 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N101" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O101" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P101" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T101" t="n">
         <v>15</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44174</v>
+        <v>44167</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
@@ -8520,20 +8520,20 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="N102" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O102" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P102" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T102" t="n">
         <v>15</v>
@@ -8600,20 +8600,20 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N103" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O103" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P103" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T103" t="n">
         <v>15</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44208</v>
+        <v>44174</v>
       </c>
       <c r="E104" t="n">
         <v>7</v>
@@ -8675,7 +8675,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -8684,16 +8684,16 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N104" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O104" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P104" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T104" t="n">
         <v>15</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44211</v>
+        <v>44208</v>
       </c>
       <c r="E105" t="n">
         <v>7</v>
@@ -8760,24 +8760,24 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N105" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O105" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P105" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T105" t="n">
         <v>15</v>
@@ -8840,20 +8840,20 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N106" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O106" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P106" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T106" t="n">
         <v>15</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N107" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O107" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P107" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T107" t="n">
         <v>15</v>
@@ -8995,25 +8995,25 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="N108" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O108" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P108" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T108" t="n">
         <v>15</v>
@@ -9080,20 +9080,20 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N109" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O109" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P109" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T109" t="n">
         <v>15</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44204</v>
+        <v>44211</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
@@ -9155,25 +9155,25 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="N110" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O110" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P110" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T110" t="n">
         <v>15</v>
@@ -9240,20 +9240,20 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="N111" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O111" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P111" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T111" t="n">
         <v>15</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44260</v>
+        <v>44204</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
@@ -9315,25 +9315,25 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="N112" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O112" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P112" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T112" t="n">
         <v>15</v>
@@ -9400,20 +9400,20 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="N113" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O113" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P113" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T113" t="n">
         <v>15</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44189</v>
+        <v>44260</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -9475,29 +9475,29 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="N114" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O114" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P114" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
@@ -9506,10 +9506,10 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>611</v>
+        <v>1000</v>
       </c>
       <c r="T114" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115">
@@ -9560,20 +9560,20 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N115" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O115" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P115" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T115" t="n">
         <v>18</v>
@@ -9635,25 +9635,25 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N116" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O116" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P116" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>833</v>
+        <v>500</v>
       </c>
       <c r="T116" t="n">
         <v>18</v>
@@ -9720,20 +9720,20 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N117" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O117" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P117" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>778</v>
+        <v>833</v>
       </c>
       <c r="T117" t="n">
         <v>18</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44265</v>
+        <v>44189</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -9795,29 +9795,29 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M118" t="n">
         <v>100</v>
       </c>
       <c r="N118" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O118" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P118" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
@@ -9826,10 +9826,10 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T118" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119">
@@ -9880,20 +9880,20 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N119" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O119" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P119" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T119" t="n">
         <v>15</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44209</v>
+        <v>44265</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
@@ -9955,25 +9955,25 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="N120" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O120" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P120" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T120" t="n">
         <v>15</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N121" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O121" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P121" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T121" t="n">
         <v>15</v>
@@ -10120,20 +10120,20 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N122" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O122" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P122" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T122" t="n">
         <v>15</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44237</v>
+        <v>44209</v>
       </c>
       <c r="E123" t="n">
         <v>7</v>
@@ -10200,11 +10200,11 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="N123" t="n">
         <v>11000</v>
@@ -10280,20 +10280,20 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N124" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O124" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P124" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T124" t="n">
         <v>15</v>
@@ -10355,25 +10355,25 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N125" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O125" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P125" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T125" t="n">
         <v>15</v>
@@ -10440,20 +10440,20 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N126" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O126" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P126" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T126" t="n">
         <v>15</v>
@@ -10520,20 +10520,20 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N127" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O127" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P127" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>600</v>
+        <v>933</v>
       </c>
       <c r="T127" t="n">
         <v>15</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44245</v>
+        <v>44237</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
@@ -10600,24 +10600,24 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N128" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O128" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P128" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T128" t="n">
         <v>15</v>
@@ -10680,20 +10680,20 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M129" t="n">
         <v>300</v>
       </c>
       <c r="N129" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O129" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P129" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T129" t="n">
         <v>15</v>
@@ -10760,20 +10760,20 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N130" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O130" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P130" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="T130" t="n">
         <v>15</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44229</v>
+        <v>44245</v>
       </c>
       <c r="E131" t="n">
         <v>7</v>
@@ -10835,29 +10835,29 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N131" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O131" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P131" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T131" t="n">
         <v>15</v>
@@ -10920,20 +10920,20 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="N132" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O132" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P132" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T132" t="n">
         <v>15</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44249</v>
+        <v>44229</v>
       </c>
       <c r="E133" t="n">
         <v>7</v>
@@ -10995,7 +10995,7 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -11004,20 +11004,20 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="N133" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O133" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P133" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -11026,10 +11026,10 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="T133" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134">
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44523</v>
+        <v>44249</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
@@ -11075,29 +11075,29 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="N134" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O134" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P134" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
@@ -11106,10 +11106,10 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>1333</v>
+        <v>938</v>
       </c>
       <c r="T134" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135">
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44216</v>
+        <v>44523</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -11155,7 +11155,7 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -11164,20 +11164,20 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="N135" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O135" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P135" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>867</v>
+        <v>1333</v>
       </c>
       <c r="T135" t="n">
         <v>15</v>
@@ -11240,20 +11240,20 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N136" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O136" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P136" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T136" t="n">
         <v>15</v>
@@ -11315,25 +11315,25 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N137" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O137" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P137" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11342,11 +11342,11 @@
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S137" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T137" t="n">
         <v>15</v>
@@ -11404,20 +11404,20 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="N138" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O138" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P138" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T138" t="n">
         <v>15</v>
@@ -11480,24 +11480,24 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N139" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O139" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P139" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T139" t="n">
         <v>15</v>
@@ -11564,20 +11564,20 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N140" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O140" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P140" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T140" t="n">
         <v>15</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44257</v>
+        <v>44216</v>
       </c>
       <c r="E141" t="n">
         <v>7</v>
@@ -11635,25 +11635,25 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="N141" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O141" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P141" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11662,11 +11662,11 @@
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S141" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T141" t="n">
         <v>15</v>
@@ -11720,20 +11720,20 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N142" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O142" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P142" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T142" t="n">
         <v>15</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44169</v>
+        <v>44257</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -11795,41 +11795,41 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="N143" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O143" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P143" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S143" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T143" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144">
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -11875,41 +11875,41 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N144" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O144" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P144" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S144" t="n">
-        <v>1133</v>
+        <v>833</v>
       </c>
       <c r="T144" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145">
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44524</v>
+        <v>44195</v>
       </c>
       <c r="E145" t="n">
         <v>7</v>
@@ -11955,7 +11955,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -11964,20 +11964,20 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N145" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O145" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P145" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>1333</v>
+        <v>1133</v>
       </c>
       <c r="T145" t="n">
         <v>15</v>
@@ -12040,20 +12040,20 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N146" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O146" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P146" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>1200</v>
+        <v>1333</v>
       </c>
       <c r="T146" t="n">
         <v>15</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E147" t="n">
         <v>7</v>
@@ -12120,24 +12120,24 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N147" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O147" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P147" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>933</v>
+        <v>1200</v>
       </c>
       <c r="T147" t="n">
         <v>15</v>
@@ -12200,20 +12200,20 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N148" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O148" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P148" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T148" t="n">
         <v>15</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
@@ -12275,29 +12275,29 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N149" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O149" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P149" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T149" t="n">
         <v>15</v>
@@ -12360,20 +12360,20 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M150" t="n">
         <v>300</v>
       </c>
       <c r="N150" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O150" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P150" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T150" t="n">
         <v>15</v>
@@ -12440,20 +12440,20 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N151" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O151" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P151" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T151" t="n">
         <v>15</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E152" t="n">
         <v>7</v>
@@ -12515,25 +12515,25 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N152" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O152" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P152" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="T152" t="n">
         <v>15</v>
@@ -12600,20 +12600,20 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M153" t="n">
         <v>400</v>
       </c>
       <c r="N153" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O153" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P153" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T153" t="n">
         <v>15</v>
@@ -12680,20 +12680,20 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N154" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O154" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P154" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T154" t="n">
         <v>15</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E155" t="n">
         <v>7</v>
@@ -12755,25 +12755,25 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N155" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O155" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P155" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T155" t="n">
         <v>15</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E156" t="n">
         <v>7</v>
@@ -12844,16 +12844,16 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N156" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O156" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P156" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T156" t="n">
         <v>15</v>
@@ -12920,20 +12920,20 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N157" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O157" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P157" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T157" t="n">
         <v>15</v>
@@ -13000,20 +13000,20 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N158" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O158" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P158" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T158" t="n">
         <v>15</v>
@@ -13075,7 +13075,7 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -13084,7 +13084,7 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N159" t="n">
         <v>10000</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E160" t="n">
         <v>7</v>
@@ -13155,29 +13155,29 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N160" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O160" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P160" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R160" t="inlineStr">
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T160" t="n">
         <v>15</v>
@@ -13240,20 +13240,20 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M161" t="n">
         <v>50</v>
       </c>
       <c r="N161" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O161" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P161" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T161" t="n">
         <v>15</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44284</v>
+        <v>44176</v>
       </c>
       <c r="E162" t="n">
         <v>7</v>
@@ -13315,29 +13315,29 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N162" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O162" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P162" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R162" t="inlineStr">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T162" t="n">
         <v>15</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44246</v>
+        <v>44284</v>
       </c>
       <c r="E163" t="n">
         <v>7</v>
@@ -13404,16 +13404,16 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N163" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O163" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P163" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T163" t="n">
         <v>15</v>
@@ -13480,20 +13480,20 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M164" t="n">
         <v>300</v>
       </c>
       <c r="N164" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O164" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P164" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T164" t="n">
         <v>15</v>
@@ -13560,20 +13560,20 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N165" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O165" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P165" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="T165" t="n">
         <v>15</v>
@@ -13635,25 +13635,25 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N166" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O166" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P166" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T166" t="n">
         <v>15</v>
@@ -13720,20 +13720,20 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M167" t="n">
         <v>300</v>
       </c>
       <c r="N167" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O167" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P167" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T167" t="n">
         <v>15</v>
@@ -13800,20 +13800,20 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N168" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O168" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P168" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="T168" t="n">
         <v>15</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44225</v>
+        <v>44246</v>
       </c>
       <c r="E169" t="n">
         <v>7</v>
@@ -13875,25 +13875,25 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N169" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O169" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P169" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T169" t="n">
         <v>15</v>
@@ -13960,20 +13960,20 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M170" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N170" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O170" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P170" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T170" t="n">
         <v>15</v>
@@ -14035,25 +14035,25 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="N171" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O171" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P171" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T171" t="n">
         <v>15</v>
@@ -14120,20 +14120,20 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="N172" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O172" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P172" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T172" t="n">
         <v>15</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E173" t="n">
         <v>7</v>
@@ -14195,25 +14195,25 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="N173" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O173" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P173" t="n">
-        <v>13444</v>
+        <v>12000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>896</v>
+        <v>800</v>
       </c>
       <c r="T173" t="n">
         <v>15</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E174" t="n">
         <v>7</v>
@@ -14275,29 +14275,29 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>310</v>
+        <v>450</v>
       </c>
       <c r="N174" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O174" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P174" t="n">
-        <v>15194</v>
+        <v>13444</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R174" t="inlineStr">
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>1013</v>
+        <v>896</v>
       </c>
       <c r="T174" t="n">
         <v>15</v>
@@ -14360,20 +14360,20 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="N175" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O175" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P175" t="n">
-        <v>14000</v>
+        <v>15194</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>933</v>
+        <v>1013</v>
       </c>
       <c r="T175" t="n">
         <v>15</v>
@@ -14444,20 +14444,20 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N176" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O176" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P176" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R176" t="inlineStr">
@@ -14466,10 +14466,10 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>889</v>
+        <v>933</v>
       </c>
       <c r="T176" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="177">
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E177" t="n">
         <v>7</v>
@@ -14520,36 +14520,36 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N177" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O177" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P177" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S177" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T177" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178">
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E178" t="n">
         <v>7</v>
@@ -14595,41 +14595,41 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N178" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O178" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P178" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S178" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T178" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179">
@@ -14680,20 +14680,20 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M179" t="n">
         <v>400</v>
       </c>
       <c r="N179" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O179" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P179" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T179" t="n">
         <v>15</v>
@@ -14760,20 +14760,20 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N180" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O180" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P180" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T180" t="n">
         <v>15</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E181" t="n">
         <v>7</v>
@@ -14840,20 +14840,20 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N181" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O181" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P181" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="T181" t="n">
         <v>15</v>
@@ -14920,20 +14920,20 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N182" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O182" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P182" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T182" t="n">
         <v>15</v>
@@ -15000,20 +15000,20 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M183" t="n">
         <v>300</v>
       </c>
       <c r="N183" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O183" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P183" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T183" t="n">
         <v>15</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E184" t="n">
         <v>7</v>
@@ -15075,29 +15075,29 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N184" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O184" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P184" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>933</v>
+        <v>600</v>
       </c>
       <c r="T184" t="n">
         <v>15</v>
@@ -15160,20 +15160,20 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="N185" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O185" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P185" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T185" t="n">
         <v>15</v>
@@ -15235,29 +15235,29 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="N186" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O186" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P186" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T186" t="n">
         <v>15</v>
@@ -15320,20 +15320,20 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="N187" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O187" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P187" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T187" t="n">
         <v>15</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E188" t="n">
         <v>7</v>
@@ -15395,25 +15395,25 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="N188" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O188" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P188" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T188" t="n">
         <v>15</v>
@@ -15480,20 +15480,20 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N189" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O189" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P189" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T189" t="n">
         <v>15</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E190" t="n">
         <v>7</v>
@@ -15555,25 +15555,25 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N190" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O190" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P190" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T190" t="n">
         <v>15</v>
@@ -15635,7 +15635,7 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>Redtop</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -15644,20 +15644,20 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N191" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O191" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P191" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R191" t="inlineStr">
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T191" t="n">
         <v>15</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E192" t="n">
         <v>7</v>
@@ -15715,16 +15715,16 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Redtop</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M192" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N192" t="n">
         <v>14000</v>
@@ -15737,7 +15737,7 @@
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R192" t="inlineStr">
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44201</v>
+        <v>44271</v>
       </c>
       <c r="E193" t="n">
         <v>7</v>
@@ -15795,25 +15795,25 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N193" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O193" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P193" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T193" t="n">
         <v>15</v>
@@ -15875,40 +15875,120 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
+          <t>Carson</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>300</v>
+      </c>
+      <c r="N194" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O194" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P194" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S194" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T194" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>5</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D195" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E195" t="n">
+        <v>7</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
           <t>Kurakata</t>
         </is>
       </c>
-      <c r="L194" t="inlineStr">
+      <c r="L195" t="inlineStr">
         <is>
           <t>Extra (doble especial)</t>
         </is>
       </c>
-      <c r="M194" t="n">
+      <c r="M195" t="n">
         <v>30</v>
       </c>
-      <c r="N194" t="n">
+      <c r="N195" t="n">
         <v>16000</v>
       </c>
-      <c r="O194" t="n">
+      <c r="O195" t="n">
         <v>16000</v>
       </c>
-      <c r="P194" t="n">
+      <c r="P195" t="n">
         <v>16000</v>
       </c>
-      <c r="Q194" t="inlineStr">
+      <c r="Q195" t="inlineStr">
         <is>
           <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
-      <c r="R194" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S194" t="n">
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S195" t="n">
         <v>1067</v>
       </c>
-      <c r="T194" t="n">
+      <c r="T195" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T195"/>
+  <dimension ref="A1:T198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44286</v>
+        <v>44526</v>
       </c>
       <c r="E64" t="n">
         <v>7</v>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5484,7 +5484,7 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N64" t="n">
         <v>15000</v>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -5506,10 +5506,10 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T64" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44286</v>
+        <v>44526</v>
       </c>
       <c r="E65" t="n">
         <v>7</v>
@@ -5555,29 +5555,29 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N65" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O65" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P65" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -5586,10 +5586,10 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>867</v>
+        <v>1250</v>
       </c>
       <c r="T65" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44186</v>
+        <v>44526</v>
       </c>
       <c r="E66" t="n">
         <v>7</v>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5644,20 +5644,20 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N66" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O66" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P66" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>800</v>
+        <v>1062</v>
       </c>
       <c r="T66" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44186</v>
+        <v>44286</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
@@ -5715,29 +5715,29 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N67" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O67" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P67" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T67" t="n">
         <v>15</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44519</v>
+        <v>44286</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N68" t="n">
         <v>13000</v>
@@ -5817,19 +5817,19 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1300</v>
+        <v>867</v>
       </c>
       <c r="T68" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44519</v>
+        <v>44186</v>
       </c>
       <c r="E69" t="n">
         <v>7</v>
@@ -5875,41 +5875,41 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N69" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O69" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P69" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T69" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44250</v>
+        <v>44186</v>
       </c>
       <c r="E70" t="n">
         <v>7</v>
@@ -5955,25 +5955,25 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N70" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O70" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P70" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T70" t="n">
         <v>15</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44250</v>
+        <v>44519</v>
       </c>
       <c r="E71" t="n">
         <v>7</v>
@@ -6035,41 +6035,41 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M71" t="n">
         <v>200</v>
       </c>
       <c r="N71" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O71" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P71" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="T71" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44218</v>
+        <v>44519</v>
       </c>
       <c r="E72" t="n">
         <v>7</v>
@@ -6115,41 +6115,41 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M72" t="n">
         <v>180</v>
       </c>
       <c r="N72" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O72" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P72" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T72" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44218</v>
+        <v>44250</v>
       </c>
       <c r="E73" t="n">
         <v>7</v>
@@ -6195,38 +6195,38 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N73" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O73" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P73" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S73" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T73" t="n">
         <v>15</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44218</v>
+        <v>44250</v>
       </c>
       <c r="E74" t="n">
         <v>7</v>
@@ -6275,29 +6275,29 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N74" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O74" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P74" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T74" t="n">
         <v>15</v>
@@ -6355,25 +6355,25 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N75" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O75" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P75" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6382,11 +6382,11 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S75" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T75" t="n">
         <v>15</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44203</v>
+        <v>44218</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
@@ -6444,29 +6444,29 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N76" t="n">
         <v>12000</v>
       </c>
       <c r="O76" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P76" t="n">
-        <v>12556</v>
+        <v>12000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>837</v>
+        <v>800</v>
       </c>
       <c r="T76" t="n">
         <v>15</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44203</v>
+        <v>44218</v>
       </c>
       <c r="E77" t="n">
         <v>7</v>
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="N77" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O77" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P77" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T77" t="n">
         <v>15</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44203</v>
+        <v>44218</v>
       </c>
       <c r="E78" t="n">
         <v>7</v>
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N78" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O78" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P78" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T78" t="n">
         <v>15</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44217</v>
+        <v>44203</v>
       </c>
       <c r="E79" t="n">
         <v>7</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>520</v>
+        <v>360</v>
       </c>
       <c r="N79" t="n">
         <v>12000</v>
       </c>
       <c r="O79" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P79" t="n">
-        <v>12000</v>
+        <v>12556</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>800</v>
+        <v>837</v>
       </c>
       <c r="T79" t="n">
         <v>15</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44217</v>
+        <v>44203</v>
       </c>
       <c r="E80" t="n">
         <v>7</v>
@@ -6755,29 +6755,29 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N80" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O80" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P80" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T80" t="n">
         <v>15</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44235</v>
+        <v>44203</v>
       </c>
       <c r="E81" t="n">
         <v>7</v>
@@ -6835,29 +6835,29 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N81" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O81" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P81" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T81" t="n">
         <v>15</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44235</v>
+        <v>44217</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -6915,25 +6915,25 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>300</v>
+        <v>520</v>
       </c>
       <c r="N82" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O82" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P82" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T82" t="n">
         <v>15</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44235</v>
+        <v>44217</v>
       </c>
       <c r="E83" t="n">
         <v>7</v>
@@ -6995,25 +6995,25 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N83" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O83" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P83" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T83" t="n">
         <v>15</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44200</v>
+        <v>44235</v>
       </c>
       <c r="E84" t="n">
         <v>7</v>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -7084,16 +7084,16 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N84" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O84" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P84" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T84" t="n">
         <v>15</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44162</v>
+        <v>44235</v>
       </c>
       <c r="E85" t="n">
         <v>7</v>
@@ -7155,29 +7155,29 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N85" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O85" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P85" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>833</v>
+        <v>867</v>
       </c>
       <c r="T85" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44162</v>
+        <v>44235</v>
       </c>
       <c r="E86" t="n">
         <v>7</v>
@@ -7235,29 +7235,29 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="N86" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O86" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P86" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -7266,10 +7266,10 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>778</v>
+        <v>867</v>
       </c>
       <c r="T86" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44244</v>
+        <v>44200</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
@@ -7324,16 +7324,16 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N87" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O87" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P87" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T87" t="n">
         <v>15</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44244</v>
+        <v>44162</v>
       </c>
       <c r="E88" t="n">
         <v>7</v>
@@ -7395,29 +7395,29 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N88" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O88" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P88" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -7426,10 +7426,10 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T88" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44244</v>
+        <v>44162</v>
       </c>
       <c r="E89" t="n">
         <v>7</v>
@@ -7475,29 +7475,29 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N89" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O89" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P89" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -7506,10 +7506,10 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T89" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90">
@@ -7555,25 +7555,25 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M90" t="n">
         <v>300</v>
       </c>
       <c r="N90" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O90" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P90" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T90" t="n">
         <v>15</v>
@@ -7635,25 +7635,25 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N91" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O91" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P91" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="T91" t="n">
         <v>15</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44202</v>
+        <v>44244</v>
       </c>
       <c r="E92" t="n">
         <v>7</v>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -7724,20 +7724,20 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N92" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O92" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P92" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T92" t="n">
         <v>15</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44202</v>
+        <v>44244</v>
       </c>
       <c r="E93" t="n">
         <v>7</v>
@@ -7795,29 +7795,29 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N93" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O93" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P93" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T93" t="n">
         <v>15</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44252</v>
+        <v>44244</v>
       </c>
       <c r="E94" t="n">
         <v>7</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N94" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O94" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P94" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>867</v>
+        <v>533</v>
       </c>
       <c r="T94" t="n">
         <v>15</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44252</v>
+        <v>44202</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -7964,16 +7964,16 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N95" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O95" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P95" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T95" t="n">
         <v>15</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44252</v>
+        <v>44202</v>
       </c>
       <c r="E96" t="n">
         <v>7</v>
@@ -8035,29 +8035,29 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N96" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O96" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P96" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T96" t="n">
         <v>15</v>
@@ -8120,24 +8120,24 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="N97" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O97" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P97" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T97" t="n">
         <v>15</v>
@@ -8200,24 +8200,24 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N98" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O98" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P98" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T98" t="n">
         <v>15</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44214</v>
+        <v>44252</v>
       </c>
       <c r="E99" t="n">
         <v>7</v>
@@ -8275,25 +8275,25 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="N99" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O99" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P99" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T99" t="n">
         <v>15</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44214</v>
+        <v>44252</v>
       </c>
       <c r="E100" t="n">
         <v>7</v>
@@ -8355,29 +8355,29 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N100" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O100" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P100" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T100" t="n">
         <v>15</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44167</v>
+        <v>44252</v>
       </c>
       <c r="E101" t="n">
         <v>7</v>
@@ -8435,29 +8435,29 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N101" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O101" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P101" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T101" t="n">
         <v>15</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44167</v>
+        <v>44214</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
@@ -8515,29 +8515,29 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N102" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O102" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P102" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T102" t="n">
         <v>15</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44174</v>
+        <v>44214</v>
       </c>
       <c r="E103" t="n">
         <v>7</v>
@@ -8595,29 +8595,29 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N103" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O103" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P103" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T103" t="n">
         <v>15</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44174</v>
+        <v>44167</v>
       </c>
       <c r="E104" t="n">
         <v>7</v>
@@ -8680,20 +8680,20 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N104" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O104" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P104" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T104" t="n">
         <v>15</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44208</v>
+        <v>44167</v>
       </c>
       <c r="E105" t="n">
         <v>7</v>
@@ -8755,7 +8755,7 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44211</v>
+        <v>44174</v>
       </c>
       <c r="E106" t="n">
         <v>7</v>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -8844,20 +8844,20 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N106" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O106" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P106" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T106" t="n">
         <v>15</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44211</v>
+        <v>44174</v>
       </c>
       <c r="E107" t="n">
         <v>7</v>
@@ -8915,29 +8915,29 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N107" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O107" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P107" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T107" t="n">
         <v>15</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44211</v>
+        <v>44208</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
@@ -9004,20 +9004,20 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N108" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O108" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P108" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T108" t="n">
         <v>15</v>
@@ -9075,7 +9075,7 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -9084,16 +9084,16 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N109" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O109" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P109" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T109" t="n">
         <v>15</v>
@@ -9155,25 +9155,25 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N110" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O110" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P110" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T110" t="n">
         <v>15</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44204</v>
+        <v>44211</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
@@ -9240,20 +9240,20 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="N111" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O111" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P111" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T111" t="n">
         <v>15</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44204</v>
+        <v>44211</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
@@ -9315,25 +9315,25 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="N112" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O112" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P112" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T112" t="n">
         <v>15</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44260</v>
+        <v>44211</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -9395,25 +9395,25 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N113" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O113" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P113" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T113" t="n">
         <v>15</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44260</v>
+        <v>44204</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -9475,16 +9475,16 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N114" t="n">
         <v>15000</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44189</v>
+        <v>44204</v>
       </c>
       <c r="E115" t="n">
         <v>7</v>
@@ -9555,7 +9555,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -9564,20 +9564,20 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="N115" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O115" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P115" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -9586,10 +9586,10 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>611</v>
+        <v>800</v>
       </c>
       <c r="T115" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44189</v>
+        <v>44260</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -9635,29 +9635,29 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N116" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O116" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P116" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -9666,10 +9666,10 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>500</v>
+        <v>933</v>
       </c>
       <c r="T116" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117">
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44189</v>
+        <v>44260</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
@@ -9715,16 +9715,16 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="N117" t="n">
         <v>15000</v>
@@ -9737,7 +9737,7 @@
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
@@ -9746,10 +9746,10 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T117" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118">
@@ -9795,7 +9795,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -9804,16 +9804,16 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N118" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O118" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P118" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>778</v>
+        <v>611</v>
       </c>
       <c r="T118" t="n">
         <v>18</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44265</v>
+        <v>44189</v>
       </c>
       <c r="E119" t="n">
         <v>7</v>
@@ -9875,29 +9875,29 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N119" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O119" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P119" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
@@ -9906,10 +9906,10 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T119" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120">
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44265</v>
+        <v>44189</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
@@ -9955,29 +9955,29 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N120" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O120" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P120" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -9986,10 +9986,10 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>733</v>
+        <v>833</v>
       </c>
       <c r="T120" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121">
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E121" t="n">
         <v>7</v>
@@ -10035,29 +10035,29 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N121" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O121" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P121" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
@@ -10066,10 +10066,10 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>867</v>
+        <v>778</v>
       </c>
       <c r="T121" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122">
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44209</v>
+        <v>44265</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -10115,25 +10115,25 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N122" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O122" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P122" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T122" t="n">
         <v>15</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44209</v>
+        <v>44265</v>
       </c>
       <c r="E123" t="n">
         <v>7</v>
@@ -10195,7 +10195,7 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -10204,7 +10204,7 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N123" t="n">
         <v>11000</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44237</v>
+        <v>44209</v>
       </c>
       <c r="E124" t="n">
         <v>7</v>
@@ -10284,16 +10284,16 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="N124" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O124" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P124" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T124" t="n">
         <v>15</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44237</v>
+        <v>44209</v>
       </c>
       <c r="E125" t="n">
         <v>7</v>
@@ -10364,16 +10364,16 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N125" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O125" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P125" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T125" t="n">
         <v>15</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44237</v>
+        <v>44209</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
@@ -10435,25 +10435,25 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="N126" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O126" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P126" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T126" t="n">
         <v>15</v>
@@ -10515,25 +10515,25 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N127" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O127" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P127" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T127" t="n">
         <v>15</v>
@@ -10595,25 +10595,25 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N128" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O128" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P128" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T128" t="n">
         <v>15</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44245</v>
+        <v>44237</v>
       </c>
       <c r="E129" t="n">
         <v>7</v>
@@ -10684,20 +10684,20 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N129" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O129" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P129" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T129" t="n">
         <v>15</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44245</v>
+        <v>44237</v>
       </c>
       <c r="E130" t="n">
         <v>7</v>
@@ -10767,17 +10767,17 @@
         <v>300</v>
       </c>
       <c r="N130" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O130" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P130" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T130" t="n">
         <v>15</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44245</v>
+        <v>44237</v>
       </c>
       <c r="E131" t="n">
         <v>7</v>
@@ -10847,17 +10847,17 @@
         <v>200</v>
       </c>
       <c r="N131" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O131" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P131" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="T131" t="n">
         <v>15</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44229</v>
+        <v>44245</v>
       </c>
       <c r="E132" t="n">
         <v>7</v>
@@ -10915,7 +10915,7 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
@@ -10924,20 +10924,20 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N132" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O132" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P132" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T132" t="n">
         <v>15</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44229</v>
+        <v>44245</v>
       </c>
       <c r="E133" t="n">
         <v>7</v>
@@ -10995,7 +10995,7 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -11004,20 +11004,20 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="N133" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O133" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P133" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T133" t="n">
         <v>15</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44249</v>
+        <v>44245</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
@@ -11080,24 +11080,24 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N134" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O134" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P134" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
@@ -11106,10 +11106,10 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>938</v>
+        <v>533</v>
       </c>
       <c r="T134" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135">
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44523</v>
+        <v>44229</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -11155,7 +11155,7 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -11164,20 +11164,20 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="N135" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O135" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P135" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>1333</v>
+        <v>800</v>
       </c>
       <c r="T135" t="n">
         <v>15</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44216</v>
+        <v>44229</v>
       </c>
       <c r="E136" t="n">
         <v>7</v>
@@ -11235,25 +11235,25 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="N136" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O136" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P136" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T136" t="n">
         <v>15</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44216</v>
+        <v>44249</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -11315,29 +11315,29 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N137" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O137" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P137" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
@@ -11346,10 +11346,10 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>733</v>
+        <v>938</v>
       </c>
       <c r="T137" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138">
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44216</v>
+        <v>44523</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -11395,7 +11395,7 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
@@ -11404,29 +11404,29 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="N138" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O138" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P138" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S138" t="n">
-        <v>933</v>
+        <v>1333</v>
       </c>
       <c r="T138" t="n">
         <v>15</v>
@@ -11475,7 +11475,7 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -11484,7 +11484,7 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="N139" t="n">
         <v>13000</v>
@@ -11497,12 +11497,12 @@
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S139" t="n">
@@ -11555,7 +11555,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -11564,16 +11564,16 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N140" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O140" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P140" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11582,11 +11582,11 @@
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S140" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T140" t="n">
         <v>15</v>
@@ -11640,24 +11640,24 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N141" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O141" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P141" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T141" t="n">
         <v>15</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44257</v>
+        <v>44216</v>
       </c>
       <c r="E142" t="n">
         <v>7</v>
@@ -11715,7 +11715,7 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -11724,16 +11724,16 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="N142" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O142" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P142" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11742,11 +11742,11 @@
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S142" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T142" t="n">
         <v>15</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44257</v>
+        <v>44216</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -11795,38 +11795,38 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="N143" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O143" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P143" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S143" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T143" t="n">
         <v>15</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44169</v>
+        <v>44216</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -11875,7 +11875,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -11884,32 +11884,32 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="N144" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O144" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P144" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S144" t="n">
-        <v>833</v>
+        <v>733</v>
       </c>
       <c r="T144" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145">
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44195</v>
+        <v>44257</v>
       </c>
       <c r="E145" t="n">
         <v>7</v>
@@ -11955,7 +11955,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -11964,20 +11964,20 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N145" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O145" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P145" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>1133</v>
+        <v>933</v>
       </c>
       <c r="T145" t="n">
         <v>15</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44524</v>
+        <v>44257</v>
       </c>
       <c r="E146" t="n">
         <v>7</v>
@@ -12035,29 +12035,29 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="N146" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O146" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P146" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>1333</v>
+        <v>1000</v>
       </c>
       <c r="T146" t="n">
         <v>15</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44524</v>
+        <v>44169</v>
       </c>
       <c r="E147" t="n">
         <v>7</v>
@@ -12124,32 +12124,32 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="N147" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O147" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P147" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S147" t="n">
-        <v>1200</v>
+        <v>833</v>
       </c>
       <c r="T147" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148">
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -12195,7 +12195,7 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -12207,17 +12207,17 @@
         <v>80</v>
       </c>
       <c r="N148" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O148" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P148" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>933</v>
+        <v>1133</v>
       </c>
       <c r="T148" t="n">
         <v>15</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
@@ -12280,24 +12280,24 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M149" t="n">
         <v>100</v>
       </c>
       <c r="N149" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O149" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P149" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>867</v>
+        <v>1333</v>
       </c>
       <c r="T149" t="n">
         <v>15</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44242</v>
+        <v>44524</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
@@ -12355,29 +12355,29 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N150" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="O150" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P150" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>733</v>
+        <v>1200</v>
       </c>
       <c r="T150" t="n">
         <v>15</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -12435,29 +12435,29 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N151" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O151" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P151" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T151" t="n">
         <v>15</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E152" t="n">
         <v>7</v>
@@ -12515,7 +12515,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
@@ -12524,20 +12524,20 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N152" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O152" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P152" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T152" t="n">
         <v>15</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
@@ -12595,7 +12595,7 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -12604,7 +12604,7 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N153" t="n">
         <v>11000</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
@@ -12675,7 +12675,7 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -12684,7 +12684,7 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N154" t="n">
         <v>13000</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E155" t="n">
         <v>7</v>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E156" t="n">
         <v>7</v>
@@ -12835,7 +12835,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -12844,16 +12844,16 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N156" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O156" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P156" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T156" t="n">
         <v>15</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44210</v>
+        <v>44239</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -12915,25 +12915,25 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="N157" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O157" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P157" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T157" t="n">
         <v>15</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44210</v>
+        <v>44239</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
@@ -12995,25 +12995,25 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N158" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O158" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P158" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>933</v>
+        <v>600</v>
       </c>
       <c r="T158" t="n">
         <v>15</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
@@ -13080,20 +13080,20 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N159" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O159" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P159" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T159" t="n">
         <v>15</v>
@@ -13155,25 +13155,25 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N160" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O160" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P160" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T160" t="n">
         <v>15</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E161" t="n">
         <v>7</v>
@@ -13235,16 +13235,16 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="N161" t="n">
         <v>14000</v>
@@ -13257,7 +13257,7 @@
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E162" t="n">
         <v>7</v>
@@ -13315,7 +13315,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
@@ -13324,20 +13324,20 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N162" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O162" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P162" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R162" t="inlineStr">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T162" t="n">
         <v>15</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44284</v>
+        <v>44210</v>
       </c>
       <c r="E163" t="n">
         <v>7</v>
@@ -13395,25 +13395,25 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N163" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O163" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P163" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T163" t="n">
         <v>15</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44246</v>
+        <v>44176</v>
       </c>
       <c r="E164" t="n">
         <v>7</v>
@@ -13475,7 +13475,7 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -13484,20 +13484,20 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N164" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O164" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P164" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R164" t="inlineStr">
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T164" t="n">
         <v>15</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44246</v>
+        <v>44176</v>
       </c>
       <c r="E165" t="n">
         <v>7</v>
@@ -13555,16 +13555,16 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N165" t="n">
         <v>12000</v>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R165" t="inlineStr">
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44246</v>
+        <v>44284</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -13640,20 +13640,20 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N166" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O166" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P166" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>533</v>
+        <v>1000</v>
       </c>
       <c r="T166" t="n">
         <v>15</v>
@@ -13715,7 +13715,7 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
@@ -13795,7 +13795,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -13875,7 +13875,7 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44225</v>
+        <v>44246</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
@@ -13955,7 +13955,7 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -13964,16 +13964,16 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N170" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O170" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P170" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T170" t="n">
         <v>15</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44225</v>
+        <v>44246</v>
       </c>
       <c r="E171" t="n">
         <v>7</v>
@@ -14035,25 +14035,25 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="N171" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O171" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P171" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T171" t="n">
         <v>15</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44225</v>
+        <v>44246</v>
       </c>
       <c r="E172" t="n">
         <v>7</v>
@@ -14115,25 +14115,25 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="N172" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O172" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P172" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>933</v>
+        <v>533</v>
       </c>
       <c r="T172" t="n">
         <v>15</v>
@@ -14195,16 +14195,16 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N173" t="n">
         <v>12000</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E174" t="n">
         <v>7</v>
@@ -14275,25 +14275,25 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>450</v>
+        <v>140</v>
       </c>
       <c r="N174" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O174" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P174" t="n">
-        <v>13444</v>
+        <v>10000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>896</v>
+        <v>667</v>
       </c>
       <c r="T174" t="n">
         <v>15</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44161</v>
+        <v>44225</v>
       </c>
       <c r="E175" t="n">
         <v>7</v>
@@ -14355,7 +14355,7 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -14364,20 +14364,20 @@
         </is>
       </c>
       <c r="M175" t="n">
-        <v>310</v>
+        <v>170</v>
       </c>
       <c r="N175" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O175" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P175" t="n">
-        <v>15194</v>
+        <v>14000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R175" t="inlineStr">
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>1013</v>
+        <v>933</v>
       </c>
       <c r="T175" t="n">
         <v>15</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44161</v>
+        <v>44225</v>
       </c>
       <c r="E176" t="n">
         <v>7</v>
@@ -14435,7 +14435,7 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
@@ -14444,20 +14444,20 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N176" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O176" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P176" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R176" t="inlineStr">
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T176" t="n">
         <v>15</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E177" t="n">
         <v>7</v>
@@ -14515,29 +14515,29 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N177" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O177" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P177" t="n">
-        <v>16000</v>
+        <v>13444</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
@@ -14546,10 +14546,10 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="T177" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178">
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E178" t="n">
         <v>7</v>
@@ -14600,36 +14600,36 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="N178" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O178" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P178" t="n">
-        <v>10000</v>
+        <v>15194</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S178" t="n">
-        <v>1000</v>
+        <v>1013</v>
       </c>
       <c r="T178" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179">
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
@@ -14675,29 +14675,29 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N179" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O179" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P179" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T179" t="n">
         <v>15</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E180" t="n">
         <v>7</v>
@@ -14755,29 +14755,29 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N180" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O180" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P180" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R180" t="inlineStr">
@@ -14786,10 +14786,10 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>867</v>
+        <v>889</v>
       </c>
       <c r="T180" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181">
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E181" t="n">
         <v>7</v>
@@ -14835,41 +14835,41 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N181" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O181" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P181" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S181" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T181" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182">
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E182" t="n">
         <v>7</v>
@@ -14924,7 +14924,7 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N182" t="n">
         <v>11000</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E183" t="n">
         <v>7</v>
@@ -15004,7 +15004,7 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N183" t="n">
         <v>13000</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E184" t="n">
         <v>7</v>
@@ -15084,7 +15084,7 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N184" t="n">
         <v>9000</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E185" t="n">
         <v>7</v>
@@ -15155,7 +15155,7 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -15164,20 +15164,20 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>210</v>
+        <v>500</v>
       </c>
       <c r="N185" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O185" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P185" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R185" t="inlineStr">
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T185" t="n">
         <v>15</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E186" t="n">
         <v>7</v>
@@ -15235,7 +15235,7 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
@@ -15244,20 +15244,20 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N186" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O186" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P186" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T186" t="n">
         <v>15</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E187" t="n">
         <v>7</v>
@@ -15320,20 +15320,20 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="N187" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O187" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P187" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T187" t="n">
         <v>15</v>
@@ -15395,16 +15395,16 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="N188" t="n">
         <v>14000</v>
@@ -15417,7 +15417,7 @@
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R188" t="inlineStr">
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E189" t="n">
         <v>7</v>
@@ -15475,29 +15475,29 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="N189" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O189" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P189" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R189" t="inlineStr">
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T189" t="n">
         <v>15</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E190" t="n">
         <v>7</v>
@@ -15555,25 +15555,25 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="N190" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O190" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P190" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T190" t="n">
         <v>15</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44194</v>
+        <v>44251</v>
       </c>
       <c r="E191" t="n">
         <v>7</v>
@@ -15635,25 +15635,25 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M191" t="n">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="N191" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O191" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P191" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T191" t="n">
         <v>15</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E192" t="n">
         <v>7</v>
@@ -15715,29 +15715,29 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>Redtop</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M192" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N192" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O192" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P192" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R192" t="inlineStr">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T192" t="n">
         <v>15</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44271</v>
+        <v>44181</v>
       </c>
       <c r="E193" t="n">
         <v>7</v>
@@ -15795,25 +15795,25 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M193" t="n">
         <v>120</v>
       </c>
       <c r="N193" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O193" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P193" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T193" t="n">
         <v>15</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44201</v>
+        <v>44194</v>
       </c>
       <c r="E194" t="n">
         <v>7</v>
@@ -15884,7 +15884,7 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N194" t="n">
         <v>15000</v>
@@ -15927,68 +15927,308 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E195" t="n">
+        <v>7</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>Redtop</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>200</v>
+      </c>
+      <c r="N195" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O195" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P195" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S195" t="n">
+        <v>933</v>
+      </c>
+      <c r="T195" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>5</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="n">
+        <v>44271</v>
+      </c>
+      <c r="E196" t="n">
+        <v>7</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>120</v>
+      </c>
+      <c r="N196" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O196" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P196" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S196" t="n">
+        <v>933</v>
+      </c>
+      <c r="T196" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>5</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="n">
         <v>44201</v>
       </c>
-      <c r="E195" t="n">
-        <v>7</v>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G195" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I195" t="n">
-        <v>100103004</v>
-      </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>Durazno</t>
-        </is>
-      </c>
-      <c r="K195" t="inlineStr">
+      <c r="E197" t="n">
+        <v>7</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>Carson</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>300</v>
+      </c>
+      <c r="N197" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O197" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P197" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S197" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T197" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>5</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E198" t="n">
+        <v>7</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
         <is>
           <t>Kurakata</t>
         </is>
       </c>
-      <c r="L195" t="inlineStr">
+      <c r="L198" t="inlineStr">
         <is>
           <t>Extra (doble especial)</t>
         </is>
       </c>
-      <c r="M195" t="n">
+      <c r="M198" t="n">
         <v>30</v>
       </c>
-      <c r="N195" t="n">
+      <c r="N198" t="n">
         <v>16000</v>
       </c>
-      <c r="O195" t="n">
+      <c r="O198" t="n">
         <v>16000</v>
       </c>
-      <c r="P195" t="n">
+      <c r="P198" t="n">
         <v>16000</v>
       </c>
-      <c r="Q195" t="inlineStr">
+      <c r="Q198" t="inlineStr">
         <is>
           <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
-      <c r="R195" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S195" t="n">
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S198" t="n">
         <v>1067</v>
       </c>
-      <c r="T195" t="n">
+      <c r="T198" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T198"/>
+  <dimension ref="A1:T199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44245</v>
+        <v>44529</v>
       </c>
       <c r="E132" t="n">
         <v>7</v>
@@ -10915,7 +10915,7 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
@@ -10924,7 +10924,7 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N132" t="n">
         <v>10000</v>
@@ -10937,7 +10937,7 @@
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -10946,10 +10946,10 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="T132" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133">
@@ -11000,20 +11000,20 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M133" t="n">
         <v>300</v>
       </c>
       <c r="N133" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O133" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P133" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T133" t="n">
         <v>15</v>
@@ -11080,20 +11080,20 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N134" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O134" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P134" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="T134" t="n">
         <v>15</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44229</v>
+        <v>44245</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -11155,29 +11155,29 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N135" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O135" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P135" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T135" t="n">
         <v>15</v>
@@ -11240,20 +11240,20 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="N136" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O136" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P136" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T136" t="n">
         <v>15</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44249</v>
+        <v>44229</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -11315,7 +11315,7 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -11324,20 +11324,20 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="N137" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O137" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P137" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
@@ -11346,10 +11346,10 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="T137" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138">
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44523</v>
+        <v>44249</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -11395,29 +11395,29 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="N138" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O138" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P138" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -11426,10 +11426,10 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>1333</v>
+        <v>938</v>
       </c>
       <c r="T138" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139">
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44216</v>
+        <v>44523</v>
       </c>
       <c r="E139" t="n">
         <v>7</v>
@@ -11475,7 +11475,7 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -11484,20 +11484,20 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="N139" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O139" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P139" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>867</v>
+        <v>1333</v>
       </c>
       <c r="T139" t="n">
         <v>15</v>
@@ -11560,20 +11560,20 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N140" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O140" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P140" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T140" t="n">
         <v>15</v>
@@ -11635,25 +11635,25 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N141" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O141" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P141" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11662,11 +11662,11 @@
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S141" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T141" t="n">
         <v>15</v>
@@ -11724,20 +11724,20 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="N142" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O142" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P142" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T142" t="n">
         <v>15</v>
@@ -11800,24 +11800,24 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N143" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O143" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P143" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T143" t="n">
         <v>15</v>
@@ -11884,20 +11884,20 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N144" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O144" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P144" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T144" t="n">
         <v>15</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44257</v>
+        <v>44216</v>
       </c>
       <c r="E145" t="n">
         <v>7</v>
@@ -11955,25 +11955,25 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="N145" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O145" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P145" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11982,11 +11982,11 @@
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S145" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T145" t="n">
         <v>15</v>
@@ -12040,20 +12040,20 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N146" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O146" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P146" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T146" t="n">
         <v>15</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44169</v>
+        <v>44257</v>
       </c>
       <c r="E147" t="n">
         <v>7</v>
@@ -12115,41 +12115,41 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="N147" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O147" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P147" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S147" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T147" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148">
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -12195,41 +12195,41 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N148" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O148" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P148" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S148" t="n">
-        <v>1133</v>
+        <v>833</v>
       </c>
       <c r="T148" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149">
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44524</v>
+        <v>44195</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
@@ -12275,7 +12275,7 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -12284,20 +12284,20 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N149" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O149" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P149" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>1333</v>
+        <v>1133</v>
       </c>
       <c r="T149" t="n">
         <v>15</v>
@@ -12360,20 +12360,20 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N150" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O150" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P150" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>1200</v>
+        <v>1333</v>
       </c>
       <c r="T150" t="n">
         <v>15</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -12440,24 +12440,24 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N151" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O151" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P151" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>933</v>
+        <v>1200</v>
       </c>
       <c r="T151" t="n">
         <v>15</v>
@@ -12520,20 +12520,20 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N152" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O152" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P152" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T152" t="n">
         <v>15</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
@@ -12595,29 +12595,29 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N153" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O153" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P153" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T153" t="n">
         <v>15</v>
@@ -12680,20 +12680,20 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M154" t="n">
         <v>300</v>
       </c>
       <c r="N154" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O154" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P154" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T154" t="n">
         <v>15</v>
@@ -12760,20 +12760,20 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N155" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O155" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P155" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T155" t="n">
         <v>15</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E156" t="n">
         <v>7</v>
@@ -12835,25 +12835,25 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N156" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O156" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P156" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="T156" t="n">
         <v>15</v>
@@ -12920,20 +12920,20 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M157" t="n">
         <v>400</v>
       </c>
       <c r="N157" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O157" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P157" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T157" t="n">
         <v>15</v>
@@ -13000,20 +13000,20 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N158" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O158" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P158" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T158" t="n">
         <v>15</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
@@ -13075,25 +13075,25 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N159" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O159" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P159" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T159" t="n">
         <v>15</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E160" t="n">
         <v>7</v>
@@ -13164,16 +13164,16 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N160" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O160" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P160" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T160" t="n">
         <v>15</v>
@@ -13240,20 +13240,20 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N161" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O161" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P161" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T161" t="n">
         <v>15</v>
@@ -13320,20 +13320,20 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N162" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O162" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P162" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T162" t="n">
         <v>15</v>
@@ -13395,7 +13395,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -13404,7 +13404,7 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N163" t="n">
         <v>10000</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E164" t="n">
         <v>7</v>
@@ -13475,29 +13475,29 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N164" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O164" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P164" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R164" t="inlineStr">
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T164" t="n">
         <v>15</v>
@@ -13560,20 +13560,20 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M165" t="n">
         <v>50</v>
       </c>
       <c r="N165" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O165" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P165" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T165" t="n">
         <v>15</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44284</v>
+        <v>44176</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -13635,29 +13635,29 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N166" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O166" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P166" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R166" t="inlineStr">
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T166" t="n">
         <v>15</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44246</v>
+        <v>44284</v>
       </c>
       <c r="E167" t="n">
         <v>7</v>
@@ -13724,16 +13724,16 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N167" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O167" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P167" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T167" t="n">
         <v>15</v>
@@ -13800,20 +13800,20 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M168" t="n">
         <v>300</v>
       </c>
       <c r="N168" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O168" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P168" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T168" t="n">
         <v>15</v>
@@ -13880,20 +13880,20 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N169" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O169" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P169" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="T169" t="n">
         <v>15</v>
@@ -13955,25 +13955,25 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M170" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N170" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O170" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P170" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T170" t="n">
         <v>15</v>
@@ -14040,20 +14040,20 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M171" t="n">
         <v>300</v>
       </c>
       <c r="N171" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O171" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P171" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T171" t="n">
         <v>15</v>
@@ -14120,20 +14120,20 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N172" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O172" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P172" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="T172" t="n">
         <v>15</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44225</v>
+        <v>44246</v>
       </c>
       <c r="E173" t="n">
         <v>7</v>
@@ -14195,25 +14195,25 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N173" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O173" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P173" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T173" t="n">
         <v>15</v>
@@ -14280,20 +14280,20 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N174" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O174" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P174" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T174" t="n">
         <v>15</v>
@@ -14355,25 +14355,25 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="N175" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O175" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P175" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T175" t="n">
         <v>15</v>
@@ -14440,20 +14440,20 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="N176" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O176" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P176" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T176" t="n">
         <v>15</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E177" t="n">
         <v>7</v>
@@ -14515,25 +14515,25 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="N177" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O177" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P177" t="n">
-        <v>13444</v>
+        <v>12000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>896</v>
+        <v>800</v>
       </c>
       <c r="T177" t="n">
         <v>15</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E178" t="n">
         <v>7</v>
@@ -14595,29 +14595,29 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>310</v>
+        <v>450</v>
       </c>
       <c r="N178" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O178" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P178" t="n">
-        <v>15194</v>
+        <v>13444</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>1013</v>
+        <v>896</v>
       </c>
       <c r="T178" t="n">
         <v>15</v>
@@ -14680,20 +14680,20 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="N179" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O179" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P179" t="n">
-        <v>14000</v>
+        <v>15194</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>933</v>
+        <v>1013</v>
       </c>
       <c r="T179" t="n">
         <v>15</v>
@@ -14764,20 +14764,20 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N180" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O180" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P180" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R180" t="inlineStr">
@@ -14786,10 +14786,10 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>889</v>
+        <v>933</v>
       </c>
       <c r="T180" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181">
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E181" t="n">
         <v>7</v>
@@ -14840,36 +14840,36 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N181" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O181" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P181" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S181" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T181" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182">
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E182" t="n">
         <v>7</v>
@@ -14915,41 +14915,41 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N182" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O182" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P182" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S182" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T182" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183">
@@ -15000,20 +15000,20 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M183" t="n">
         <v>400</v>
       </c>
       <c r="N183" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O183" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P183" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T183" t="n">
         <v>15</v>
@@ -15080,20 +15080,20 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N184" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O184" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P184" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T184" t="n">
         <v>15</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E185" t="n">
         <v>7</v>
@@ -15160,20 +15160,20 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N185" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O185" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P185" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="T185" t="n">
         <v>15</v>
@@ -15240,20 +15240,20 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N186" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O186" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P186" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T186" t="n">
         <v>15</v>
@@ -15320,20 +15320,20 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M187" t="n">
         <v>300</v>
       </c>
       <c r="N187" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O187" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P187" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T187" t="n">
         <v>15</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E188" t="n">
         <v>7</v>
@@ -15395,29 +15395,29 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N188" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O188" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P188" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R188" t="inlineStr">
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>933</v>
+        <v>600</v>
       </c>
       <c r="T188" t="n">
         <v>15</v>
@@ -15480,20 +15480,20 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="N189" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O189" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P189" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T189" t="n">
         <v>15</v>
@@ -15555,29 +15555,29 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="N190" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O190" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P190" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R190" t="inlineStr">
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T190" t="n">
         <v>15</v>
@@ -15640,20 +15640,20 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M191" t="n">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="N191" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O191" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P191" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T191" t="n">
         <v>15</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E192" t="n">
         <v>7</v>
@@ -15715,25 +15715,25 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M192" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="N192" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O192" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P192" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T192" t="n">
         <v>15</v>
@@ -15800,20 +15800,20 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N193" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O193" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P193" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T193" t="n">
         <v>15</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E194" t="n">
         <v>7</v>
@@ -15875,25 +15875,25 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M194" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N194" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O194" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P194" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T194" t="n">
         <v>15</v>
@@ -15955,7 +15955,7 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>Redtop</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
@@ -15964,20 +15964,20 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N195" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O195" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P195" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R195" t="inlineStr">
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T195" t="n">
         <v>15</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E196" t="n">
         <v>7</v>
@@ -16035,16 +16035,16 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Redtop</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M196" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N196" t="n">
         <v>14000</v>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R196" t="inlineStr">
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44201</v>
+        <v>44271</v>
       </c>
       <c r="E197" t="n">
         <v>7</v>
@@ -16115,25 +16115,25 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N197" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O197" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P197" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T197" t="n">
         <v>15</v>
@@ -16195,40 +16195,120 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
+          <t>Carson</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>300</v>
+      </c>
+      <c r="N198" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O198" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P198" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S198" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T198" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>5</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E199" t="n">
+        <v>7</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
           <t>Kurakata</t>
         </is>
       </c>
-      <c r="L198" t="inlineStr">
+      <c r="L199" t="inlineStr">
         <is>
           <t>Extra (doble especial)</t>
         </is>
       </c>
-      <c r="M198" t="n">
+      <c r="M199" t="n">
         <v>30</v>
       </c>
-      <c r="N198" t="n">
+      <c r="N199" t="n">
         <v>16000</v>
       </c>
-      <c r="O198" t="n">
+      <c r="O199" t="n">
         <v>16000</v>
       </c>
-      <c r="P198" t="n">
+      <c r="P199" t="n">
         <v>16000</v>
       </c>
-      <c r="Q198" t="inlineStr">
+      <c r="Q199" t="inlineStr">
         <is>
           <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
-      <c r="R198" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S198" t="n">
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S199" t="n">
         <v>1067</v>
       </c>
-      <c r="T198" t="n">
+      <c r="T199" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T199"/>
+  <dimension ref="A1:T200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44187</v>
+        <v>44530</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2287,17 +2287,17 @@
         <v>300</v>
       </c>
       <c r="N24" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O24" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P24" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>556</v>
+        <v>933</v>
       </c>
       <c r="T24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="N25" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O25" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P25" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T25" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N26" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O26" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P26" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1067</v>
+        <v>1000</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N27" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O27" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P27" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>933</v>
+        <v>1067</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44258</v>
+        <v>44187</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
@@ -2595,16 +2595,16 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="N28" t="n">
         <v>14000</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="N29" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O29" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P29" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T29" t="n">
         <v>15</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N30" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O30" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P30" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T30" t="n">
         <v>15</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N31" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O31" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P31" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44160</v>
+        <v>44258</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N32" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O32" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P32" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T32" t="n">
         <v>15</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N33" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O33" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P33" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N34" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O34" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P34" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T34" t="n">
         <v>15</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44253</v>
+        <v>44160</v>
       </c>
       <c r="E35" t="n">
         <v>7</v>
@@ -3155,29 +3155,29 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N35" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O35" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P35" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N36" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O36" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P36" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3315,25 +3315,25 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N37" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O37" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P37" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N38" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O38" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P38" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44243</v>
+        <v>44253</v>
       </c>
       <c r="E39" t="n">
         <v>7</v>
@@ -3475,25 +3475,25 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N39" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O39" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P39" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M40" t="n">
         <v>300</v>
       </c>
       <c r="N40" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O40" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P40" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N41" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O41" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P41" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="T41" t="n">
         <v>15</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44179</v>
+        <v>44243</v>
       </c>
       <c r="E42" t="n">
         <v>7</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3727,17 +3727,17 @@
         <v>200</v>
       </c>
       <c r="N42" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O42" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P42" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T42" t="n">
         <v>15</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N43" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O43" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P43" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T43" t="n">
         <v>15</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44215</v>
+        <v>44179</v>
       </c>
       <c r="E44" t="n">
         <v>7</v>
@@ -3875,29 +3875,29 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N44" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O44" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P44" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T44" t="n">
         <v>15</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N45" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O45" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P45" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T45" t="n">
         <v>15</v>
@@ -4035,25 +4035,25 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N46" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O46" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P46" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T46" t="n">
         <v>15</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N47" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O47" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P47" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T47" t="n">
         <v>15</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44188</v>
+        <v>44215</v>
       </c>
       <c r="E48" t="n">
         <v>7</v>
@@ -4195,29 +4195,29 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N48" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O48" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P48" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N49" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O49" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P49" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N50" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O50" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P50" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1067</v>
+        <v>1000</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44221</v>
+        <v>44188</v>
       </c>
       <c r="E51" t="n">
         <v>7</v>
@@ -4435,29 +4435,29 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N51" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O51" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P51" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>933</v>
+        <v>1067</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4515,25 +4515,25 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N52" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O52" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P52" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44267</v>
+        <v>44221</v>
       </c>
       <c r="E53" t="n">
         <v>7</v>
@@ -4595,16 +4595,16 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N53" t="n">
         <v>13000</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44230</v>
+        <v>44267</v>
       </c>
       <c r="E54" t="n">
         <v>7</v>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4684,16 +4684,16 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="N54" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O54" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P54" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T54" t="n">
         <v>15</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="N55" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O55" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P55" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T55" t="n">
         <v>15</v>
@@ -4835,25 +4835,25 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N56" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O56" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P56" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T56" t="n">
         <v>15</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N57" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O57" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P57" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T57" t="n">
         <v>15</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44525</v>
+        <v>44230</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
@@ -4995,29 +4995,29 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N58" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O58" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P58" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -5026,10 +5026,10 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1250</v>
+        <v>600</v>
       </c>
       <c r="T58" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44224</v>
+        <v>44525</v>
       </c>
       <c r="E59" t="n">
         <v>7</v>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -5084,20 +5084,20 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N59" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O59" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P59" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>867</v>
+        <v>1250</v>
       </c>
       <c r="T59" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="N60" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O60" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P60" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5235,29 +5235,29 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="N61" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O61" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P61" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T61" t="n">
         <v>15</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N62" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O62" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P62" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5395,25 +5395,25 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N63" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O63" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P63" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44526</v>
+        <v>44224</v>
       </c>
       <c r="E64" t="n">
         <v>7</v>
@@ -5475,29 +5475,29 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N64" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O64" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P64" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -5506,10 +5506,10 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1250</v>
+        <v>867</v>
       </c>
       <c r="T64" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
@@ -5564,20 +5564,20 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N65" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O65" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P65" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -5589,7 +5589,7 @@
         <v>1250</v>
       </c>
       <c r="T65" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="N66" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O66" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P66" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1062</v>
+        <v>1250</v>
       </c>
       <c r="T66" t="n">
         <v>16</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44286</v>
+        <v>44526</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
@@ -5715,29 +5715,29 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N67" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O67" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P67" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -5746,10 +5746,10 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1000</v>
+        <v>1062</v>
       </c>
       <c r="T67" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N68" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O68" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P68" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T68" t="n">
         <v>15</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44186</v>
+        <v>44286</v>
       </c>
       <c r="E69" t="n">
         <v>7</v>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5884,20 +5884,20 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N69" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O69" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P69" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T69" t="n">
         <v>15</v>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5964,7 +5964,7 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N70" t="n">
         <v>12000</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44519</v>
+        <v>44186</v>
       </c>
       <c r="E71" t="n">
         <v>7</v>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -6044,32 +6044,32 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N71" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O71" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P71" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="T71" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
@@ -6120,20 +6120,20 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N72" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O72" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P72" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="T72" t="n">
         <v>10</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44250</v>
+        <v>44519</v>
       </c>
       <c r="E73" t="n">
         <v>7</v>
@@ -6195,41 +6195,41 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N73" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O73" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P73" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S73" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T73" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N74" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O74" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P74" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T74" t="n">
         <v>15</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44218</v>
+        <v>44250</v>
       </c>
       <c r="E75" t="n">
         <v>7</v>
@@ -6355,38 +6355,38 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N75" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O75" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P75" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S75" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T75" t="n">
         <v>15</v>
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N76" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O76" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P76" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T76" t="n">
         <v>15</v>
@@ -6515,25 +6515,25 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N77" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O77" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P77" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6542,11 +6542,11 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T77" t="n">
         <v>15</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N78" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O78" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P78" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T78" t="n">
         <v>15</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44203</v>
+        <v>44218</v>
       </c>
       <c r="E79" t="n">
         <v>7</v>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6684,20 +6684,20 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="N79" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O79" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P79" t="n">
-        <v>12556</v>
+        <v>11000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>837</v>
+        <v>733</v>
       </c>
       <c r="T79" t="n">
         <v>15</v>
@@ -6755,29 +6755,29 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>110</v>
+        <v>360</v>
       </c>
       <c r="N80" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O80" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P80" t="n">
-        <v>15000</v>
+        <v>12556</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1000</v>
+        <v>837</v>
       </c>
       <c r="T80" t="n">
         <v>15</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="N81" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O81" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P81" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T81" t="n">
         <v>15</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44217</v>
+        <v>44203</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -6915,29 +6915,29 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>520</v>
+        <v>60</v>
       </c>
       <c r="N82" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O82" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P82" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T82" t="n">
         <v>15</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>200</v>
+        <v>520</v>
       </c>
       <c r="N83" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O83" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P83" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T83" t="n">
         <v>15</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44235</v>
+        <v>44217</v>
       </c>
       <c r="E84" t="n">
         <v>7</v>
@@ -7075,25 +7075,25 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M84" t="n">
         <v>200</v>
       </c>
       <c r="N84" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O84" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P84" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T84" t="n">
         <v>15</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N85" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O85" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P85" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T85" t="n">
         <v>15</v>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -7244,7 +7244,7 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N86" t="n">
         <v>13000</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44200</v>
+        <v>44235</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
@@ -7315,25 +7315,25 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N87" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O87" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P87" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T87" t="n">
         <v>15</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44162</v>
+        <v>44200</v>
       </c>
       <c r="E88" t="n">
         <v>7</v>
@@ -7395,16 +7395,16 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N88" t="n">
         <v>15000</v>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -7426,10 +7426,10 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T88" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89">
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N89" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O89" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P89" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>778</v>
+        <v>833</v>
       </c>
       <c r="T89" t="n">
         <v>18</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44244</v>
+        <v>44162</v>
       </c>
       <c r="E90" t="n">
         <v>7</v>
@@ -7555,29 +7555,29 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N90" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O90" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P90" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -7586,10 +7586,10 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T90" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
@@ -7640,20 +7640,20 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M91" t="n">
         <v>300</v>
       </c>
       <c r="N91" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O91" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P91" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T91" t="n">
         <v>15</v>
@@ -7715,25 +7715,25 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M92" t="n">
         <v>300</v>
       </c>
       <c r="N92" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O92" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P92" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T92" t="n">
         <v>15</v>
@@ -7800,20 +7800,20 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M93" t="n">
         <v>300</v>
       </c>
       <c r="N93" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O93" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P93" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T93" t="n">
         <v>15</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N94" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O94" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P94" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="T94" t="n">
         <v>15</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44202</v>
+        <v>44244</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
@@ -7955,29 +7955,29 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N95" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O95" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P95" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>1000</v>
+        <v>533</v>
       </c>
       <c r="T95" t="n">
         <v>15</v>
@@ -8040,20 +8040,20 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="N96" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O96" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P96" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T96" t="n">
         <v>15</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44252</v>
+        <v>44202</v>
       </c>
       <c r="E97" t="n">
         <v>7</v>
@@ -8115,16 +8115,16 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N97" t="n">
         <v>13000</v>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
@@ -8204,7 +8204,7 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="N98" t="n">
         <v>13000</v>
@@ -8217,7 +8217,7 @@
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
@@ -8280,24 +8280,24 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N99" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O99" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P99" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T99" t="n">
         <v>15</v>
@@ -8364,7 +8364,7 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N100" t="n">
         <v>15000</v>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
@@ -8440,24 +8440,24 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N101" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O101" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P101" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T101" t="n">
         <v>15</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44214</v>
+        <v>44252</v>
       </c>
       <c r="E102" t="n">
         <v>7</v>
@@ -8515,25 +8515,25 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N102" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O102" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P102" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T102" t="n">
         <v>15</v>
@@ -8600,20 +8600,20 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N103" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O103" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P103" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T103" t="n">
         <v>15</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44167</v>
+        <v>44214</v>
       </c>
       <c r="E104" t="n">
         <v>7</v>
@@ -8675,29 +8675,29 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N104" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O104" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P104" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T104" t="n">
         <v>15</v>
@@ -8760,20 +8760,20 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N105" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O105" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P105" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T105" t="n">
         <v>15</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44174</v>
+        <v>44167</v>
       </c>
       <c r="E106" t="n">
         <v>7</v>
@@ -8840,20 +8840,20 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="N106" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O106" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P106" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T106" t="n">
         <v>15</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N107" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O107" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P107" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T107" t="n">
         <v>15</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44208</v>
+        <v>44174</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
@@ -8995,7 +8995,7 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -9004,16 +9004,16 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N108" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O108" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P108" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T108" t="n">
         <v>15</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44211</v>
+        <v>44208</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
@@ -9080,24 +9080,24 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N109" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O109" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P109" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T109" t="n">
         <v>15</v>
@@ -9160,20 +9160,20 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N110" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O110" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P110" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T110" t="n">
         <v>15</v>
@@ -9240,20 +9240,20 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N111" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O111" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P111" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T111" t="n">
         <v>15</v>
@@ -9315,25 +9315,25 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="N112" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O112" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P112" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T112" t="n">
         <v>15</v>
@@ -9400,20 +9400,20 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N113" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O113" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P113" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T113" t="n">
         <v>15</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44204</v>
+        <v>44211</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -9475,25 +9475,25 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="N114" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O114" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P114" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T114" t="n">
         <v>15</v>
@@ -9560,20 +9560,20 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="N115" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O115" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P115" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T115" t="n">
         <v>15</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44260</v>
+        <v>44204</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -9635,25 +9635,25 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="N116" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O116" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P116" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T116" t="n">
         <v>15</v>
@@ -9720,20 +9720,20 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="N117" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O117" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P117" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T117" t="n">
         <v>15</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44189</v>
+        <v>44260</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -9795,29 +9795,29 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="N118" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O118" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P118" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
@@ -9826,10 +9826,10 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>611</v>
+        <v>1000</v>
       </c>
       <c r="T118" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119">
@@ -9880,20 +9880,20 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N119" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O119" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P119" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T119" t="n">
         <v>18</v>
@@ -9955,25 +9955,25 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N120" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O120" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P120" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>833</v>
+        <v>500</v>
       </c>
       <c r="T120" t="n">
         <v>18</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N121" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O121" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P121" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>778</v>
+        <v>833</v>
       </c>
       <c r="T121" t="n">
         <v>18</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44265</v>
+        <v>44189</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -10115,29 +10115,29 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M122" t="n">
         <v>100</v>
       </c>
       <c r="N122" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O122" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P122" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
@@ -10146,10 +10146,10 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T122" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123">
@@ -10200,20 +10200,20 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N123" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O123" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P123" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T123" t="n">
         <v>15</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44209</v>
+        <v>44265</v>
       </c>
       <c r="E124" t="n">
         <v>7</v>
@@ -10275,25 +10275,25 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="N124" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O124" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P124" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T124" t="n">
         <v>15</v>
@@ -10360,20 +10360,20 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N125" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O125" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P125" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T125" t="n">
         <v>15</v>
@@ -10440,20 +10440,20 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N126" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O126" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P126" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T126" t="n">
         <v>15</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44237</v>
+        <v>44209</v>
       </c>
       <c r="E127" t="n">
         <v>7</v>
@@ -10520,11 +10520,11 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="N127" t="n">
         <v>11000</v>
@@ -10600,20 +10600,20 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N128" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O128" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P128" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T128" t="n">
         <v>15</v>
@@ -10675,25 +10675,25 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N129" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O129" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P129" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T129" t="n">
         <v>15</v>
@@ -10760,20 +10760,20 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N130" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O130" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P130" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T130" t="n">
         <v>15</v>
@@ -10840,20 +10840,20 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N131" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O131" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P131" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>600</v>
+        <v>933</v>
       </c>
       <c r="T131" t="n">
         <v>15</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44529</v>
+        <v>44237</v>
       </c>
       <c r="E132" t="n">
         <v>7</v>
@@ -10915,29 +10915,29 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M132" t="n">
         <v>200</v>
       </c>
       <c r="N132" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O132" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P132" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -10946,10 +10946,10 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>833</v>
+        <v>600</v>
       </c>
       <c r="T132" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133">
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44245</v>
+        <v>44529</v>
       </c>
       <c r="E133" t="n">
         <v>7</v>
@@ -10995,7 +10995,7 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -11004,7 +11004,7 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N133" t="n">
         <v>10000</v>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -11026,10 +11026,10 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="T133" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134">
@@ -11080,20 +11080,20 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M134" t="n">
         <v>300</v>
       </c>
       <c r="N134" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O134" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P134" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T134" t="n">
         <v>15</v>
@@ -11160,20 +11160,20 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N135" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O135" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P135" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="T135" t="n">
         <v>15</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44229</v>
+        <v>44245</v>
       </c>
       <c r="E136" t="n">
         <v>7</v>
@@ -11235,29 +11235,29 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N136" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O136" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P136" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T136" t="n">
         <v>15</v>
@@ -11320,20 +11320,20 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="N137" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O137" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P137" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T137" t="n">
         <v>15</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44249</v>
+        <v>44229</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -11395,7 +11395,7 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
@@ -11404,20 +11404,20 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="N138" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O138" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P138" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -11426,10 +11426,10 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="T138" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139">
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44523</v>
+        <v>44249</v>
       </c>
       <c r="E139" t="n">
         <v>7</v>
@@ -11475,29 +11475,29 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="N139" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O139" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P139" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
@@ -11506,10 +11506,10 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>1333</v>
+        <v>938</v>
       </c>
       <c r="T139" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140">
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44216</v>
+        <v>44523</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -11555,7 +11555,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -11564,20 +11564,20 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="N140" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O140" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P140" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>867</v>
+        <v>1333</v>
       </c>
       <c r="T140" t="n">
         <v>15</v>
@@ -11640,20 +11640,20 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N141" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O141" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P141" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T141" t="n">
         <v>15</v>
@@ -11715,25 +11715,25 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N142" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O142" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P142" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11742,11 +11742,11 @@
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S142" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T142" t="n">
         <v>15</v>
@@ -11804,20 +11804,20 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="N143" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O143" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P143" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T143" t="n">
         <v>15</v>
@@ -11880,24 +11880,24 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N144" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O144" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P144" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T144" t="n">
         <v>15</v>
@@ -11964,20 +11964,20 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N145" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O145" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P145" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T145" t="n">
         <v>15</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44257</v>
+        <v>44216</v>
       </c>
       <c r="E146" t="n">
         <v>7</v>
@@ -12035,25 +12035,25 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="N146" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O146" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P146" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12062,11 +12062,11 @@
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S146" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T146" t="n">
         <v>15</v>
@@ -12120,20 +12120,20 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N147" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O147" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P147" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T147" t="n">
         <v>15</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44169</v>
+        <v>44257</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -12195,41 +12195,41 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="N148" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O148" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P148" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S148" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T148" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149">
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
@@ -12275,41 +12275,41 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N149" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O149" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P149" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S149" t="n">
-        <v>1133</v>
+        <v>833</v>
       </c>
       <c r="T149" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150">
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44524</v>
+        <v>44195</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
@@ -12355,7 +12355,7 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
@@ -12364,20 +12364,20 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N150" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O150" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P150" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>1333</v>
+        <v>1133</v>
       </c>
       <c r="T150" t="n">
         <v>15</v>
@@ -12440,20 +12440,20 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N151" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O151" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P151" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>1200</v>
+        <v>1333</v>
       </c>
       <c r="T151" t="n">
         <v>15</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E152" t="n">
         <v>7</v>
@@ -12520,24 +12520,24 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N152" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O152" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P152" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>933</v>
+        <v>1200</v>
       </c>
       <c r="T152" t="n">
         <v>15</v>
@@ -12600,20 +12600,20 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N153" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O153" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P153" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T153" t="n">
         <v>15</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
@@ -12675,29 +12675,29 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N154" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O154" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P154" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T154" t="n">
         <v>15</v>
@@ -12760,20 +12760,20 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M155" t="n">
         <v>300</v>
       </c>
       <c r="N155" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O155" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P155" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T155" t="n">
         <v>15</v>
@@ -12840,20 +12840,20 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N156" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O156" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P156" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T156" t="n">
         <v>15</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -12915,25 +12915,25 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N157" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O157" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P157" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="T157" t="n">
         <v>15</v>
@@ -13000,20 +13000,20 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M158" t="n">
         <v>400</v>
       </c>
       <c r="N158" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O158" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P158" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T158" t="n">
         <v>15</v>
@@ -13080,20 +13080,20 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N159" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O159" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P159" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T159" t="n">
         <v>15</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E160" t="n">
         <v>7</v>
@@ -13155,25 +13155,25 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N160" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O160" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P160" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T160" t="n">
         <v>15</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E161" t="n">
         <v>7</v>
@@ -13244,16 +13244,16 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N161" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O161" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P161" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T161" t="n">
         <v>15</v>
@@ -13320,20 +13320,20 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N162" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O162" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P162" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T162" t="n">
         <v>15</v>
@@ -13400,20 +13400,20 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N163" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O163" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P163" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T163" t="n">
         <v>15</v>
@@ -13475,7 +13475,7 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -13484,7 +13484,7 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N164" t="n">
         <v>10000</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E165" t="n">
         <v>7</v>
@@ -13555,29 +13555,29 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N165" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O165" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P165" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R165" t="inlineStr">
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T165" t="n">
         <v>15</v>
@@ -13640,20 +13640,20 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M166" t="n">
         <v>50</v>
       </c>
       <c r="N166" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O166" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P166" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T166" t="n">
         <v>15</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44284</v>
+        <v>44176</v>
       </c>
       <c r="E167" t="n">
         <v>7</v>
@@ -13715,29 +13715,29 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N167" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O167" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P167" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R167" t="inlineStr">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T167" t="n">
         <v>15</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44246</v>
+        <v>44284</v>
       </c>
       <c r="E168" t="n">
         <v>7</v>
@@ -13804,16 +13804,16 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N168" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O168" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P168" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T168" t="n">
         <v>15</v>
@@ -13880,20 +13880,20 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M169" t="n">
         <v>300</v>
       </c>
       <c r="N169" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O169" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P169" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T169" t="n">
         <v>15</v>
@@ -13960,20 +13960,20 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M170" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N170" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O170" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P170" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="T170" t="n">
         <v>15</v>
@@ -14035,25 +14035,25 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N171" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O171" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P171" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T171" t="n">
         <v>15</v>
@@ -14120,20 +14120,20 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M172" t="n">
         <v>300</v>
       </c>
       <c r="N172" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O172" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P172" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T172" t="n">
         <v>15</v>
@@ -14200,20 +14200,20 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N173" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O173" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P173" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="T173" t="n">
         <v>15</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44225</v>
+        <v>44246</v>
       </c>
       <c r="E174" t="n">
         <v>7</v>
@@ -14275,25 +14275,25 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N174" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O174" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P174" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T174" t="n">
         <v>15</v>
@@ -14360,20 +14360,20 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N175" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O175" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P175" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T175" t="n">
         <v>15</v>
@@ -14435,25 +14435,25 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="N176" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O176" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P176" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T176" t="n">
         <v>15</v>
@@ -14520,20 +14520,20 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="N177" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O177" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P177" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T177" t="n">
         <v>15</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E178" t="n">
         <v>7</v>
@@ -14595,25 +14595,25 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="N178" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O178" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P178" t="n">
-        <v>13444</v>
+        <v>12000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>896</v>
+        <v>800</v>
       </c>
       <c r="T178" t="n">
         <v>15</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
@@ -14675,29 +14675,29 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>310</v>
+        <v>450</v>
       </c>
       <c r="N179" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O179" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P179" t="n">
-        <v>15194</v>
+        <v>13444</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>1013</v>
+        <v>896</v>
       </c>
       <c r="T179" t="n">
         <v>15</v>
@@ -14760,20 +14760,20 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="N180" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O180" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P180" t="n">
-        <v>14000</v>
+        <v>15194</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>933</v>
+        <v>1013</v>
       </c>
       <c r="T180" t="n">
         <v>15</v>
@@ -14844,20 +14844,20 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N181" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O181" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P181" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
@@ -14866,10 +14866,10 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>889</v>
+        <v>933</v>
       </c>
       <c r="T181" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="182">
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E182" t="n">
         <v>7</v>
@@ -14920,36 +14920,36 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N182" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O182" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P182" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S182" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T182" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183">
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E183" t="n">
         <v>7</v>
@@ -14995,41 +14995,41 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M183" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N183" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O183" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P183" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S183" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T183" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184">
@@ -15080,20 +15080,20 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M184" t="n">
         <v>400</v>
       </c>
       <c r="N184" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O184" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P184" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T184" t="n">
         <v>15</v>
@@ -15160,20 +15160,20 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N185" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O185" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P185" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T185" t="n">
         <v>15</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E186" t="n">
         <v>7</v>
@@ -15240,20 +15240,20 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N186" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O186" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P186" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="T186" t="n">
         <v>15</v>
@@ -15320,20 +15320,20 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N187" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O187" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P187" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T187" t="n">
         <v>15</v>
@@ -15400,20 +15400,20 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M188" t="n">
         <v>300</v>
       </c>
       <c r="N188" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O188" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P188" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T188" t="n">
         <v>15</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E189" t="n">
         <v>7</v>
@@ -15475,29 +15475,29 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N189" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O189" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P189" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R189" t="inlineStr">
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>933</v>
+        <v>600</v>
       </c>
       <c r="T189" t="n">
         <v>15</v>
@@ -15560,20 +15560,20 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="N190" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O190" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P190" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T190" t="n">
         <v>15</v>
@@ -15635,29 +15635,29 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M191" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="N191" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O191" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P191" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R191" t="inlineStr">
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T191" t="n">
         <v>15</v>
@@ -15720,20 +15720,20 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M192" t="n">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="N192" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O192" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P192" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T192" t="n">
         <v>15</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E193" t="n">
         <v>7</v>
@@ -15795,25 +15795,25 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="N193" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O193" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P193" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T193" t="n">
         <v>15</v>
@@ -15880,20 +15880,20 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M194" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N194" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O194" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P194" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T194" t="n">
         <v>15</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E195" t="n">
         <v>7</v>
@@ -15955,25 +15955,25 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M195" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N195" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O195" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P195" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T195" t="n">
         <v>15</v>
@@ -16035,7 +16035,7 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>Redtop</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
@@ -16044,20 +16044,20 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N196" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O196" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P196" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R196" t="inlineStr">
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T196" t="n">
         <v>15</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E197" t="n">
         <v>7</v>
@@ -16115,16 +16115,16 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Redtop</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N197" t="n">
         <v>14000</v>
@@ -16137,7 +16137,7 @@
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R197" t="inlineStr">
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44201</v>
+        <v>44271</v>
       </c>
       <c r="E198" t="n">
         <v>7</v>
@@ -16195,25 +16195,25 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N198" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O198" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P198" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T198" t="n">
         <v>15</v>
@@ -16275,40 +16275,120 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
+          <t>Carson</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>300</v>
+      </c>
+      <c r="N199" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O199" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P199" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S199" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T199" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>5</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E200" t="n">
+        <v>7</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
           <t>Kurakata</t>
         </is>
       </c>
-      <c r="L199" t="inlineStr">
+      <c r="L200" t="inlineStr">
         <is>
           <t>Extra (doble especial)</t>
         </is>
       </c>
-      <c r="M199" t="n">
+      <c r="M200" t="n">
         <v>30</v>
       </c>
-      <c r="N199" t="n">
+      <c r="N200" t="n">
         <v>16000</v>
       </c>
-      <c r="O199" t="n">
+      <c r="O200" t="n">
         <v>16000</v>
       </c>
-      <c r="P199" t="n">
+      <c r="P200" t="n">
         <v>16000</v>
       </c>
-      <c r="Q199" t="inlineStr">
+      <c r="Q200" t="inlineStr">
         <is>
           <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
-      <c r="R199" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S199" t="n">
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S200" t="n">
         <v>1067</v>
       </c>
-      <c r="T199" t="n">
+      <c r="T200" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Durazno.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44231</v>
+        <v>44203</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="N2" t="n">
         <v>12000</v>
       </c>
       <c r="O2" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P2" t="n">
-        <v>12000</v>
+        <v>12556</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>800</v>
+        <v>837</v>
       </c>
       <c r="T2" t="n">
         <v>15</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44231</v>
+        <v>44203</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>15</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44231</v>
+        <v>44203</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -675,29 +675,29 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O4" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P4" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44231</v>
+        <v>44251</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -755,16 +755,16 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N5" t="n">
         <v>14000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44231</v>
+        <v>44251</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -835,29 +835,29 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="N6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44223</v>
+        <v>44251</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="N7" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O7" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P7" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44223</v>
+        <v>44251</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -995,25 +995,25 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="N8" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O8" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P8" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44223</v>
+        <v>44217</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>520</v>
       </c>
       <c r="N9" t="n">
         <v>12000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44223</v>
+        <v>44217</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1155,25 +1155,25 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O10" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P10" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T10" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44165</v>
+        <v>44161</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,24 +1240,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="N11" t="n">
         <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>15194</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>833</v>
+        <v>1013</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44165</v>
+        <v>44161</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,11 +1320,11 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N12" t="n">
         <v>14000</v>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>778</v>
+        <v>933</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44274</v>
+        <v>44161</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1395,29 +1395,29 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O13" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P13" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44274</v>
+        <v>44257</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1475,16 +1475,16 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="N14" t="n">
         <v>14000</v>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44274</v>
+        <v>44257</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1555,29 +1555,29 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="N15" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44263</v>
+        <v>44209</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N16" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O16" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P16" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44263</v>
+        <v>44209</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1715,25 +1715,25 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N17" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P17" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>15</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44263</v>
+        <v>44209</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1795,25 +1795,25 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N18" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O18" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P18" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>533</v>
+        <v>733</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44196</v>
+        <v>44162</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1875,16 +1875,16 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N19" t="n">
         <v>15000</v>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44196</v>
+        <v>44162</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1955,29 +1955,29 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N20" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O20" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P20" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>867</v>
+        <v>778</v>
       </c>
       <c r="T20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44193</v>
+        <v>44271</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2035,25 +2035,25 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N21" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O21" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P21" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44193</v>
+        <v>44260</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Redtop</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
         <v>14000</v>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44193</v>
+        <v>44260</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -2195,29 +2195,29 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Redtop</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="N23" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O23" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P23" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44530</v>
+        <v>44187</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2287,17 +2287,17 @@
         <v>300</v>
       </c>
       <c r="N24" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O24" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P24" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>933</v>
+        <v>556</v>
       </c>
       <c r="T24" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="N25" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O25" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P25" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N26" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O26" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P26" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1000</v>
+        <v>1067</v>
       </c>
       <c r="T26" t="n">
         <v>15</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N27" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O27" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P27" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1067</v>
+        <v>933</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44187</v>
+        <v>44526</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
@@ -2595,29 +2595,29 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N28" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O28" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>933</v>
+        <v>1250</v>
       </c>
       <c r="T28" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44258</v>
+        <v>44526</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2684,20 +2684,20 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="N29" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O29" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P29" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>933</v>
+        <v>1250</v>
       </c>
       <c r="T29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44258</v>
+        <v>44526</v>
       </c>
       <c r="E30" t="n">
         <v>7</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2764,20 +2764,20 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="N30" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O30" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P30" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>867</v>
+        <v>1062</v>
       </c>
       <c r="T30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44258</v>
+        <v>44523</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2844,20 +2844,20 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="N31" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O31" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P31" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>933</v>
+        <v>1333</v>
       </c>
       <c r="T31" t="n">
         <v>15</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44258</v>
+        <v>44235</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
@@ -2915,16 +2915,16 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N32" t="n">
         <v>12000</v>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44160</v>
+        <v>44235</v>
       </c>
       <c r="E33" t="n">
         <v>7</v>
@@ -2995,29 +2995,29 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N33" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O33" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P33" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44160</v>
+        <v>44235</v>
       </c>
       <c r="E34" t="n">
         <v>7</v>
@@ -3075,29 +3075,29 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N34" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O34" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P34" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T34" t="n">
         <v>15</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44160</v>
+        <v>44253</v>
       </c>
       <c r="E35" t="n">
         <v>7</v>
@@ -3155,29 +3155,29 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="N35" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O35" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P35" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N36" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O36" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P36" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3315,25 +3315,25 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N37" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O37" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P37" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="N38" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O38" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P38" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44253</v>
+        <v>44223</v>
       </c>
       <c r="E39" t="n">
         <v>7</v>
@@ -3475,25 +3475,25 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N39" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O39" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P39" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T39" t="n">
         <v>15</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44243</v>
+        <v>44223</v>
       </c>
       <c r="E40" t="n">
         <v>7</v>
@@ -3555,25 +3555,25 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N40" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O40" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P40" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T40" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44243</v>
+        <v>44223</v>
       </c>
       <c r="E41" t="n">
         <v>7</v>
@@ -3635,16 +3635,16 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N41" t="n">
         <v>12000</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44243</v>
+        <v>44223</v>
       </c>
       <c r="E42" t="n">
         <v>7</v>
@@ -3715,25 +3715,25 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N42" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O42" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P42" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>533</v>
+        <v>867</v>
       </c>
       <c r="T42" t="n">
         <v>15</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44179</v>
+        <v>44222</v>
       </c>
       <c r="E43" t="n">
         <v>7</v>
@@ -3795,29 +3795,29 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N43" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O43" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P43" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T43" t="n">
         <v>15</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44179</v>
+        <v>44238</v>
       </c>
       <c r="E44" t="n">
         <v>7</v>
@@ -3875,29 +3875,29 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="N44" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O44" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P44" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T44" t="n">
         <v>15</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44215</v>
+        <v>44238</v>
       </c>
       <c r="E45" t="n">
         <v>7</v>
@@ -3955,25 +3955,25 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N45" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O45" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P45" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T45" t="n">
         <v>15</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44215</v>
+        <v>44238</v>
       </c>
       <c r="E46" t="n">
         <v>7</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N46" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O46" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P46" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T46" t="n">
         <v>15</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44215</v>
+        <v>44169</v>
       </c>
       <c r="E47" t="n">
         <v>7</v>
@@ -4115,41 +4115,41 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="N47" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O47" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P47" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>867</v>
+        <v>833</v>
       </c>
       <c r="T47" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44215</v>
+        <v>44524</v>
       </c>
       <c r="E48" t="n">
         <v>7</v>
@@ -4195,29 +4195,29 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M48" t="n">
         <v>100</v>
       </c>
       <c r="N48" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O48" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P48" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>800</v>
+        <v>1333</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44188</v>
+        <v>44524</v>
       </c>
       <c r="E49" t="n">
         <v>7</v>
@@ -4275,29 +4275,29 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N49" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O49" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P49" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="T49" t="n">
         <v>15</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44188</v>
+        <v>44214</v>
       </c>
       <c r="E50" t="n">
         <v>7</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4364,20 +4364,20 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>90</v>
+        <v>260</v>
       </c>
       <c r="N50" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O50" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P50" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44188</v>
+        <v>44214</v>
       </c>
       <c r="E51" t="n">
         <v>7</v>
@@ -4435,29 +4435,29 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N51" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O51" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P51" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44221</v>
+        <v>44194</v>
       </c>
       <c r="E52" t="n">
         <v>7</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N52" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O52" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P52" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44221</v>
+        <v>44194</v>
       </c>
       <c r="E53" t="n">
         <v>7</v>
@@ -4595,29 +4595,29 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Redtop</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N53" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O53" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P53" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44267</v>
+        <v>44258</v>
       </c>
       <c r="E54" t="n">
         <v>7</v>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4684,20 +4684,20 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="N54" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O54" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P54" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T54" t="n">
         <v>15</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44230</v>
+        <v>44258</v>
       </c>
       <c r="E55" t="n">
         <v>7</v>
@@ -4755,29 +4755,29 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="N55" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O55" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P55" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T55" t="n">
         <v>15</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44230</v>
+        <v>44258</v>
       </c>
       <c r="E56" t="n">
         <v>7</v>
@@ -4835,29 +4835,29 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N56" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O56" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P56" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T56" t="n">
         <v>15</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44230</v>
+        <v>44258</v>
       </c>
       <c r="E57" t="n">
         <v>7</v>
@@ -4915,16 +4915,16 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N57" t="n">
         <v>12000</v>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44230</v>
+        <v>44202</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
@@ -4995,29 +4995,29 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="N58" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O58" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P58" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T58" t="n">
         <v>15</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44525</v>
+        <v>44202</v>
       </c>
       <c r="E59" t="n">
         <v>7</v>
@@ -5075,29 +5075,29 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N59" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O59" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P59" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1250</v>
+        <v>867</v>
       </c>
       <c r="T59" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44224</v>
+        <v>44174</v>
       </c>
       <c r="E60" t="n">
         <v>7</v>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -5164,20 +5164,20 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="N60" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O60" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P60" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T60" t="n">
         <v>15</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44224</v>
+        <v>44174</v>
       </c>
       <c r="E61" t="n">
         <v>7</v>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5244,20 +5244,20 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N61" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O61" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P61" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T61" t="n">
         <v>15</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44224</v>
+        <v>44193</v>
       </c>
       <c r="E62" t="n">
         <v>7</v>
@@ -5324,16 +5324,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N62" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O62" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P62" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T62" t="n">
         <v>15</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44224</v>
+        <v>44193</v>
       </c>
       <c r="E63" t="n">
         <v>7</v>
@@ -5395,29 +5395,29 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Redtop</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N63" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O63" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P63" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44224</v>
+        <v>44193</v>
       </c>
       <c r="E64" t="n">
         <v>7</v>
@@ -5475,29 +5475,29 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Redtop</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="N64" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O64" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P64" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44526</v>
+        <v>44517</v>
       </c>
       <c r="E65" t="n">
         <v>7</v>
@@ -5560,36 +5560,36 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N65" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O65" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P65" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T65" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44526</v>
+        <v>44265</v>
       </c>
       <c r="E66" t="n">
         <v>7</v>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5644,20 +5644,20 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N66" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O66" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P66" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="T66" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44526</v>
+        <v>44265</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5724,20 +5724,20 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N67" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O67" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P67" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -5746,10 +5746,10 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1062</v>
+        <v>733</v>
       </c>
       <c r="T67" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44286</v>
+        <v>44246</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
@@ -5804,16 +5804,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N68" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O68" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P68" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T68" t="n">
         <v>15</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44286</v>
+        <v>44246</v>
       </c>
       <c r="E69" t="n">
         <v>7</v>
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N69" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O69" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P69" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T69" t="n">
         <v>15</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44186</v>
+        <v>44246</v>
       </c>
       <c r="E70" t="n">
         <v>7</v>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5967,17 +5967,17 @@
         <v>200</v>
       </c>
       <c r="N70" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O70" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P70" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T70" t="n">
         <v>15</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44186</v>
+        <v>44246</v>
       </c>
       <c r="E71" t="n">
         <v>7</v>
@@ -6035,29 +6035,29 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M71" t="n">
         <v>300</v>
       </c>
       <c r="N71" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O71" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P71" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T71" t="n">
         <v>15</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44519</v>
+        <v>44246</v>
       </c>
       <c r="E72" t="n">
         <v>7</v>
@@ -6115,41 +6115,41 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N72" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O72" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P72" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="T72" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44519</v>
+        <v>44246</v>
       </c>
       <c r="E73" t="n">
         <v>7</v>
@@ -6195,41 +6195,41 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N73" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O73" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P73" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1000</v>
+        <v>533</v>
       </c>
       <c r="T73" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="E74" t="n">
         <v>7</v>
@@ -6280,24 +6280,24 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N74" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O74" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P74" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -6306,10 +6306,10 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="T74" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75">
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44250</v>
+        <v>44225</v>
       </c>
       <c r="E75" t="n">
         <v>7</v>
@@ -6355,29 +6355,29 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N75" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O75" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P75" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T75" t="n">
         <v>15</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44218</v>
+        <v>44225</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
@@ -6435,38 +6435,38 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="N76" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O76" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P76" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T76" t="n">
         <v>15</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44218</v>
+        <v>44225</v>
       </c>
       <c r="E77" t="n">
         <v>7</v>
@@ -6520,33 +6520,33 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="N77" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O77" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P77" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T77" t="n">
         <v>15</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44218</v>
+        <v>44225</v>
       </c>
       <c r="E78" t="n">
         <v>7</v>
@@ -6595,29 +6595,29 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="N78" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O78" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P78" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T78" t="n">
         <v>15</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44218</v>
+        <v>44172</v>
       </c>
       <c r="E79" t="n">
         <v>7</v>
@@ -6675,25 +6675,25 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N79" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O79" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P79" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T79" t="n">
         <v>15</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44203</v>
+        <v>44172</v>
       </c>
       <c r="E80" t="n">
         <v>7</v>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6764,20 +6764,20 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="N80" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O80" t="n">
         <v>13000</v>
       </c>
       <c r="P80" t="n">
-        <v>12556</v>
+        <v>13000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>837</v>
+        <v>867</v>
       </c>
       <c r="T80" t="n">
         <v>15</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44203</v>
+        <v>44186</v>
       </c>
       <c r="E81" t="n">
         <v>7</v>
@@ -6835,29 +6835,29 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="N81" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O81" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P81" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T81" t="n">
         <v>15</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44203</v>
+        <v>44186</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6924,20 +6924,20 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N82" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O82" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P82" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T82" t="n">
         <v>15</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44217</v>
+        <v>44179</v>
       </c>
       <c r="E83" t="n">
         <v>7</v>
@@ -6995,16 +6995,16 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>520</v>
+        <v>200</v>
       </c>
       <c r="N83" t="n">
         <v>12000</v>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44217</v>
+        <v>44179</v>
       </c>
       <c r="E84" t="n">
         <v>7</v>
@@ -7075,16 +7075,16 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N84" t="n">
         <v>10000</v>
@@ -7097,7 +7097,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44235</v>
+        <v>44195</v>
       </c>
       <c r="E85" t="n">
         <v>7</v>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -7164,16 +7164,16 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N85" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O85" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P85" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>800</v>
+        <v>1133</v>
       </c>
       <c r="T85" t="n">
         <v>15</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44235</v>
+        <v>44216</v>
       </c>
       <c r="E86" t="n">
         <v>7</v>
@@ -7235,16 +7235,16 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="N86" t="n">
         <v>13000</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44235</v>
+        <v>44216</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
@@ -7315,25 +7315,25 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N87" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O87" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P87" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T87" t="n">
         <v>15</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44200</v>
+        <v>44216</v>
       </c>
       <c r="E88" t="n">
         <v>7</v>
@@ -7404,16 +7404,16 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N88" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O88" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P88" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7422,11 +7422,11 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S88" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T88" t="n">
         <v>15</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44162</v>
+        <v>44216</v>
       </c>
       <c r="E89" t="n">
         <v>7</v>
@@ -7475,41 +7475,41 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="N89" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O89" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P89" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S89" t="n">
-        <v>833</v>
+        <v>867</v>
       </c>
       <c r="T89" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44162</v>
+        <v>44216</v>
       </c>
       <c r="E90" t="n">
         <v>7</v>
@@ -7555,41 +7555,41 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N90" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O90" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P90" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S90" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T90" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44244</v>
+        <v>44216</v>
       </c>
       <c r="E91" t="n">
         <v>7</v>
@@ -7640,33 +7640,33 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N91" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O91" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P91" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S91" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T91" t="n">
         <v>15</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44244</v>
+        <v>44232</v>
       </c>
       <c r="E92" t="n">
         <v>7</v>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -7724,16 +7724,16 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N92" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O92" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P92" t="n">
-        <v>12000</v>
+        <v>13444</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>800</v>
+        <v>896</v>
       </c>
       <c r="T92" t="n">
         <v>15</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44244</v>
+        <v>44176</v>
       </c>
       <c r="E93" t="n">
         <v>7</v>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -7804,20 +7804,20 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N93" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O93" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P93" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T93" t="n">
         <v>15</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44244</v>
+        <v>44176</v>
       </c>
       <c r="E94" t="n">
         <v>7</v>
@@ -7875,16 +7875,16 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N94" t="n">
         <v>12000</v>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44244</v>
+        <v>44165</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -7964,20 +7964,20 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N95" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O95" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P95" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -7986,10 +7986,10 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>533</v>
+        <v>833</v>
       </c>
       <c r="T95" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44202</v>
+        <v>44165</v>
       </c>
       <c r="E96" t="n">
         <v>7</v>
@@ -8035,29 +8035,29 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N96" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O96" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P96" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -8066,10 +8066,10 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T96" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97">
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44202</v>
+        <v>44530</v>
       </c>
       <c r="E97" t="n">
         <v>7</v>
@@ -8115,7 +8115,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -8124,16 +8124,16 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N97" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O97" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P97" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T97" t="n">
         <v>15</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44214</v>
+        <v>44245</v>
       </c>
       <c r="E103" t="n">
         <v>7</v>
@@ -8595,7 +8595,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -8604,20 +8604,20 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N103" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O103" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P103" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T103" t="n">
         <v>15</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44214</v>
+        <v>44245</v>
       </c>
       <c r="E104" t="n">
         <v>7</v>
@@ -8675,29 +8675,29 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N104" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O104" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P104" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T104" t="n">
         <v>15</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44167</v>
+        <v>44245</v>
       </c>
       <c r="E105" t="n">
         <v>7</v>
@@ -8755,29 +8755,29 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N105" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O105" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P105" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>1000</v>
+        <v>533</v>
       </c>
       <c r="T105" t="n">
         <v>15</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44167</v>
+        <v>44243</v>
       </c>
       <c r="E106" t="n">
         <v>7</v>
@@ -8835,29 +8835,29 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M106" t="n">
         <v>300</v>
       </c>
       <c r="N106" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O106" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P106" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T106" t="n">
         <v>15</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44174</v>
+        <v>44243</v>
       </c>
       <c r="E107" t="n">
         <v>7</v>
@@ -8915,29 +8915,29 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="N107" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O107" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P107" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T107" t="n">
         <v>15</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44174</v>
+        <v>44243</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
@@ -8995,7 +8995,7 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -9004,20 +9004,20 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N108" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O108" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P108" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>867</v>
+        <v>533</v>
       </c>
       <c r="T108" t="n">
         <v>15</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44208</v>
+        <v>44250</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
@@ -9075,16 +9075,16 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N109" t="n">
         <v>14000</v>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44211</v>
+        <v>44250</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
@@ -9155,29 +9155,29 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N110" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O110" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P110" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T110" t="n">
         <v>15</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44211</v>
+        <v>44236</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
@@ -9235,25 +9235,25 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="N111" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O111" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P111" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T111" t="n">
         <v>15</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44211</v>
+        <v>44236</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
@@ -9315,25 +9315,25 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N112" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O112" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P112" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T112" t="n">
         <v>15</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44211</v>
+        <v>44236</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -9395,25 +9395,25 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="N113" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O113" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P113" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T113" t="n">
         <v>15</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44211</v>
+        <v>44196</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -9475,29 +9475,29 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N114" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O114" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P114" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T114" t="n">
         <v>15</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44204</v>
+        <v>44196</v>
       </c>
       <c r="E115" t="n">
         <v>7</v>
@@ -9560,24 +9560,24 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N115" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O115" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P115" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T115" t="n">
         <v>15</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44204</v>
+        <v>44188</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -9635,29 +9635,29 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="N116" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O116" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P116" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T116" t="n">
         <v>15</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44260</v>
+        <v>44188</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
@@ -9715,7 +9715,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -9724,20 +9724,20 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N117" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O117" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P117" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T117" t="n">
         <v>15</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44260</v>
+        <v>44188</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -9795,7 +9795,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -9804,20 +9804,20 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="N118" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O118" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P118" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>1000</v>
+        <v>1067</v>
       </c>
       <c r="T118" t="n">
         <v>15</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44189</v>
+        <v>44263</v>
       </c>
       <c r="E119" t="n">
         <v>7</v>
@@ -9875,29 +9875,29 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N119" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O119" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P119" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
@@ -9906,10 +9906,10 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>611</v>
+        <v>800</v>
       </c>
       <c r="T119" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120">
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44189</v>
+        <v>44263</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
@@ -9955,29 +9955,29 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N120" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O120" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P120" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -9986,10 +9986,10 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T120" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121">
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44189</v>
+        <v>44263</v>
       </c>
       <c r="E121" t="n">
         <v>7</v>
@@ -10035,29 +10035,29 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N121" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O121" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P121" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
@@ -10066,10 +10066,10 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>833</v>
+        <v>533</v>
       </c>
       <c r="T121" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122">
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44189</v>
+        <v>44237</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -10115,29 +10115,29 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N122" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O122" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P122" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
@@ -10146,10 +10146,10 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>778</v>
+        <v>733</v>
       </c>
       <c r="T122" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123">
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44265</v>
+        <v>44237</v>
       </c>
       <c r="E123" t="n">
         <v>7</v>
@@ -10195,25 +10195,25 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N123" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O123" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P123" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T123" t="n">
         <v>15</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44265</v>
+        <v>44237</v>
       </c>
       <c r="E124" t="n">
         <v>7</v>
@@ -10275,25 +10275,25 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="N124" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O124" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P124" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T124" t="n">
         <v>15</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44209</v>
+        <v>44237</v>
       </c>
       <c r="E125" t="n">
         <v>7</v>
@@ -10355,25 +10355,25 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N125" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O125" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P125" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T125" t="n">
         <v>15</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44209</v>
+        <v>44237</v>
       </c>
       <c r="E126" t="n">
         <v>7</v>
@@ -10435,25 +10435,25 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N126" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O126" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P126" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T126" t="n">
         <v>15</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44209</v>
+        <v>44529</v>
       </c>
       <c r="E127" t="n">
         <v>7</v>
@@ -10515,29 +10515,29 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N127" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O127" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P127" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
@@ -10546,10 +10546,10 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>733</v>
+        <v>833</v>
       </c>
       <c r="T127" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128">
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44237</v>
+        <v>44221</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
@@ -10604,16 +10604,16 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N128" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O128" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P128" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T128" t="n">
         <v>15</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44237</v>
+        <v>44221</v>
       </c>
       <c r="E129" t="n">
         <v>7</v>
@@ -10675,7 +10675,7 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
@@ -10684,7 +10684,7 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N129" t="n">
         <v>13000</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44237</v>
+        <v>44201</v>
       </c>
       <c r="E130" t="n">
         <v>7</v>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -10764,16 +10764,16 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N130" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O130" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P130" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T130" t="n">
         <v>15</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44237</v>
+        <v>44201</v>
       </c>
       <c r="E131" t="n">
         <v>7</v>
@@ -10835,7 +10835,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -10844,20 +10844,20 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="N131" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O131" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P131" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>933</v>
+        <v>1067</v>
       </c>
       <c r="T131" t="n">
         <v>15</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44237</v>
+        <v>44208</v>
       </c>
       <c r="E132" t="n">
         <v>7</v>
@@ -10915,7 +10915,7 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
@@ -10924,20 +10924,20 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N132" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O132" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P132" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>600</v>
+        <v>933</v>
       </c>
       <c r="T132" t="n">
         <v>15</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44529</v>
+        <v>44284</v>
       </c>
       <c r="E133" t="n">
         <v>7</v>
@@ -10995,7 +10995,7 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -11004,20 +11004,20 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N133" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O133" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P133" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -11026,10 +11026,10 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T133" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134">
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44245</v>
+        <v>44210</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
@@ -11075,7 +11075,7 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -11084,20 +11084,20 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N134" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O134" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P134" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T134" t="n">
         <v>15</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44245</v>
+        <v>44210</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -11155,7 +11155,7 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -11164,20 +11164,20 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N135" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O135" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P135" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T135" t="n">
         <v>15</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44245</v>
+        <v>44210</v>
       </c>
       <c r="E136" t="n">
         <v>7</v>
@@ -11235,7 +11235,7 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
@@ -11247,17 +11247,17 @@
         <v>200</v>
       </c>
       <c r="N136" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O136" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P136" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T136" t="n">
         <v>15</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44229</v>
+        <v>44210</v>
       </c>
       <c r="E137" t="n">
         <v>7</v>
@@ -11315,25 +11315,25 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N137" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O137" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P137" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T137" t="n">
         <v>15</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44229</v>
+        <v>44242</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -11400,20 +11400,20 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="N138" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O138" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P138" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T138" t="n">
         <v>15</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44249</v>
+        <v>44242</v>
       </c>
       <c r="E139" t="n">
         <v>7</v>
@@ -11475,7 +11475,7 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -11484,20 +11484,20 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N139" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O139" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P139" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
@@ -11506,10 +11506,10 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>938</v>
+        <v>867</v>
       </c>
       <c r="T139" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140">
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44523</v>
+        <v>44242</v>
       </c>
       <c r="E140" t="n">
         <v>7</v>
@@ -11555,29 +11555,29 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="N140" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O140" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P140" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>1333</v>
+        <v>600</v>
       </c>
       <c r="T140" t="n">
         <v>15</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44216</v>
+        <v>44519</v>
       </c>
       <c r="E141" t="n">
         <v>7</v>
@@ -11635,16 +11635,16 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N141" t="n">
         <v>13000</v>
@@ -11657,19 +11657,19 @@
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S141" t="n">
-        <v>867</v>
+        <v>1300</v>
       </c>
       <c r="T141" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142">
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44216</v>
+        <v>44519</v>
       </c>
       <c r="E142" t="n">
         <v>7</v>
@@ -11715,41 +11715,41 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N142" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O142" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P142" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S142" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T142" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143">
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44216</v>
+        <v>44231</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -11804,16 +11804,16 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="N143" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O143" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P143" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11822,11 +11822,11 @@
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S143" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T143" t="n">
         <v>15</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44216</v>
+        <v>44231</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -11875,7 +11875,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -11884,16 +11884,16 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="N144" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O144" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P144" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11902,11 +11902,11 @@
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S144" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T144" t="n">
         <v>15</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44216</v>
+        <v>44231</v>
       </c>
       <c r="E145" t="n">
         <v>7</v>
@@ -11955,25 +11955,25 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="N145" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O145" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P145" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11982,11 +11982,11 @@
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S145" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T145" t="n">
         <v>15</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44216</v>
+        <v>44231</v>
       </c>
       <c r="E146" t="n">
         <v>7</v>
@@ -12035,25 +12035,25 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N146" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O146" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P146" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12062,11 +12062,11 @@
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S146" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T146" t="n">
         <v>15</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44257</v>
+        <v>44231</v>
       </c>
       <c r="E147" t="n">
         <v>7</v>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -12124,20 +12124,20 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="N147" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O147" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P147" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T147" t="n">
         <v>15</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44257</v>
+        <v>44215</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -12195,29 +12195,29 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N148" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O148" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P148" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T148" t="n">
         <v>15</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44169</v>
+        <v>44215</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
@@ -12275,7 +12275,7 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -12284,32 +12284,32 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N149" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O149" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P149" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S149" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="T149" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="150">
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44195</v>
+        <v>44215</v>
       </c>
       <c r="E150" t="n">
         <v>7</v>
@@ -12364,16 +12364,16 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="N150" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O150" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P150" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>1133</v>
+        <v>867</v>
       </c>
       <c r="T150" t="n">
         <v>15</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44524</v>
+        <v>44215</v>
       </c>
       <c r="E151" t="n">
         <v>7</v>
@@ -12435,29 +12435,29 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M151" t="n">
         <v>100</v>
       </c>
       <c r="N151" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O151" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P151" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>1333</v>
+        <v>800</v>
       </c>
       <c r="T151" t="n">
         <v>15</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44524</v>
+        <v>44204</v>
       </c>
       <c r="E152" t="n">
         <v>7</v>
@@ -12515,29 +12515,29 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="N152" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O152" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P152" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T152" t="n">
         <v>15</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44172</v>
+        <v>44204</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
@@ -12595,29 +12595,29 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="N153" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O153" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P153" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T153" t="n">
         <v>15</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44172</v>
+        <v>44244</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
@@ -12675,29 +12675,29 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N154" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O154" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P154" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T154" t="n">
         <v>15</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44242</v>
+        <v>44244</v>
       </c>
       <c r="E155" t="n">
         <v>7</v>
@@ -12760,20 +12760,20 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M155" t="n">
         <v>300</v>
       </c>
       <c r="N155" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O155" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P155" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T155" t="n">
         <v>15</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44242</v>
+        <v>44244</v>
       </c>
       <c r="E156" t="n">
         <v>7</v>
@@ -12835,25 +12835,25 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M156" t="n">
         <v>300</v>
       </c>
       <c r="N156" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O156" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P156" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T156" t="n">
         <v>15</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44242</v>
+        <v>44244</v>
       </c>
       <c r="E157" t="n">
         <v>7</v>
@@ -12915,25 +12915,25 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N157" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O157" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P157" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T157" t="n">
         <v>15</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E158" t="n">
         <v>7</v>
@@ -13000,20 +13000,20 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N158" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O158" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P158" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>733</v>
+        <v>533</v>
       </c>
       <c r="T158" t="n">
         <v>15</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44239</v>
+        <v>44200</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
@@ -13075,25 +13075,25 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N159" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O159" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P159" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T159" t="n">
         <v>15</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44239</v>
+        <v>44218</v>
       </c>
       <c r="E160" t="n">
         <v>7</v>
@@ -13155,38 +13155,38 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N160" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O160" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P160" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S160" t="n">
-        <v>600</v>
+        <v>933</v>
       </c>
       <c r="T160" t="n">
         <v>15</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44222</v>
+        <v>44218</v>
       </c>
       <c r="E161" t="n">
         <v>7</v>
@@ -13240,33 +13240,33 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N161" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O161" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P161" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S161" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T161" t="n">
         <v>15</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E162" t="n">
         <v>7</v>
@@ -13315,7 +13315,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
@@ -13324,20 +13324,20 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N162" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O162" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P162" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R162" t="inlineStr">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T162" t="n">
         <v>15</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E163" t="n">
         <v>7</v>
@@ -13395,29 +13395,29 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N163" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O163" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P163" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R163" t="inlineStr">
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T163" t="n">
         <v>15</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44210</v>
+        <v>44267</v>
       </c>
       <c r="E164" t="n">
         <v>7</v>
@@ -13475,25 +13475,25 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N164" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O164" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P164" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T164" t="n">
         <v>15</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44210</v>
+        <v>44525</v>
       </c>
       <c r="E165" t="n">
         <v>7</v>
@@ -13555,29 +13555,29 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M165" t="n">
         <v>300</v>
       </c>
       <c r="N165" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O165" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P165" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R165" t="inlineStr">
@@ -13586,10 +13586,10 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>667</v>
+        <v>1250</v>
       </c>
       <c r="T165" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166">
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44176</v>
+        <v>44286</v>
       </c>
       <c r="E166" t="n">
         <v>7</v>
@@ -13635,7 +13635,7 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
@@ -13644,20 +13644,20 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N166" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O166" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P166" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R166" t="inlineStr">
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T166" t="n">
         <v>15</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44176</v>
+        <v>44286</v>
       </c>
       <c r="E167" t="n">
         <v>7</v>
@@ -13715,7 +13715,7 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
@@ -13724,20 +13724,20 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="N167" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O167" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P167" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R167" t="inlineStr">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T167" t="n">
         <v>15</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44284</v>
+        <v>44229</v>
       </c>
       <c r="E168" t="n">
         <v>7</v>
@@ -13795,7 +13795,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -13807,13 +13807,13 @@
         <v>150</v>
       </c>
       <c r="N168" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O168" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P168" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T168" t="n">
         <v>15</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44246</v>
+        <v>44229</v>
       </c>
       <c r="E169" t="n">
         <v>7</v>
@@ -13875,25 +13875,25 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="N169" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O169" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P169" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T169" t="n">
         <v>15</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44246</v>
+        <v>44239</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
@@ -13960,20 +13960,20 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M170" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N170" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O170" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P170" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T170" t="n">
         <v>15</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44246</v>
+        <v>44239</v>
       </c>
       <c r="E171" t="n">
         <v>7</v>
@@ -14040,20 +14040,20 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N171" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O171" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P171" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>533</v>
+        <v>867</v>
       </c>
       <c r="T171" t="n">
         <v>15</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44246</v>
+        <v>44239</v>
       </c>
       <c r="E172" t="n">
         <v>7</v>
@@ -14115,25 +14115,25 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N172" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O172" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P172" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T172" t="n">
         <v>15</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44246</v>
+        <v>44230</v>
       </c>
       <c r="E173" t="n">
         <v>7</v>
@@ -14195,25 +14195,25 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="N173" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O173" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P173" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T173" t="n">
         <v>15</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44246</v>
+        <v>44230</v>
       </c>
       <c r="E174" t="n">
         <v>7</v>
@@ -14275,25 +14275,25 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N174" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O174" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P174" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>533</v>
+        <v>867</v>
       </c>
       <c r="T174" t="n">
         <v>15</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44225</v>
+        <v>44230</v>
       </c>
       <c r="E175" t="n">
         <v>7</v>
@@ -14355,7 +14355,7 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44225</v>
+        <v>44230</v>
       </c>
       <c r="E176" t="n">
         <v>7</v>
@@ -14435,7 +14435,7 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
@@ -14444,16 +14444,16 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="N176" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O176" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P176" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T176" t="n">
         <v>15</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44225</v>
+        <v>44160</v>
       </c>
       <c r="E177" t="n">
         <v>7</v>
@@ -14515,29 +14515,29 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="N177" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O177" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P177" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T177" t="n">
         <v>15</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44225</v>
+        <v>44160</v>
       </c>
       <c r="E178" t="n">
         <v>7</v>
@@ -14595,16 +14595,16 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="N178" t="n">
         <v>12000</v>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44232</v>
+        <v>44160</v>
       </c>
       <c r="E179" t="n">
         <v>7</v>
@@ -14675,29 +14675,29 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>450</v>
+        <v>60</v>
       </c>
       <c r="N179" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O179" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P179" t="n">
-        <v>13444</v>
+        <v>10000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>896</v>
+        <v>667</v>
       </c>
       <c r="T179" t="n">
         <v>15</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44161</v>
+        <v>44211</v>
       </c>
       <c r="E180" t="n">
         <v>7</v>
@@ -14755,7 +14755,7 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
@@ -14764,20 +14764,20 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="N180" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O180" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P180" t="n">
-        <v>15194</v>
+        <v>12000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R180" t="inlineStr">
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>1013</v>
+        <v>800</v>
       </c>
       <c r="T180" t="n">
         <v>15</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44161</v>
+        <v>44211</v>
       </c>
       <c r="E181" t="n">
         <v>7</v>
@@ -14835,16 +14835,16 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N181" t="n">
         <v>14000</v>
@@ -14857,7 +14857,7 @@
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44161</v>
+        <v>44211</v>
       </c>
       <c r="E182" t="n">
         <v>7</v>
@@ -14915,7 +14915,7 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
@@ -14924,20 +14924,20 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N182" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O182" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P182" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
@@ -14946,10 +14946,10 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>889</v>
+        <v>667</v>
       </c>
       <c r="T182" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183">
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44517</v>
+        <v>44211</v>
       </c>
       <c r="E183" t="n">
         <v>7</v>
@@ -14995,41 +14995,41 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M183" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="N183" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O183" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P183" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S183" t="n">
         <v>1000</v>
       </c>
       <c r="T183" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="184">
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44238</v>
+        <v>44211</v>
       </c>
       <c r="E184" t="n">
         <v>7</v>
@@ -15075,25 +15075,25 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="N184" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O184" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P184" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T184" t="n">
         <v>15</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E185" t="n">
         <v>7</v>
@@ -15155,29 +15155,29 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M185" t="n">
         <v>400</v>
       </c>
       <c r="N185" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O185" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P185" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R185" t="inlineStr">
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T185" t="n">
         <v>15</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E186" t="n">
         <v>7</v>
@@ -15235,7 +15235,7 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
@@ -15244,20 +15244,20 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N186" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O186" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P186" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>600</v>
+        <v>933</v>
       </c>
       <c r="T186" t="n">
         <v>15</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44236</v>
+        <v>44181</v>
       </c>
       <c r="E187" t="n">
         <v>7</v>
@@ -15315,25 +15315,25 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="N187" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O187" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P187" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T187" t="n">
         <v>15</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44236</v>
+        <v>44181</v>
       </c>
       <c r="E188" t="n">
         <v>7</v>
@@ -15395,25 +15395,25 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N188" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O188" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P188" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T188" t="n">
         <v>15</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44236</v>
+        <v>44189</v>
       </c>
       <c r="E189" t="n">
         <v>7</v>
@@ -15475,7 +15475,7 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
@@ -15484,20 +15484,20 @@
         </is>
       </c>
       <c r="M189" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N189" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O189" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P189" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R189" t="inlineStr">
@@ -15506,10 +15506,10 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="T189" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="190">
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44251</v>
+        <v>44189</v>
       </c>
       <c r="E190" t="n">
         <v>7</v>
@@ -15555,29 +15555,29 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="N190" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O190" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P190" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R190" t="inlineStr">
@@ -15586,10 +15586,10 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>933</v>
+        <v>500</v>
       </c>
       <c r="T190" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191">
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44251</v>
+        <v>44189</v>
       </c>
       <c r="E191" t="n">
         <v>7</v>
@@ -15635,16 +15635,16 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M191" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N191" t="n">
         <v>15000</v>
@@ -15657,7 +15657,7 @@
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R191" t="inlineStr">
@@ -15666,10 +15666,10 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T191" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="192">
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44251</v>
+        <v>44189</v>
       </c>
       <c r="E192" t="n">
         <v>7</v>
@@ -15715,29 +15715,29 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M192" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="N192" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O192" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P192" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R192" t="inlineStr">
@@ -15746,10 +15746,10 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>867</v>
+        <v>778</v>
       </c>
       <c r="T192" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193">
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44251</v>
+        <v>44224</v>
       </c>
       <c r="E193" t="n">
         <v>7</v>
@@ -15795,29 +15795,29 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N193" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O193" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P193" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R193" t="inlineStr">
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T193" t="n">
         <v>15</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44181</v>
+        <v>44224</v>
       </c>
       <c r="E194" t="n">
         <v>7</v>
@@ -15875,7 +15875,7 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
@@ -15884,20 +15884,20 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="N194" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O194" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P194" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R194" t="inlineStr">
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T194" t="n">
         <v>15</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44181</v>
+        <v>44224</v>
       </c>
       <c r="E195" t="n">
         <v>7</v>
@@ -15955,25 +15955,25 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M195" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N195" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O195" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P195" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T195" t="n">
         <v>15</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44194</v>
+        <v>44224</v>
       </c>
       <c r="E196" t="n">
         <v>7</v>
@@ -16040,20 +16040,20 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M196" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N196" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O196" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P196" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T196" t="n">
         <v>15</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44194</v>
+        <v>44224</v>
       </c>
       <c r="E197" t="n">
         <v>7</v>
@@ -16115,29 +16115,29 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>Redtop</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N197" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O197" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P197" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R197" t="inlineStr">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T197" t="n">
         <v>15</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44271</v>
+        <v>44274</v>
       </c>
       <c r="E198" t="n">
         <v>7</v>
@@ -16195,25 +16195,25 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N198" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O198" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P198" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T198" t="n">
         <v>15</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44201</v>
+        <v>44274</v>
       </c>
       <c r="E199" t="n">
         <v>7</v>
@@ -16275,25 +16275,25 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N199" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O199" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P199" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T199" t="n">
         <v>15</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44201</v>
+        <v>44274</v>
       </c>
       <c r="E200" t="n">
         <v>7</v>
@@ -16355,29 +16355,29 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M200" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="N200" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O200" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P200" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R200" t="inlineStr">
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T200" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T200"/>
+  <dimension ref="A1:T202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44260</v>
+        <v>44532</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,20 +2124,20 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N22" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O22" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P22" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>933</v>
+        <v>1067</v>
       </c>
       <c r="T22" t="n">
         <v>15</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44260</v>
+        <v>44532</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -2195,29 +2195,29 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="N23" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O23" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P23" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T23" t="n">
         <v>15</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44187</v>
+        <v>44260</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2275,29 +2275,29 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N24" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O24" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P24" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>556</v>
+        <v>933</v>
       </c>
       <c r="T24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44187</v>
+        <v>44260</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
@@ -2355,16 +2355,16 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="N25" t="n">
         <v>15000</v>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2435,29 +2435,29 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="N26" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O26" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P26" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1067</v>
+        <v>556</v>
       </c>
       <c r="T26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N27" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O27" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P27" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T27" t="n">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44526</v>
+        <v>44187</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
@@ -2595,29 +2595,29 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="N28" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O28" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P28" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1250</v>
+        <v>1067</v>
       </c>
       <c r="T28" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44526</v>
+        <v>44187</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
@@ -2675,29 +2675,29 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N29" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O29" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P29" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1250</v>
+        <v>933</v>
       </c>
       <c r="T29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -2760,24 +2760,24 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N30" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O30" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P30" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1062</v>
+        <v>1250</v>
       </c>
       <c r="T30" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44523</v>
+        <v>44526</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c r="N31" t="n">
         <v>20000</v>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1333</v>
+        <v>1250</v>
       </c>
       <c r="T31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44235</v>
+        <v>44526</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
@@ -2915,29 +2915,29 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N32" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O32" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P32" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2946,10 +2946,10 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>800</v>
+        <v>1062</v>
       </c>
       <c r="T32" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44235</v>
+        <v>44523</v>
       </c>
       <c r="E33" t="n">
         <v>7</v>
@@ -2995,29 +2995,29 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="N33" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O33" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P33" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>867</v>
+        <v>1333</v>
       </c>
       <c r="T33" t="n">
         <v>15</v>
@@ -3075,25 +3075,25 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N34" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O34" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P34" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T34" t="n">
         <v>15</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44253</v>
+        <v>44235</v>
       </c>
       <c r="E35" t="n">
         <v>7</v>
@@ -3155,16 +3155,16 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N35" t="n">
         <v>13000</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44253</v>
+        <v>44235</v>
       </c>
       <c r="E36" t="n">
         <v>7</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="N36" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O36" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P36" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T36" t="n">
         <v>15</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3327,13 +3327,13 @@
         <v>180</v>
       </c>
       <c r="N37" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O37" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P37" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T37" t="n">
         <v>15</v>
@@ -3395,25 +3395,25 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="N38" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O38" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P38" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44223</v>
+        <v>44253</v>
       </c>
       <c r="E39" t="n">
         <v>7</v>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N39" t="n">
         <v>14000</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44223</v>
+        <v>44253</v>
       </c>
       <c r="E40" t="n">
         <v>7</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="N40" t="n">
         <v>12000</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="N41" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O41" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P41" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T41" t="n">
         <v>15</v>
@@ -3715,25 +3715,25 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="N42" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O42" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P42" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T42" t="n">
         <v>15</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="E43" t="n">
         <v>7</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N43" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O43" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P43" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T43" t="n">
         <v>15</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44238</v>
+        <v>44223</v>
       </c>
       <c r="E44" t="n">
         <v>7</v>
@@ -3875,25 +3875,25 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="N44" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O44" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P44" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T44" t="n">
         <v>15</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44238</v>
+        <v>44222</v>
       </c>
       <c r="E45" t="n">
         <v>7</v>
@@ -3955,16 +3955,16 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N45" t="n">
         <v>13000</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N46" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O46" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P46" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="T46" t="n">
         <v>15</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44169</v>
+        <v>44238</v>
       </c>
       <c r="E47" t="n">
         <v>7</v>
@@ -4115,41 +4115,41 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="N47" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O47" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P47" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>833</v>
+        <v>867</v>
       </c>
       <c r="T47" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44524</v>
+        <v>44238</v>
       </c>
       <c r="E48" t="n">
         <v>7</v>
@@ -4195,29 +4195,29 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N48" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O48" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P48" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1333</v>
+        <v>600</v>
       </c>
       <c r="T48" t="n">
         <v>15</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44524</v>
+        <v>44169</v>
       </c>
       <c r="E49" t="n">
         <v>7</v>
@@ -4284,32 +4284,32 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="N49" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O49" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P49" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1200</v>
+        <v>833</v>
       </c>
       <c r="T49" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44214</v>
+        <v>44524</v>
       </c>
       <c r="E50" t="n">
         <v>7</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4364,20 +4364,20 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="N50" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O50" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P50" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>867</v>
+        <v>1333</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44214</v>
+        <v>44524</v>
       </c>
       <c r="E51" t="n">
         <v>7</v>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4444,20 +4444,20 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N51" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="O51" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P51" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>733</v>
+        <v>1200</v>
       </c>
       <c r="T51" t="n">
         <v>15</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44194</v>
+        <v>44214</v>
       </c>
       <c r="E52" t="n">
         <v>7</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="N52" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O52" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P52" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T52" t="n">
         <v>15</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44194</v>
+        <v>44214</v>
       </c>
       <c r="E53" t="n">
         <v>7</v>
@@ -4595,29 +4595,29 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Redtop</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
         <v>200</v>
       </c>
       <c r="N53" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O53" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P53" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T53" t="n">
         <v>15</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44258</v>
+        <v>44194</v>
       </c>
       <c r="E54" t="n">
         <v>7</v>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4684,20 +4684,20 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N54" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O54" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P54" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T54" t="n">
         <v>15</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44258</v>
+        <v>44194</v>
       </c>
       <c r="E55" t="n">
         <v>7</v>
@@ -4755,25 +4755,25 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Redtop</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N55" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O55" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P55" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T55" t="n">
         <v>15</v>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4844,7 +4844,7 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N56" t="n">
         <v>14000</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Kakamas</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4924,16 +4924,16 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="N57" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O57" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P57" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T57" t="n">
         <v>15</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44202</v>
+        <v>44258</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -5004,16 +5004,16 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N58" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O58" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P58" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T58" t="n">
         <v>15</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44202</v>
+        <v>44258</v>
       </c>
       <c r="E59" t="n">
         <v>7</v>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kakamas</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N59" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O59" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P59" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T59" t="n">
         <v>15</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44174</v>
+        <v>44202</v>
       </c>
       <c r="E60" t="n">
         <v>7</v>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -5164,7 +5164,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="N60" t="n">
         <v>15000</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44174</v>
+        <v>44202</v>
       </c>
       <c r="E61" t="n">
         <v>7</v>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N61" t="n">
         <v>13000</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44193</v>
+        <v>44174</v>
       </c>
       <c r="E62" t="n">
         <v>7</v>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -5324,7 +5324,7 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="N62" t="n">
         <v>15000</v>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44193</v>
+        <v>44174</v>
       </c>
       <c r="E63" t="n">
         <v>7</v>
@@ -5395,25 +5395,25 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Redtop</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N63" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O63" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P63" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T63" t="n">
         <v>15</v>
@@ -5475,29 +5475,29 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Redtop</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N64" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O64" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P64" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T64" t="n">
         <v>15</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44517</v>
+        <v>44193</v>
       </c>
       <c r="E65" t="n">
         <v>7</v>
@@ -5555,41 +5555,41 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Redtop</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N65" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O65" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P65" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T65" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44265</v>
+        <v>44193</v>
       </c>
       <c r="E66" t="n">
         <v>7</v>
@@ -5635,16 +5635,16 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Redtop</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N66" t="n">
         <v>12000</v>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44265</v>
+        <v>44517</v>
       </c>
       <c r="E67" t="n">
         <v>7</v>
@@ -5715,41 +5715,41 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N67" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O67" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P67" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T67" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44246</v>
+        <v>44265</v>
       </c>
       <c r="E68" t="n">
         <v>7</v>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5804,16 +5804,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N68" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O68" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P68" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T68" t="n">
         <v>15</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44246</v>
+        <v>44265</v>
       </c>
       <c r="E69" t="n">
         <v>7</v>
@@ -5875,25 +5875,25 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N69" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O69" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P69" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T69" t="n">
         <v>15</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N70" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O70" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P70" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T70" t="n">
         <v>15</v>
@@ -6035,25 +6035,25 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M71" t="n">
         <v>300</v>
       </c>
       <c r="N71" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O71" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P71" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T71" t="n">
         <v>15</v>
@@ -6115,25 +6115,25 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N72" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O72" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P72" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T72" t="n">
         <v>15</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N73" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O73" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P73" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T73" t="n">
         <v>15</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44249</v>
+        <v>44246</v>
       </c>
       <c r="E74" t="n">
         <v>7</v>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6284,20 +6284,20 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N74" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O74" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P74" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -6306,10 +6306,10 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>938</v>
+        <v>800</v>
       </c>
       <c r="T74" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44225</v>
+        <v>44246</v>
       </c>
       <c r="E75" t="n">
         <v>7</v>
@@ -6355,25 +6355,25 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N75" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O75" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P75" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T75" t="n">
         <v>15</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44225</v>
+        <v>44249</v>
       </c>
       <c r="E76" t="n">
         <v>7</v>
@@ -6435,29 +6435,29 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="N76" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O76" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P76" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -6466,10 +6466,10 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>667</v>
+        <v>938</v>
       </c>
       <c r="T76" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
@@ -6515,7 +6515,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="N77" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O77" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P77" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T77" t="n">
         <v>15</v>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="N78" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O78" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P78" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T78" t="n">
         <v>15</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44172</v>
+        <v>44225</v>
       </c>
       <c r="E79" t="n">
         <v>7</v>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6684,7 +6684,7 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="N79" t="n">
         <v>14000</v>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44172</v>
+        <v>44225</v>
       </c>
       <c r="E80" t="n">
         <v>7</v>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6764,20 +6764,20 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N80" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O80" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P80" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T80" t="n">
         <v>15</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44186</v>
+        <v>44172</v>
       </c>
       <c r="E81" t="n">
         <v>7</v>
@@ -6835,29 +6835,29 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N81" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O81" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P81" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T81" t="n">
         <v>15</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44186</v>
+        <v>44172</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6924,20 +6924,20 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N82" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O82" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P82" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T82" t="n">
         <v>15</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44179</v>
+        <v>44186</v>
       </c>
       <c r="E83" t="n">
         <v>7</v>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -7017,7 +7017,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44179</v>
+        <v>44186</v>
       </c>
       <c r="E84" t="n">
         <v>7</v>
@@ -7080,24 +7080,24 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N84" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O84" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P84" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T84" t="n">
         <v>15</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44195</v>
+        <v>44179</v>
       </c>
       <c r="E85" t="n">
         <v>7</v>
@@ -7155,29 +7155,29 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N85" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O85" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P85" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>1133</v>
+        <v>800</v>
       </c>
       <c r="T85" t="n">
         <v>15</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44216</v>
+        <v>44179</v>
       </c>
       <c r="E86" t="n">
         <v>7</v>
@@ -7235,29 +7235,29 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="N86" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O86" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P86" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T86" t="n">
         <v>15</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44216</v>
+        <v>44195</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
@@ -7315,25 +7315,25 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N87" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O87" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P87" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>733</v>
+        <v>1133</v>
       </c>
       <c r="T87" t="n">
         <v>15</v>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -7404,16 +7404,16 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N88" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O88" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P88" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7422,11 +7422,11 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S88" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T88" t="n">
         <v>15</v>
@@ -7475,38 +7475,38 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N89" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O89" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P89" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S89" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T89" t="n">
         <v>15</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N90" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O90" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P90" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T90" t="n">
         <v>15</v>
@@ -7640,20 +7640,20 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N91" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O91" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P91" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T91" t="n">
         <v>15</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44232</v>
+        <v>44216</v>
       </c>
       <c r="E92" t="n">
         <v>7</v>
@@ -7715,25 +7715,25 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>450</v>
+        <v>60</v>
       </c>
       <c r="N92" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O92" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P92" t="n">
-        <v>13444</v>
+        <v>12000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7742,11 +7742,11 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S92" t="n">
-        <v>896</v>
+        <v>800</v>
       </c>
       <c r="T92" t="n">
         <v>15</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44176</v>
+        <v>44216</v>
       </c>
       <c r="E93" t="n">
         <v>7</v>
@@ -7795,25 +7795,25 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M93" t="n">
         <v>50</v>
       </c>
       <c r="N93" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O93" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P93" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7822,11 +7822,11 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S93" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T93" t="n">
         <v>15</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44176</v>
+        <v>44232</v>
       </c>
       <c r="E94" t="n">
         <v>7</v>
@@ -7875,29 +7875,29 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="N94" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O94" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P94" t="n">
-        <v>12000</v>
+        <v>13444</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>800</v>
+        <v>896</v>
       </c>
       <c r="T94" t="n">
         <v>15</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44165</v>
+        <v>44176</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
@@ -7955,29 +7955,29 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N95" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O95" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P95" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -7986,10 +7986,10 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>833</v>
+        <v>933</v>
       </c>
       <c r="T95" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96">
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44165</v>
+        <v>44176</v>
       </c>
       <c r="E96" t="n">
         <v>7</v>
@@ -8035,29 +8035,29 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N96" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O96" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P96" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -8066,10 +8066,10 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T96" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97">
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44530</v>
+        <v>44165</v>
       </c>
       <c r="E97" t="n">
         <v>7</v>
@@ -8124,20 +8124,20 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N97" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O97" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P97" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
@@ -8146,10 +8146,10 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>933</v>
+        <v>833</v>
       </c>
       <c r="T97" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98">
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44252</v>
+        <v>44165</v>
       </c>
       <c r="E98" t="n">
         <v>7</v>
@@ -8195,29 +8195,29 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N98" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O98" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P98" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
@@ -8226,10 +8226,10 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>867</v>
+        <v>778</v>
       </c>
       <c r="T98" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99">
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44252</v>
+        <v>44530</v>
       </c>
       <c r="E99" t="n">
         <v>7</v>
@@ -8275,25 +8275,25 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N99" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O99" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P99" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T99" t="n">
         <v>15</v>
@@ -8360,20 +8360,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N100" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O100" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P100" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T100" t="n">
         <v>15</v>
@@ -8440,20 +8440,20 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N101" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O101" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P101" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T101" t="n">
         <v>15</v>
@@ -8520,20 +8520,20 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N102" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O102" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P102" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T102" t="n">
         <v>15</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44245</v>
+        <v>44252</v>
       </c>
       <c r="E103" t="n">
         <v>7</v>
@@ -8600,24 +8600,24 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N103" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O103" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P103" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T103" t="n">
         <v>15</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44245</v>
+        <v>44252</v>
       </c>
       <c r="E104" t="n">
         <v>7</v>
@@ -8680,24 +8680,24 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N104" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O104" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P104" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T104" t="n">
         <v>15</v>
@@ -8760,20 +8760,20 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N105" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O105" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P105" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T105" t="n">
         <v>15</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44243</v>
+        <v>44245</v>
       </c>
       <c r="E106" t="n">
         <v>7</v>
@@ -8840,24 +8840,24 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M106" t="n">
         <v>300</v>
       </c>
       <c r="N106" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O106" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P106" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T106" t="n">
         <v>15</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44243</v>
+        <v>44245</v>
       </c>
       <c r="E107" t="n">
         <v>7</v>
@@ -8920,24 +8920,24 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N107" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O107" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P107" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T107" t="n">
         <v>15</v>
@@ -9000,20 +9000,20 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N108" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O108" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P108" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T108" t="n">
         <v>15</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44250</v>
+        <v>44243</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
@@ -9080,24 +9080,24 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N109" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O109" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P109" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T109" t="n">
         <v>15</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44250</v>
+        <v>44243</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
@@ -9160,24 +9160,24 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M110" t="n">
         <v>200</v>
       </c>
       <c r="N110" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O110" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P110" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>1000</v>
+        <v>533</v>
       </c>
       <c r="T110" t="n">
         <v>15</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44236</v>
+        <v>44250</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
@@ -9244,20 +9244,20 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N111" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O111" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P111" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T111" t="n">
         <v>15</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44236</v>
+        <v>44250</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
@@ -9324,20 +9324,20 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N112" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O112" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P112" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T112" t="n">
         <v>15</v>
@@ -9400,20 +9400,20 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N113" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O113" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P113" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="T113" t="n">
         <v>15</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44196</v>
+        <v>44236</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -9475,29 +9475,29 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N114" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O114" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P114" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T114" t="n">
         <v>15</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44196</v>
+        <v>44236</v>
       </c>
       <c r="E115" t="n">
         <v>7</v>
@@ -9555,7 +9555,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -9564,20 +9564,20 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N115" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O115" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P115" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T115" t="n">
         <v>15</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -9635,7 +9635,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N116" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O116" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P116" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T116" t="n">
         <v>15</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
@@ -9715,25 +9715,25 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N117" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O117" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P117" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T117" t="n">
         <v>15</v>
@@ -9795,25 +9795,25 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="N118" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O118" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P118" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T118" t="n">
         <v>15</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44263</v>
+        <v>44188</v>
       </c>
       <c r="E119" t="n">
         <v>7</v>
@@ -9875,7 +9875,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -9884,20 +9884,20 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N119" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O119" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P119" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T119" t="n">
         <v>15</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44263</v>
+        <v>44188</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
@@ -9955,29 +9955,29 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N120" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O120" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P120" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="T120" t="n">
         <v>15</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N121" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O121" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P121" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="T121" t="n">
         <v>15</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44237</v>
+        <v>44263</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -10115,25 +10115,25 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N122" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O122" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P122" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T122" t="n">
         <v>15</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44237</v>
+        <v>44263</v>
       </c>
       <c r="E123" t="n">
         <v>7</v>
@@ -10195,25 +10195,25 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N123" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O123" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P123" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>867</v>
+        <v>533</v>
       </c>
       <c r="T123" t="n">
         <v>15</v>
@@ -10275,7 +10275,7 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
@@ -10287,13 +10287,13 @@
         <v>400</v>
       </c>
       <c r="N124" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O124" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P124" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T124" t="n">
         <v>15</v>
@@ -10355,7 +10355,7 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -10367,13 +10367,13 @@
         <v>300</v>
       </c>
       <c r="N125" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O125" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P125" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T125" t="n">
         <v>15</v>
@@ -10440,20 +10440,20 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N126" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O126" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P126" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T126" t="n">
         <v>15</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44529</v>
+        <v>44237</v>
       </c>
       <c r="E127" t="n">
         <v>7</v>
@@ -10515,29 +10515,29 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N127" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O127" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P127" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
@@ -10546,10 +10546,10 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>833</v>
+        <v>933</v>
       </c>
       <c r="T127" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128">
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44221</v>
+        <v>44237</v>
       </c>
       <c r="E128" t="n">
         <v>7</v>
@@ -10595,25 +10595,25 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N128" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O128" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P128" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>933</v>
+        <v>600</v>
       </c>
       <c r="T128" t="n">
         <v>15</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44221</v>
+        <v>44529</v>
       </c>
       <c r="E129" t="n">
         <v>7</v>
@@ -10675,29 +10675,29 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N129" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O129" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P129" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
@@ -10706,10 +10706,10 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>867</v>
+        <v>833</v>
       </c>
       <c r="T129" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130">
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44201</v>
+        <v>44221</v>
       </c>
       <c r="E130" t="n">
         <v>7</v>
@@ -10767,13 +10767,13 @@
         <v>300</v>
       </c>
       <c r="N130" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O130" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P130" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T130" t="n">
         <v>15</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44201</v>
+        <v>44221</v>
       </c>
       <c r="E131" t="n">
         <v>7</v>
@@ -10835,7 +10835,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -10844,20 +10844,20 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N131" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O131" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P131" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>1067</v>
+        <v>867</v>
       </c>
       <c r="T131" t="n">
         <v>15</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44208</v>
+        <v>44201</v>
       </c>
       <c r="E132" t="n">
         <v>7</v>
@@ -10920,24 +10920,24 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M132" t="n">
         <v>300</v>
       </c>
       <c r="N132" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O132" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P132" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T132" t="n">
         <v>15</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44284</v>
+        <v>44201</v>
       </c>
       <c r="E133" t="n">
         <v>7</v>
@@ -10995,29 +10995,29 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N133" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O133" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P133" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>1000</v>
+        <v>1067</v>
       </c>
       <c r="T133" t="n">
         <v>15</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="E134" t="n">
         <v>7</v>
@@ -11080,24 +11080,24 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N134" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O134" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P134" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T134" t="n">
         <v>15</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44210</v>
+        <v>44284</v>
       </c>
       <c r="E135" t="n">
         <v>7</v>
@@ -11155,25 +11155,25 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N135" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O135" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P135" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T135" t="n">
         <v>15</v>
@@ -11240,20 +11240,20 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N136" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O136" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P136" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T136" t="n">
         <v>15</v>
@@ -11315,25 +11315,25 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N137" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O137" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P137" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T137" t="n">
         <v>15</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44242</v>
+        <v>44210</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -11400,20 +11400,20 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N138" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O138" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P138" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T138" t="n">
         <v>15</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44242</v>
+        <v>44210</v>
       </c>
       <c r="E139" t="n">
         <v>7</v>
@@ -11475,25 +11475,25 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M139" t="n">
         <v>300</v>
       </c>
       <c r="N139" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O139" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P139" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T139" t="n">
         <v>15</v>
@@ -11560,20 +11560,20 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N140" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O140" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P140" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="T140" t="n">
         <v>15</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44519</v>
+        <v>44242</v>
       </c>
       <c r="E141" t="n">
         <v>7</v>
@@ -11635,16 +11635,16 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N141" t="n">
         <v>13000</v>
@@ -11657,19 +11657,19 @@
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1300</v>
+        <v>867</v>
       </c>
       <c r="T141" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142">
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44519</v>
+        <v>44242</v>
       </c>
       <c r="E142" t="n">
         <v>7</v>
@@ -11715,41 +11715,41 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N142" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O142" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P142" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S142" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T142" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143">
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44231</v>
+        <v>44519</v>
       </c>
       <c r="E143" t="n">
         <v>7</v>
@@ -11795,41 +11795,41 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N143" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O143" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P143" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S143" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="T143" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144">
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44231</v>
+        <v>44519</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -11875,41 +11875,41 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N144" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O144" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P144" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S144" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T144" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145">
@@ -11955,25 +11955,25 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="N145" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O145" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P145" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T145" t="n">
         <v>15</v>
@@ -12040,20 +12040,20 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N146" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O146" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P146" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T146" t="n">
         <v>15</v>
@@ -12115,25 +12115,25 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="N147" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O147" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P147" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T147" t="n">
         <v>15</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44215</v>
+        <v>44231</v>
       </c>
       <c r="E148" t="n">
         <v>7</v>
@@ -12195,16 +12195,16 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N148" t="n">
         <v>14000</v>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44215</v>
+        <v>44231</v>
       </c>
       <c r="E149" t="n">
         <v>7</v>
@@ -12275,16 +12275,16 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N149" t="n">
         <v>12000</v>
@@ -12355,7 +12355,7 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
@@ -12364,16 +12364,16 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="N150" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O150" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P150" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T150" t="n">
         <v>15</v>
@@ -12435,7 +12435,7 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44204</v>
+        <v>44215</v>
       </c>
       <c r="E152" t="n">
         <v>7</v>
@@ -12524,16 +12524,16 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="N152" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O152" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P152" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T152" t="n">
         <v>15</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44204</v>
+        <v>44215</v>
       </c>
       <c r="E153" t="n">
         <v>7</v>
@@ -12604,7 +12604,7 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="N153" t="n">
         <v>12000</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44244</v>
+        <v>44204</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
@@ -12684,16 +12684,16 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N154" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O154" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P154" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T154" t="n">
         <v>15</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44244</v>
+        <v>44204</v>
       </c>
       <c r="E155" t="n">
         <v>7</v>
@@ -12760,11 +12760,11 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="N155" t="n">
         <v>12000</v>
@@ -12835,7 +12835,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -12915,7 +12915,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -13000,20 +13000,20 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N158" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O158" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P158" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T158" t="n">
         <v>15</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44200</v>
+        <v>44244</v>
       </c>
       <c r="E159" t="n">
         <v>7</v>
@@ -13075,25 +13075,25 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N159" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O159" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P159" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T159" t="n">
         <v>15</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44218</v>
+        <v>44244</v>
       </c>
       <c r="E160" t="n">
         <v>7</v>
@@ -13155,38 +13155,38 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N160" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O160" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P160" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S160" t="n">
-        <v>933</v>
+        <v>533</v>
       </c>
       <c r="T160" t="n">
         <v>15</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44218</v>
+        <v>44200</v>
       </c>
       <c r="E161" t="n">
         <v>7</v>
@@ -13240,33 +13240,33 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N161" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O161" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P161" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S161" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T161" t="n">
         <v>15</v>
@@ -13315,7 +13315,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N162" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O162" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P162" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13342,11 +13342,11 @@
       </c>
       <c r="R162" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S162" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T162" t="n">
         <v>15</v>
@@ -13395,7 +13395,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Carson</t>
         </is>
       </c